--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="438">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1326,6 +1326,9 @@
   <si>
     <t>['17', '26', '77']</t>
   </si>
+  <si>
+    <t>['5', '48']</t>
+  </si>
 </sst>
 </file>
 
@@ -1686,7 +1689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP407"/>
+  <dimension ref="A1:BP408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5734,7 +5737,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ20">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -7585,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ29">
         <v>1.06</v>
@@ -10884,7 +10887,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ45">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -12323,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ52">
         <v>0.53</v>
@@ -14386,7 +14389,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ62">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR62">
         <v>1.11</v>
@@ -17679,7 +17682,7 @@
         <v>3</v>
       </c>
       <c r="AP78">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ78">
         <v>1.11</v>
@@ -19536,7 +19539,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ87">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -22005,7 +22008,7 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ99">
         <v>0.83</v>
@@ -23450,7 +23453,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ106">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR106">
         <v>1.75</v>
@@ -23653,7 +23656,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ107">
         <v>1.21</v>
@@ -27364,7 +27367,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ125">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR125">
         <v>1.75</v>
@@ -27979,7 +27982,7 @@
         <v>1.17</v>
       </c>
       <c r="AP128">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ128">
         <v>0.95</v>
@@ -31896,7 +31899,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ147">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR147">
         <v>1.64</v>
@@ -32511,7 +32514,7 @@
         <v>0.5</v>
       </c>
       <c r="AP150">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ150">
         <v>0.63</v>
@@ -37043,7 +37046,7 @@
         <v>0</v>
       </c>
       <c r="AP172">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ172">
         <v>0.61</v>
@@ -37252,7 +37255,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ173">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR173">
         <v>1.12</v>
@@ -41987,7 +41990,7 @@
         <v>0.75</v>
       </c>
       <c r="AP196">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ196">
         <v>0.61</v>
@@ -43638,7 +43641,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ204">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR204">
         <v>1.35</v>
@@ -46931,7 +46934,7 @@
         <v>1.11</v>
       </c>
       <c r="AP220">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ220">
         <v>0.89</v>
@@ -47964,7 +47967,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ225">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR225">
         <v>1.68</v>
@@ -49818,7 +49821,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ234">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR234">
         <v>1.34</v>
@@ -50845,7 +50848,7 @@
         <v>1.2</v>
       </c>
       <c r="AP239">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ239">
         <v>1.21</v>
@@ -52905,7 +52908,7 @@
         <v>0.82</v>
       </c>
       <c r="AP249">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ249">
         <v>1</v>
@@ -54144,7 +54147,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ255">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR255">
         <v>1.67</v>
@@ -57643,7 +57646,7 @@
         <v>1.33</v>
       </c>
       <c r="AP272">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ272">
         <v>1.26</v>
@@ -60118,7 +60121,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ284">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR284">
         <v>1.4</v>
@@ -61766,7 +61769,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ292">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR292">
         <v>1.45</v>
@@ -62175,7 +62178,7 @@
         <v>1.15</v>
       </c>
       <c r="AP294">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ294">
         <v>1.06</v>
@@ -65883,7 +65886,7 @@
         <v>0.93</v>
       </c>
       <c r="AP312">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ312">
         <v>1</v>
@@ -66710,7 +66713,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ316">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR316">
         <v>1.33</v>
@@ -71242,7 +71245,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ338">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR338">
         <v>1.38</v>
@@ -71445,7 +71448,7 @@
         <v>1</v>
       </c>
       <c r="AP339">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ339">
         <v>1.17</v>
@@ -75156,7 +75159,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ357">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR357">
         <v>1.48</v>
@@ -76389,7 +76392,7 @@
         <v>1.31</v>
       </c>
       <c r="AP363">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ363">
         <v>1.22</v>
@@ -79894,7 +79897,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ380">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR380">
         <v>1.5</v>
@@ -80921,7 +80924,7 @@
         <v>1.24</v>
       </c>
       <c r="AP385">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ385">
         <v>1.11</v>
@@ -85532,6 +85535,212 @@
       </c>
       <c r="BP407">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="408" spans="1:68">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>6720108</v>
+      </c>
+      <c r="C408" t="s">
+        <v>68</v>
+      </c>
+      <c r="D408" t="s">
+        <v>69</v>
+      </c>
+      <c r="E408" s="2">
+        <v>45411.64583333334</v>
+      </c>
+      <c r="F408">
+        <v>37</v>
+      </c>
+      <c r="G408" t="s">
+        <v>90</v>
+      </c>
+      <c r="H408" t="s">
+        <v>79</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>1</v>
+      </c>
+      <c r="K408">
+        <v>1</v>
+      </c>
+      <c r="L408">
+        <v>0</v>
+      </c>
+      <c r="M408">
+        <v>2</v>
+      </c>
+      <c r="N408">
+        <v>2</v>
+      </c>
+      <c r="O408" t="s">
+        <v>96</v>
+      </c>
+      <c r="P408" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q408">
+        <v>2.88</v>
+      </c>
+      <c r="R408">
+        <v>1.95</v>
+      </c>
+      <c r="S408">
+        <v>4.5</v>
+      </c>
+      <c r="T408">
+        <v>1.53</v>
+      </c>
+      <c r="U408">
+        <v>2.38</v>
+      </c>
+      <c r="V408">
+        <v>3.5</v>
+      </c>
+      <c r="W408">
+        <v>1.29</v>
+      </c>
+      <c r="X408">
+        <v>11</v>
+      </c>
+      <c r="Y408">
+        <v>1.05</v>
+      </c>
+      <c r="Z408">
+        <v>2.39</v>
+      </c>
+      <c r="AA408">
+        <v>3.55</v>
+      </c>
+      <c r="AB408">
+        <v>2.45</v>
+      </c>
+      <c r="AC408">
+        <v>1.09</v>
+      </c>
+      <c r="AD408">
+        <v>7</v>
+      </c>
+      <c r="AE408">
+        <v>1.45</v>
+      </c>
+      <c r="AF408">
+        <v>2.7</v>
+      </c>
+      <c r="AG408">
+        <v>2.31</v>
+      </c>
+      <c r="AH408">
+        <v>1.56</v>
+      </c>
+      <c r="AI408">
+        <v>2.1</v>
+      </c>
+      <c r="AJ408">
+        <v>1.67</v>
+      </c>
+      <c r="AK408">
+        <v>1.25</v>
+      </c>
+      <c r="AL408">
+        <v>1.3</v>
+      </c>
+      <c r="AM408">
+        <v>1.75</v>
+      </c>
+      <c r="AN408">
+        <v>1.94</v>
+      </c>
+      <c r="AO408">
+        <v>0.72</v>
+      </c>
+      <c r="AP408">
+        <v>1.84</v>
+      </c>
+      <c r="AQ408">
+        <v>0.84</v>
+      </c>
+      <c r="AR408">
+        <v>1.38</v>
+      </c>
+      <c r="AS408">
+        <v>1.12</v>
+      </c>
+      <c r="AT408">
+        <v>2.5</v>
+      </c>
+      <c r="AU408">
+        <v>5</v>
+      </c>
+      <c r="AV408">
+        <v>5</v>
+      </c>
+      <c r="AW408">
+        <v>13</v>
+      </c>
+      <c r="AX408">
+        <v>1</v>
+      </c>
+      <c r="AY408">
+        <v>18</v>
+      </c>
+      <c r="AZ408">
+        <v>6</v>
+      </c>
+      <c r="BA408">
+        <v>8</v>
+      </c>
+      <c r="BB408">
+        <v>3</v>
+      </c>
+      <c r="BC408">
+        <v>11</v>
+      </c>
+      <c r="BD408">
+        <v>1.65</v>
+      </c>
+      <c r="BE408">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF408">
+        <v>2.73</v>
+      </c>
+      <c r="BG408">
+        <v>1.33</v>
+      </c>
+      <c r="BH408">
+        <v>2.93</v>
+      </c>
+      <c r="BI408">
+        <v>1.62</v>
+      </c>
+      <c r="BJ408">
+        <v>2.16</v>
+      </c>
+      <c r="BK408">
+        <v>2.08</v>
+      </c>
+      <c r="BL408">
+        <v>1.7</v>
+      </c>
+      <c r="BM408">
+        <v>2.72</v>
+      </c>
+      <c r="BN408">
+        <v>1.4</v>
+      </c>
+      <c r="BO408">
+        <v>3.74</v>
+      </c>
+      <c r="BP408">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -85677,10 +85677,10 @@
         <v>2.5</v>
       </c>
       <c r="AU408">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV408">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW408">
         <v>13</v>
@@ -85689,10 +85689,10 @@
         <v>1</v>
       </c>
       <c r="AY408">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ408">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA408">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -85677,10 +85677,10 @@
         <v>2.5</v>
       </c>
       <c r="AU408">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV408">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW408">
         <v>13</v>
@@ -85689,10 +85689,10 @@
         <v>1</v>
       </c>
       <c r="AY408">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ408">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA408">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -87552,22 +87552,22 @@
         <v>2.38</v>
       </c>
       <c r="AU417">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV417">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW417">
         <v>0</v>
       </c>
       <c r="AX417">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY417">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ417">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA417">
         <v>0</v>
@@ -87758,22 +87758,22 @@
         <v>2.64</v>
       </c>
       <c r="AU418">
+        <v>7</v>
+      </c>
+      <c r="AV418">
         <v>5</v>
       </c>
-      <c r="AV418">
-        <v>2</v>
-      </c>
       <c r="AW418">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX418">
         <v>1</v>
       </c>
       <c r="AY418">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ418">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA418">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="452">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1018,6 +1018,15 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['11', '28', '64', '70', '83']</t>
+  </si>
+  <si>
+    <t>['63', '86']</t>
+  </si>
+  <si>
+    <t>['11', '90']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -1355,6 +1364,12 @@
   </si>
   <si>
     <t>['5', '44']</t>
+  </si>
+  <si>
+    <t>['43', '65']</t>
+  </si>
+  <si>
+    <t>['31', '61']</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP420"/>
+  <dimension ref="A1:BP425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2259,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ3">
         <v>1.05</v>
@@ -2465,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ4">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3211,7 +3226,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3292,7 +3307,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ8">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3704,7 +3719,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ10">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3910,7 +3925,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ11">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4241,7 +4256,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q13">
         <v>2.55</v>
@@ -5065,7 +5080,7 @@
         <v>105</v>
       </c>
       <c r="P17" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q17">
         <v>2.28</v>
@@ -5143,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ17">
         <v>0.74</v>
@@ -5271,7 +5286,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5761,10 +5776,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ20">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5889,7 +5904,7 @@
         <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q21">
         <v>2.3</v>
@@ -6301,7 +6316,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6919,7 +6934,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q26">
         <v>2.8</v>
@@ -7125,7 +7140,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q27">
         <v>2.32</v>
@@ -7203,10 +7218,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ27">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR27">
         <v>1.51</v>
@@ -7615,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ29">
         <v>1.05</v>
@@ -7824,7 +7839,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ30">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR30">
         <v>1.61</v>
@@ -8030,7 +8045,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ31">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR31">
         <v>1.16</v>
@@ -8442,7 +8457,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ33">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8645,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ34">
         <v>1.11</v>
@@ -9263,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ37">
         <v>0.74</v>
@@ -9469,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ38">
         <v>1.11</v>
@@ -9597,7 +9612,7 @@
         <v>120</v>
       </c>
       <c r="P39" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q39">
         <v>2.45</v>
@@ -9803,7 +9818,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q40">
         <v>2.9</v>
@@ -10421,7 +10436,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10914,7 +10929,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ45">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -11039,7 +11054,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -11117,10 +11132,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ46">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR46">
         <v>1.99</v>
@@ -11326,7 +11341,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ47">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
         <v>1.7</v>
@@ -12147,7 +12162,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ51">
         <v>0.79</v>
@@ -12275,7 +12290,7 @@
         <v>130</v>
       </c>
       <c r="P52" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q52">
         <v>2.71</v>
@@ -12353,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ52">
         <v>0.53</v>
@@ -12481,7 +12496,7 @@
         <v>131</v>
       </c>
       <c r="P53" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q53">
         <v>3.6</v>
@@ -12562,7 +12577,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ53">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR53">
         <v>1.16</v>
@@ -12687,7 +12702,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12893,7 +12908,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q55">
         <v>2.82</v>
@@ -12971,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ55">
         <v>1.16</v>
@@ -13099,7 +13114,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13180,7 +13195,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ56">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR56">
         <v>0.98</v>
@@ -13305,7 +13320,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q57">
         <v>2.63</v>
@@ -13511,7 +13526,7 @@
         <v>134</v>
       </c>
       <c r="P58" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13717,7 +13732,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -14001,7 +14016,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ60">
         <v>1.21</v>
@@ -14416,7 +14431,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ62">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR62">
         <v>1.11</v>
@@ -14747,7 +14762,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -15237,7 +15252,7 @@
         <v>3</v>
       </c>
       <c r="AP66">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ66">
         <v>0.89</v>
@@ -15571,7 +15586,7 @@
         <v>106</v>
       </c>
       <c r="P68" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15652,7 +15667,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ68">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR68">
         <v>1.52</v>
@@ -16061,7 +16076,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ70">
         <v>1.05</v>
@@ -16395,7 +16410,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16679,7 +16694,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ73">
         <v>0.74</v>
@@ -17219,7 +17234,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17506,7 +17521,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ77">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR77">
         <v>1.13</v>
@@ -17709,7 +17724,7 @@
         <v>3</v>
       </c>
       <c r="AP78">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ78">
         <v>1.11</v>
@@ -18455,7 +18470,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18536,7 +18551,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ82">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR82">
         <v>1.63</v>
@@ -18742,7 +18757,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ83">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18867,7 +18882,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -19357,7 +19372,7 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ86">
         <v>0.74</v>
@@ -19485,7 +19500,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q87">
         <v>2.4</v>
@@ -19566,7 +19581,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ87">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -19691,7 +19706,7 @@
         <v>96</v>
       </c>
       <c r="P88" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -20103,7 +20118,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q90">
         <v>3.82</v>
@@ -20387,7 +20402,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ91">
         <v>0.53</v>
@@ -21211,7 +21226,7 @@
         <v>0.33</v>
       </c>
       <c r="AP95">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ95">
         <v>1.16</v>
@@ -21545,7 +21560,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q97">
         <v>2.82</v>
@@ -21751,7 +21766,7 @@
         <v>162</v>
       </c>
       <c r="P98" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q98">
         <v>4.19</v>
@@ -21832,7 +21847,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ98">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR98">
         <v>1.47</v>
@@ -22035,7 +22050,7 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ99">
         <v>0.79</v>
@@ -22163,7 +22178,7 @@
         <v>96</v>
       </c>
       <c r="P100" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22244,7 +22259,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ100">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR100">
         <v>1.43</v>
@@ -22369,7 +22384,7 @@
         <v>96</v>
       </c>
       <c r="P101" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q101">
         <v>2.65</v>
@@ -22575,7 +22590,7 @@
         <v>96</v>
       </c>
       <c r="P102" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22781,7 +22796,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q103">
         <v>2.8</v>
@@ -22859,7 +22874,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ103">
         <v>1.05</v>
@@ -23193,7 +23208,7 @@
         <v>121</v>
       </c>
       <c r="P105" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q105">
         <v>3.7</v>
@@ -23274,7 +23289,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ105">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR105">
         <v>0.99</v>
@@ -23399,7 +23414,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q106">
         <v>2.4</v>
@@ -23477,10 +23492,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ106">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR106">
         <v>1.75</v>
@@ -23605,7 +23620,7 @@
         <v>98</v>
       </c>
       <c r="P107" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -23683,7 +23698,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ107">
         <v>1.21</v>
@@ -24017,7 +24032,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q109">
         <v>2.4</v>
@@ -24098,7 +24113,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ109">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR109">
         <v>1.21</v>
@@ -24304,7 +24319,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ110">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR110">
         <v>1.86</v>
@@ -24510,7 +24525,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ111">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR111">
         <v>1.79</v>
@@ -25047,7 +25062,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q114">
         <v>2.9</v>
@@ -25253,7 +25268,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q115">
         <v>2.9</v>
@@ -25331,7 +25346,7 @@
         <v>2.25</v>
       </c>
       <c r="AP115">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ115">
         <v>1.11</v>
@@ -25665,7 +25680,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q117">
         <v>2.7</v>
@@ -25952,7 +25967,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ118">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR118">
         <v>1.2</v>
@@ -26283,7 +26298,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q120">
         <v>2.15</v>
@@ -26773,7 +26788,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -27313,7 +27328,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27394,7 +27409,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ125">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR125">
         <v>1.75</v>
@@ -27725,7 +27740,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27806,7 +27821,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ127">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR127">
         <v>1.29</v>
@@ -28009,7 +28024,7 @@
         <v>1.17</v>
       </c>
       <c r="AP128">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ128">
         <v>1.05</v>
@@ -28343,7 +28358,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -28627,7 +28642,7 @@
         <v>0</v>
       </c>
       <c r="AP131">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ131">
         <v>0.74</v>
@@ -28833,10 +28848,10 @@
         <v>0.6</v>
       </c>
       <c r="AP132">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ132">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR132">
         <v>1.82</v>
@@ -28961,7 +28976,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29657,10 +29672,10 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ136">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR136">
         <v>1.57</v>
@@ -30690,7 +30705,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ141">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR141">
         <v>1.13</v>
@@ -31021,7 +31036,7 @@
         <v>191</v>
       </c>
       <c r="P143" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -31099,7 +31114,7 @@
         <v>0.83</v>
       </c>
       <c r="AP143">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -31227,7 +31242,7 @@
         <v>98</v>
       </c>
       <c r="P144" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q144">
         <v>3.25</v>
@@ -31433,7 +31448,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q145">
         <v>2.6</v>
@@ -31514,7 +31529,7 @@
         <v>2</v>
       </c>
       <c r="AQ145">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR145">
         <v>1.44</v>
@@ -31639,7 +31654,7 @@
         <v>96</v>
       </c>
       <c r="P146" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q146">
         <v>3.35</v>
@@ -31845,7 +31860,7 @@
         <v>193</v>
       </c>
       <c r="P147" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q147">
         <v>2.3</v>
@@ -31923,10 +31938,10 @@
         <v>1.17</v>
       </c>
       <c r="AP147">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ147">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR147">
         <v>1.64</v>
@@ -32129,7 +32144,7 @@
         <v>1.17</v>
       </c>
       <c r="AP148">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ148">
         <v>0.89</v>
@@ -32257,7 +32272,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q149">
         <v>2.8</v>
@@ -32541,10 +32556,10 @@
         <v>0.5</v>
       </c>
       <c r="AP150">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ150">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32875,7 +32890,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -33081,7 +33096,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -33905,7 +33920,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q157">
         <v>3.14</v>
@@ -33983,7 +33998,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ157">
         <v>1.26</v>
@@ -34317,7 +34332,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34523,7 +34538,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q160">
         <v>1.95</v>
@@ -34601,7 +34616,7 @@
         <v>0.14</v>
       </c>
       <c r="AP160">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ160">
         <v>0.79</v>
@@ -34729,7 +34744,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34810,7 +34825,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ161">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR161">
         <v>1.33</v>
@@ -34935,7 +34950,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q162">
         <v>2.45</v>
@@ -35428,7 +35443,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ164">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR164">
         <v>1.11</v>
@@ -35553,7 +35568,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -36043,7 +36058,7 @@
         <v>2.14</v>
       </c>
       <c r="AP167">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ167">
         <v>1.68</v>
@@ -36583,7 +36598,7 @@
         <v>96</v>
       </c>
       <c r="P170" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q170">
         <v>2.8</v>
@@ -36995,7 +37010,7 @@
         <v>175</v>
       </c>
       <c r="P172" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37073,7 +37088,7 @@
         <v>0</v>
       </c>
       <c r="AP172">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ172">
         <v>0.74</v>
@@ -37201,7 +37216,7 @@
         <v>211</v>
       </c>
       <c r="P173" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q173">
         <v>2.88</v>
@@ -37282,7 +37297,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ173">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR173">
         <v>1.12</v>
@@ -37407,7 +37422,7 @@
         <v>212</v>
       </c>
       <c r="P174" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q174">
         <v>3.65</v>
@@ -37488,7 +37503,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ174">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR174">
         <v>1.21</v>
@@ -37900,7 +37915,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ176">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR176">
         <v>1.72</v>
@@ -38025,7 +38040,7 @@
         <v>214</v>
       </c>
       <c r="P177" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38103,7 +38118,7 @@
         <v>0.71</v>
       </c>
       <c r="AP177">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ177">
         <v>1</v>
@@ -38518,7 +38533,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ179">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR179">
         <v>1.38</v>
@@ -38721,7 +38736,7 @@
         <v>0.75</v>
       </c>
       <c r="AP180">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ180">
         <v>0.53</v>
@@ -39261,7 +39276,7 @@
         <v>217</v>
       </c>
       <c r="P183" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -40166,7 +40181,7 @@
         <v>2</v>
       </c>
       <c r="AQ187">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR187">
         <v>1.43</v>
@@ -40369,7 +40384,7 @@
         <v>1.38</v>
       </c>
       <c r="AP188">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ188">
         <v>1.05</v>
@@ -40578,7 +40593,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ189">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR189">
         <v>1.21</v>
@@ -40703,7 +40718,7 @@
         <v>96</v>
       </c>
       <c r="P190" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q190">
         <v>2.85</v>
@@ -41399,7 +41414,7 @@
         <v>1.5</v>
       </c>
       <c r="AP193">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ193">
         <v>1.26</v>
@@ -41733,7 +41748,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q195">
         <v>3.75</v>
@@ -41939,7 +41954,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q196">
         <v>3.25</v>
@@ -42017,7 +42032,7 @@
         <v>0.75</v>
       </c>
       <c r="AP196">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ196">
         <v>0.74</v>
@@ -42351,7 +42366,7 @@
         <v>96</v>
       </c>
       <c r="P198" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q198">
         <v>3.4</v>
@@ -42638,7 +42653,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ199">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR199">
         <v>1.64</v>
@@ -43175,7 +43190,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -43253,7 +43268,7 @@
         <v>0.22</v>
       </c>
       <c r="AP202">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ202">
         <v>0.79</v>
@@ -43459,7 +43474,7 @@
         <v>1.33</v>
       </c>
       <c r="AP203">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ203">
         <v>1.16</v>
@@ -43668,7 +43683,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ204">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR204">
         <v>1.35</v>
@@ -43793,7 +43808,7 @@
         <v>100</v>
       </c>
       <c r="P205" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q205">
         <v>2.35</v>
@@ -43999,7 +44014,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q206">
         <v>3.25</v>
@@ -44077,7 +44092,7 @@
         <v>0.78</v>
       </c>
       <c r="AP206">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ206">
         <v>1.11</v>
@@ -44205,7 +44220,7 @@
         <v>231</v>
       </c>
       <c r="P207" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q207">
         <v>2.38</v>
@@ -44286,7 +44301,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ207">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR207">
         <v>1.67</v>
@@ -44411,7 +44426,7 @@
         <v>97</v>
       </c>
       <c r="P208" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -44904,7 +44919,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ210">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR210">
         <v>1.35</v>
@@ -45029,7 +45044,7 @@
         <v>232</v>
       </c>
       <c r="P211" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45235,7 +45250,7 @@
         <v>233</v>
       </c>
       <c r="P212" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -45522,7 +45537,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ213">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR213">
         <v>1.44</v>
@@ -45647,7 +45662,7 @@
         <v>96</v>
       </c>
       <c r="P214" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -45853,7 +45868,7 @@
         <v>190</v>
       </c>
       <c r="P215" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q215">
         <v>2.85</v>
@@ -45931,7 +45946,7 @@
         <v>1.78</v>
       </c>
       <c r="AP215">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ215">
         <v>1.68</v>
@@ -46346,7 +46361,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ217">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR217">
         <v>1.38</v>
@@ -46549,7 +46564,7 @@
         <v>1.33</v>
       </c>
       <c r="AP218">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ218">
         <v>1.11</v>
@@ -46961,7 +46976,7 @@
         <v>1.11</v>
       </c>
       <c r="AP220">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ220">
         <v>0.89</v>
@@ -47373,10 +47388,10 @@
         <v>0.6</v>
       </c>
       <c r="AP222">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ222">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR222">
         <v>1.33</v>
@@ -47707,7 +47722,7 @@
         <v>240</v>
       </c>
       <c r="P224" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47994,7 +48009,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ225">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR225">
         <v>1.68</v>
@@ -48119,7 +48134,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q226">
         <v>3</v>
@@ -49149,7 +49164,7 @@
         <v>125</v>
       </c>
       <c r="P231" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q231">
         <v>2.9</v>
@@ -49230,7 +49245,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ231">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR231">
         <v>1.11</v>
@@ -49433,7 +49448,7 @@
         <v>1.2</v>
       </c>
       <c r="AP232">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ232">
         <v>1</v>
@@ -49848,7 +49863,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ234">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR234">
         <v>1.34</v>
@@ -50051,7 +50066,7 @@
         <v>0.6</v>
       </c>
       <c r="AP235">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ235">
         <v>0.74</v>
@@ -50875,10 +50890,10 @@
         <v>1.2</v>
       </c>
       <c r="AP239">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ239">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR239">
         <v>1.54</v>
@@ -51003,7 +51018,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q240">
         <v>3.2</v>
@@ -51209,7 +51224,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q241">
         <v>2.88</v>
@@ -51493,7 +51508,7 @@
         <v>1.2</v>
       </c>
       <c r="AP242">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ242">
         <v>1.11</v>
@@ -51908,7 +51923,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ244">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR244">
         <v>1.71</v>
@@ -52114,7 +52129,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ245">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR245">
         <v>1.39</v>
@@ -52239,7 +52254,7 @@
         <v>96</v>
       </c>
       <c r="P246" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q246">
         <v>3.35</v>
@@ -52445,7 +52460,7 @@
         <v>253</v>
       </c>
       <c r="P247" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q247">
         <v>2.23</v>
@@ -52651,7 +52666,7 @@
         <v>254</v>
       </c>
       <c r="P248" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q248">
         <v>3.18</v>
@@ -52857,7 +52872,7 @@
         <v>202</v>
       </c>
       <c r="P249" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q249">
         <v>2.95</v>
@@ -52935,7 +52950,7 @@
         <v>0.82</v>
       </c>
       <c r="AP249">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ249">
         <v>1.11</v>
@@ -53063,7 +53078,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53141,7 +53156,7 @@
         <v>1</v>
       </c>
       <c r="AP250">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ250">
         <v>1.21</v>
@@ -53475,7 +53490,7 @@
         <v>255</v>
       </c>
       <c r="P252" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53556,7 +53571,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ252">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR252">
         <v>1.19</v>
@@ -54174,7 +54189,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ255">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR255">
         <v>1.67</v>
@@ -54995,7 +55010,7 @@
         <v>1</v>
       </c>
       <c r="AP259">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ259">
         <v>0.89</v>
@@ -55123,7 +55138,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q260">
         <v>3.6</v>
@@ -55204,7 +55219,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ260">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR260">
         <v>1.3</v>
@@ -55329,7 +55344,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q261">
         <v>3.1</v>
@@ -55741,7 +55756,7 @@
         <v>261</v>
       </c>
       <c r="P263" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q263">
         <v>2.7</v>
@@ -55947,7 +55962,7 @@
         <v>262</v>
       </c>
       <c r="P264" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q264">
         <v>2.63</v>
@@ -56025,7 +56040,7 @@
         <v>1.36</v>
       </c>
       <c r="AP264">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ264">
         <v>1</v>
@@ -56231,7 +56246,7 @@
         <v>0.91</v>
       </c>
       <c r="AP265">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ265">
         <v>1</v>
@@ -56852,7 +56867,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ268">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR268">
         <v>1.26</v>
@@ -57470,7 +57485,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ271">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR271">
         <v>1.34</v>
@@ -57595,7 +57610,7 @@
         <v>116</v>
       </c>
       <c r="P272" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q272">
         <v>3.75</v>
@@ -57673,10 +57688,10 @@
         <v>1.33</v>
       </c>
       <c r="AP272">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ272">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR272">
         <v>1.43</v>
@@ -58703,7 +58718,7 @@
         <v>1.67</v>
       </c>
       <c r="AP277">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ277">
         <v>1.68</v>
@@ -59321,7 +59336,7 @@
         <v>1</v>
       </c>
       <c r="AP280">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ280">
         <v>1.11</v>
@@ -59527,10 +59542,10 @@
         <v>1.08</v>
       </c>
       <c r="AP281">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ281">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR281">
         <v>1.42</v>
@@ -59942,7 +59957,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ283">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR283">
         <v>1.31</v>
@@ -60148,7 +60163,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ284">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR284">
         <v>1.4</v>
@@ -60763,7 +60778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP287">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ287">
         <v>0.74</v>
@@ -60891,7 +60906,7 @@
         <v>273</v>
       </c>
       <c r="P288" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q288">
         <v>2.63</v>
@@ -61509,7 +61524,7 @@
         <v>190</v>
       </c>
       <c r="P291" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q291">
         <v>3.2</v>
@@ -61587,7 +61602,7 @@
         <v>1.08</v>
       </c>
       <c r="AP291">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ291">
         <v>1.26</v>
@@ -61796,7 +61811,7 @@
         <v>2</v>
       </c>
       <c r="AQ292">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR292">
         <v>1.45</v>
@@ -62205,7 +62220,7 @@
         <v>1.15</v>
       </c>
       <c r="AP294">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ294">
         <v>1.16</v>
@@ -62414,7 +62429,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ295">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR295">
         <v>1.34</v>
@@ -62826,7 +62841,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ297">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR297">
         <v>1.64</v>
@@ -63235,7 +63250,7 @@
         <v>0.92</v>
       </c>
       <c r="AP299">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ299">
         <v>1.11</v>
@@ -63441,7 +63456,7 @@
         <v>1.62</v>
       </c>
       <c r="AP300">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ300">
         <v>1.68</v>
@@ -63775,7 +63790,7 @@
         <v>281</v>
       </c>
       <c r="P302" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q302">
         <v>2.75</v>
@@ -63856,7 +63871,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ302">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR302">
         <v>1.66</v>
@@ -64393,7 +64408,7 @@
         <v>206</v>
       </c>
       <c r="P305" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q305">
         <v>4</v>
@@ -65011,7 +65026,7 @@
         <v>96</v>
       </c>
       <c r="P308" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q308">
         <v>3.1</v>
@@ -65295,7 +65310,7 @@
         <v>0.57</v>
       </c>
       <c r="AP309">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ309">
         <v>0.74</v>
@@ -65835,7 +65850,7 @@
         <v>286</v>
       </c>
       <c r="P312" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q312">
         <v>2.8</v>
@@ -65913,7 +65928,7 @@
         <v>0.93</v>
       </c>
       <c r="AP312">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ312">
         <v>1</v>
@@ -66041,7 +66056,7 @@
         <v>287</v>
       </c>
       <c r="P313" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q313">
         <v>2.62</v>
@@ -66659,7 +66674,7 @@
         <v>290</v>
       </c>
       <c r="P316" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q316">
         <v>2.7</v>
@@ -66740,7 +66755,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ316">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR316">
         <v>1.33</v>
@@ -67071,7 +67086,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q318">
         <v>3</v>
@@ -67152,7 +67167,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ318">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR318">
         <v>1.35</v>
@@ -67358,7 +67373,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ319">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR319">
         <v>1.68</v>
@@ -67564,7 +67579,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ320">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR320">
         <v>1.28</v>
@@ -67689,7 +67704,7 @@
         <v>92</v>
       </c>
       <c r="P321" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q321">
         <v>3.1</v>
@@ -68179,7 +68194,7 @@
         <v>1.14</v>
       </c>
       <c r="AP323">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ323">
         <v>1.11</v>
@@ -68513,7 +68528,7 @@
         <v>296</v>
       </c>
       <c r="P325" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q325">
         <v>3.25</v>
@@ -68591,7 +68606,7 @@
         <v>0.93</v>
       </c>
       <c r="AP325">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ325">
         <v>0.89</v>
@@ -69003,7 +69018,7 @@
         <v>1.14</v>
       </c>
       <c r="AP327">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ327">
         <v>1.05</v>
@@ -69418,7 +69433,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ329">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR329">
         <v>1.24</v>
@@ -69827,10 +69842,10 @@
         <v>0.47</v>
       </c>
       <c r="AP331">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ331">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR331">
         <v>1.55</v>
@@ -71063,10 +71078,10 @@
         <v>0.93</v>
       </c>
       <c r="AP337">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ337">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR337">
         <v>1.49</v>
@@ -71272,7 +71287,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ338">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR338">
         <v>1.38</v>
@@ -71475,7 +71490,7 @@
         <v>1</v>
       </c>
       <c r="AP339">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ339">
         <v>1.26</v>
@@ -71684,7 +71699,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ340">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR340">
         <v>1.46</v>
@@ -71809,7 +71824,7 @@
         <v>301</v>
       </c>
       <c r="P341" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q341">
         <v>2.5</v>
@@ -72015,7 +72030,7 @@
         <v>96</v>
       </c>
       <c r="P342" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q342">
         <v>2.5</v>
@@ -72508,7 +72523,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ344">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR344">
         <v>1.33</v>
@@ -72633,7 +72648,7 @@
         <v>121</v>
       </c>
       <c r="P345" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q345">
         <v>3.65</v>
@@ -73329,10 +73344,10 @@
         <v>1.4</v>
       </c>
       <c r="AP348">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ348">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR348">
         <v>1.64</v>
@@ -73869,7 +73884,7 @@
         <v>306</v>
       </c>
       <c r="P351" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q351">
         <v>3.25</v>
@@ -73947,7 +73962,7 @@
         <v>1.4</v>
       </c>
       <c r="AP351">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ351">
         <v>1.16</v>
@@ -74153,7 +74168,7 @@
         <v>1.13</v>
       </c>
       <c r="AP352">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ352">
         <v>1.05</v>
@@ -74568,7 +74583,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ354">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR354">
         <v>1.43</v>
@@ -74771,7 +74786,7 @@
         <v>1.06</v>
       </c>
       <c r="AP355">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ355">
         <v>1.16</v>
@@ -75186,7 +75201,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ357">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR357">
         <v>1.48</v>
@@ -75517,7 +75532,7 @@
         <v>309</v>
       </c>
       <c r="P359" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q359">
         <v>2.75</v>
@@ -75595,7 +75610,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP359">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ359">
         <v>1</v>
@@ -76135,7 +76150,7 @@
         <v>310</v>
       </c>
       <c r="P362" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76419,7 +76434,7 @@
         <v>1.31</v>
       </c>
       <c r="AP363">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ363">
         <v>1.16</v>
@@ -76753,7 +76768,7 @@
         <v>96</v>
       </c>
       <c r="P365" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q365">
         <v>2.73</v>
@@ -76959,7 +76974,7 @@
         <v>312</v>
       </c>
       <c r="P366" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q366">
         <v>3.9</v>
@@ -77165,7 +77180,7 @@
         <v>96</v>
       </c>
       <c r="P367" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q367">
         <v>2.8</v>
@@ -77246,7 +77261,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ367">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR367">
         <v>1.32</v>
@@ -77449,7 +77464,7 @@
         <v>1.06</v>
       </c>
       <c r="AP368">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ368">
         <v>1.11</v>
@@ -77989,7 +78004,7 @@
         <v>315</v>
       </c>
       <c r="P371" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q371">
         <v>3.25</v>
@@ -78195,7 +78210,7 @@
         <v>316</v>
       </c>
       <c r="P372" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q372">
         <v>3.25</v>
@@ -78276,7 +78291,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ372">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR372">
         <v>1.36</v>
@@ -78607,7 +78622,7 @@
         <v>96</v>
       </c>
       <c r="P374" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q374">
         <v>4.5</v>
@@ -78813,7 +78828,7 @@
         <v>96</v>
       </c>
       <c r="P375" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q375">
         <v>2.38</v>
@@ -78891,10 +78906,10 @@
         <v>0.88</v>
       </c>
       <c r="AP375">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ375">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR375">
         <v>1.45</v>
@@ -79100,7 +79115,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ376">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR376">
         <v>1.38</v>
@@ -79303,7 +79318,7 @@
         <v>1.18</v>
       </c>
       <c r="AP377">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ377">
         <v>1.21</v>
@@ -79509,7 +79524,7 @@
         <v>1</v>
       </c>
       <c r="AP378">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ378">
         <v>1.05</v>
@@ -79637,7 +79652,7 @@
         <v>126</v>
       </c>
       <c r="P379" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q379">
         <v>2.3</v>
@@ -79715,7 +79730,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP379">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ379">
         <v>0.79</v>
@@ -79924,7 +79939,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ380">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR380">
         <v>1.5</v>
@@ -80049,7 +80064,7 @@
         <v>96</v>
       </c>
       <c r="P381" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q381">
         <v>3.45</v>
@@ -80130,7 +80145,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ381">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR381">
         <v>1.45</v>
@@ -80461,7 +80476,7 @@
         <v>203</v>
       </c>
       <c r="P383" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q383">
         <v>3.7</v>
@@ -80873,7 +80888,7 @@
         <v>320</v>
       </c>
       <c r="P385" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q385">
         <v>3.1</v>
@@ -80951,7 +80966,7 @@
         <v>1.24</v>
       </c>
       <c r="AP385">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ385">
         <v>1.11</v>
@@ -81491,7 +81506,7 @@
         <v>96</v>
       </c>
       <c r="P388" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q388">
         <v>4.2</v>
@@ -81981,7 +81996,7 @@
         <v>1.06</v>
       </c>
       <c r="AP390">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ390">
         <v>1.16</v>
@@ -82109,7 +82124,7 @@
         <v>321</v>
       </c>
       <c r="P391" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q391">
         <v>2.31</v>
@@ -82315,7 +82330,7 @@
         <v>322</v>
       </c>
       <c r="P392" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q392">
         <v>3.35</v>
@@ -82602,7 +82617,7 @@
         <v>2</v>
       </c>
       <c r="AQ393">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AR393">
         <v>1.48</v>
@@ -82808,7 +82823,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ394">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR394">
         <v>1.65</v>
@@ -83757,7 +83772,7 @@
         <v>270</v>
       </c>
       <c r="P399" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q399">
         <v>2.8</v>
@@ -83963,7 +83978,7 @@
         <v>326</v>
       </c>
       <c r="P400" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q400">
         <v>2.38</v>
@@ -84169,7 +84184,7 @@
         <v>327</v>
       </c>
       <c r="P401" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q401">
         <v>2.79</v>
@@ -84250,7 +84265,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ401">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR401">
         <v>1.67</v>
@@ -84375,7 +84390,7 @@
         <v>96</v>
       </c>
       <c r="P402" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q402">
         <v>2.34</v>
@@ -84453,7 +84468,7 @@
         <v>0.39</v>
       </c>
       <c r="AP402">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ402">
         <v>0.53</v>
@@ -85071,7 +85086,7 @@
         <v>1.17</v>
       </c>
       <c r="AP405">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AQ405">
         <v>1.11</v>
@@ -85277,7 +85292,7 @@
         <v>1.11</v>
       </c>
       <c r="AP406">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AQ406">
         <v>1.21</v>
@@ -85486,7 +85501,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ407">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR407">
         <v>1.64</v>
@@ -85611,7 +85626,7 @@
         <v>96</v>
       </c>
       <c r="P408" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q408">
         <v>2.88</v>
@@ -85689,10 +85704,10 @@
         <v>0.72</v>
       </c>
       <c r="AP408">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ408">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR408">
         <v>1.38</v>
@@ -85817,7 +85832,7 @@
         <v>96</v>
       </c>
       <c r="P409" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q409">
         <v>3.25</v>
@@ -86229,7 +86244,7 @@
         <v>96</v>
       </c>
       <c r="P411" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q411">
         <v>3.75</v>
@@ -86513,7 +86528,7 @@
         <v>1.22</v>
       </c>
       <c r="AP412">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ412">
         <v>1.16</v>
@@ -86722,7 +86737,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ413">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR413">
         <v>1.35</v>
@@ -87465,7 +87480,7 @@
         <v>331</v>
       </c>
       <c r="P417" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q417">
         <v>4</v>
@@ -87671,7 +87686,7 @@
         <v>213</v>
       </c>
       <c r="P418" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q418">
         <v>3.1</v>
@@ -88083,7 +88098,7 @@
         <v>333</v>
       </c>
       <c r="P420" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q420">
         <v>2.54</v>
@@ -88240,6 +88255,1036 @@
       </c>
       <c r="BP420">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:68">
+      <c r="A421" s="1">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>6720135</v>
+      </c>
+      <c r="C421" t="s">
+        <v>68</v>
+      </c>
+      <c r="D421" t="s">
+        <v>69</v>
+      </c>
+      <c r="E421" s="2">
+        <v>45423.375</v>
+      </c>
+      <c r="F421">
+        <v>39</v>
+      </c>
+      <c r="G421" t="s">
+        <v>72</v>
+      </c>
+      <c r="H421" t="s">
+        <v>79</v>
+      </c>
+      <c r="I421">
+        <v>1</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421">
+        <v>1</v>
+      </c>
+      <c r="L421">
+        <v>1</v>
+      </c>
+      <c r="M421">
+        <v>0</v>
+      </c>
+      <c r="N421">
+        <v>1</v>
+      </c>
+      <c r="O421" t="s">
+        <v>169</v>
+      </c>
+      <c r="P421" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q421">
+        <v>2.3</v>
+      </c>
+      <c r="R421">
+        <v>2.2</v>
+      </c>
+      <c r="S421">
+        <v>4.75</v>
+      </c>
+      <c r="T421">
+        <v>1.38</v>
+      </c>
+      <c r="U421">
+        <v>2.8</v>
+      </c>
+      <c r="V421">
+        <v>2.7</v>
+      </c>
+      <c r="W421">
+        <v>1.4</v>
+      </c>
+      <c r="X421">
+        <v>6.5</v>
+      </c>
+      <c r="Y421">
+        <v>1.08</v>
+      </c>
+      <c r="Z421">
+        <v>1.85</v>
+      </c>
+      <c r="AA421">
+        <v>3.5</v>
+      </c>
+      <c r="AB421">
+        <v>4.2</v>
+      </c>
+      <c r="AC421">
+        <v>1.02</v>
+      </c>
+      <c r="AD421">
+        <v>10</v>
+      </c>
+      <c r="AE421">
+        <v>1.29</v>
+      </c>
+      <c r="AF421">
+        <v>3.3</v>
+      </c>
+      <c r="AG421">
+        <v>1.93</v>
+      </c>
+      <c r="AH421">
+        <v>1.8</v>
+      </c>
+      <c r="AI421">
+        <v>1.8</v>
+      </c>
+      <c r="AJ421">
+        <v>1.91</v>
+      </c>
+      <c r="AK421">
+        <v>1.22</v>
+      </c>
+      <c r="AL421">
+        <v>1.29</v>
+      </c>
+      <c r="AM421">
+        <v>2</v>
+      </c>
+      <c r="AN421">
+        <v>2.05</v>
+      </c>
+      <c r="AO421">
+        <v>0.84</v>
+      </c>
+      <c r="AP421">
+        <v>2.1</v>
+      </c>
+      <c r="AQ421">
+        <v>0.8</v>
+      </c>
+      <c r="AR421">
+        <v>1.54</v>
+      </c>
+      <c r="AS421">
+        <v>1.11</v>
+      </c>
+      <c r="AT421">
+        <v>2.65</v>
+      </c>
+      <c r="AU421">
+        <v>8</v>
+      </c>
+      <c r="AV421">
+        <v>0</v>
+      </c>
+      <c r="AW421">
+        <v>8</v>
+      </c>
+      <c r="AX421">
+        <v>5</v>
+      </c>
+      <c r="AY421">
+        <v>16</v>
+      </c>
+      <c r="AZ421">
+        <v>5</v>
+      </c>
+      <c r="BA421">
+        <v>10</v>
+      </c>
+      <c r="BB421">
+        <v>3</v>
+      </c>
+      <c r="BC421">
+        <v>13</v>
+      </c>
+      <c r="BD421">
+        <v>1.51</v>
+      </c>
+      <c r="BE421">
+        <v>8.5</v>
+      </c>
+      <c r="BF421">
+        <v>3.16</v>
+      </c>
+      <c r="BG421">
+        <v>1.21</v>
+      </c>
+      <c r="BH421">
+        <v>3.74</v>
+      </c>
+      <c r="BI421">
+        <v>1.4</v>
+      </c>
+      <c r="BJ421">
+        <v>2.64</v>
+      </c>
+      <c r="BK421">
+        <v>1.9</v>
+      </c>
+      <c r="BL421">
+        <v>1.9</v>
+      </c>
+      <c r="BM421">
+        <v>2.09</v>
+      </c>
+      <c r="BN421">
+        <v>1.75</v>
+      </c>
+      <c r="BO421">
+        <v>2.93</v>
+      </c>
+      <c r="BP421">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="422" spans="1:68">
+      <c r="A422" s="1">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>6720132</v>
+      </c>
+      <c r="C422" t="s">
+        <v>68</v>
+      </c>
+      <c r="D422" t="s">
+        <v>69</v>
+      </c>
+      <c r="E422" s="2">
+        <v>45423.46875</v>
+      </c>
+      <c r="F422">
+        <v>39</v>
+      </c>
+      <c r="G422" t="s">
+        <v>87</v>
+      </c>
+      <c r="H422" t="s">
+        <v>81</v>
+      </c>
+      <c r="I422">
+        <v>2</v>
+      </c>
+      <c r="J422">
+        <v>1</v>
+      </c>
+      <c r="K422">
+        <v>3</v>
+      </c>
+      <c r="L422">
+        <v>5</v>
+      </c>
+      <c r="M422">
+        <v>2</v>
+      </c>
+      <c r="N422">
+        <v>7</v>
+      </c>
+      <c r="O422" t="s">
+        <v>334</v>
+      </c>
+      <c r="P422" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q422">
+        <v>2.8</v>
+      </c>
+      <c r="R422">
+        <v>1.95</v>
+      </c>
+      <c r="S422">
+        <v>4</v>
+      </c>
+      <c r="T422">
+        <v>1.48</v>
+      </c>
+      <c r="U422">
+        <v>2.5</v>
+      </c>
+      <c r="V422">
+        <v>3.1</v>
+      </c>
+      <c r="W422">
+        <v>1.33</v>
+      </c>
+      <c r="X422">
+        <v>8.4</v>
+      </c>
+      <c r="Y422">
+        <v>1.05</v>
+      </c>
+      <c r="Z422">
+        <v>2</v>
+      </c>
+      <c r="AA422">
+        <v>3.25</v>
+      </c>
+      <c r="AB422">
+        <v>3.9</v>
+      </c>
+      <c r="AC422">
+        <v>1.08</v>
+      </c>
+      <c r="AD422">
+        <v>7.5</v>
+      </c>
+      <c r="AE422">
+        <v>1.4</v>
+      </c>
+      <c r="AF422">
+        <v>2.9</v>
+      </c>
+      <c r="AG422">
+        <v>2.15</v>
+      </c>
+      <c r="AH422">
+        <v>1.67</v>
+      </c>
+      <c r="AI422">
+        <v>1.85</v>
+      </c>
+      <c r="AJ422">
+        <v>1.83</v>
+      </c>
+      <c r="AK422">
+        <v>1.28</v>
+      </c>
+      <c r="AL422">
+        <v>1.28</v>
+      </c>
+      <c r="AM422">
+        <v>1.67</v>
+      </c>
+      <c r="AN422">
+        <v>1.89</v>
+      </c>
+      <c r="AO422">
+        <v>0.63</v>
+      </c>
+      <c r="AP422">
+        <v>1.95</v>
+      </c>
+      <c r="AQ422">
+        <v>0.6</v>
+      </c>
+      <c r="AR422">
+        <v>1.48</v>
+      </c>
+      <c r="AS422">
+        <v>1.33</v>
+      </c>
+      <c r="AT422">
+        <v>2.81</v>
+      </c>
+      <c r="AU422">
+        <v>10</v>
+      </c>
+      <c r="AV422">
+        <v>5</v>
+      </c>
+      <c r="AW422">
+        <v>4</v>
+      </c>
+      <c r="AX422">
+        <v>5</v>
+      </c>
+      <c r="AY422">
+        <v>14</v>
+      </c>
+      <c r="AZ422">
+        <v>10</v>
+      </c>
+      <c r="BA422">
+        <v>3</v>
+      </c>
+      <c r="BB422">
+        <v>2</v>
+      </c>
+      <c r="BC422">
+        <v>5</v>
+      </c>
+      <c r="BD422">
+        <v>1.75</v>
+      </c>
+      <c r="BE422">
+        <v>8</v>
+      </c>
+      <c r="BF422">
+        <v>2.52</v>
+      </c>
+      <c r="BG422">
+        <v>1.27</v>
+      </c>
+      <c r="BH422">
+        <v>3.28</v>
+      </c>
+      <c r="BI422">
+        <v>1.55</v>
+      </c>
+      <c r="BJ422">
+        <v>2.4</v>
+      </c>
+      <c r="BK422">
+        <v>1.9</v>
+      </c>
+      <c r="BL422">
+        <v>1.9</v>
+      </c>
+      <c r="BM422">
+        <v>2.38</v>
+      </c>
+      <c r="BN422">
+        <v>1.56</v>
+      </c>
+      <c r="BO422">
+        <v>3.28</v>
+      </c>
+      <c r="BP422">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="423" spans="1:68">
+      <c r="A423" s="1">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>6720131</v>
+      </c>
+      <c r="C423" t="s">
+        <v>68</v>
+      </c>
+      <c r="D423" t="s">
+        <v>69</v>
+      </c>
+      <c r="E423" s="2">
+        <v>45423.46875</v>
+      </c>
+      <c r="F423">
+        <v>39</v>
+      </c>
+      <c r="G423" t="s">
+        <v>90</v>
+      </c>
+      <c r="H423" t="s">
+        <v>85</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423">
+        <v>0</v>
+      </c>
+      <c r="L423">
+        <v>2</v>
+      </c>
+      <c r="M423">
+        <v>1</v>
+      </c>
+      <c r="N423">
+        <v>3</v>
+      </c>
+      <c r="O423" t="s">
+        <v>335</v>
+      </c>
+      <c r="P423" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q423">
+        <v>2.5</v>
+      </c>
+      <c r="R423">
+        <v>1.98</v>
+      </c>
+      <c r="S423">
+        <v>5.3</v>
+      </c>
+      <c r="T423">
+        <v>1.53</v>
+      </c>
+      <c r="U423">
+        <v>2.41</v>
+      </c>
+      <c r="V423">
+        <v>3.48</v>
+      </c>
+      <c r="W423">
+        <v>1.28</v>
+      </c>
+      <c r="X423">
+        <v>9.6</v>
+      </c>
+      <c r="Y423">
+        <v>1.04</v>
+      </c>
+      <c r="Z423">
+        <v>1.91</v>
+      </c>
+      <c r="AA423">
+        <v>3.1</v>
+      </c>
+      <c r="AB423">
+        <v>4.6</v>
+      </c>
+      <c r="AC423">
+        <v>1.06</v>
+      </c>
+      <c r="AD423">
+        <v>6.7</v>
+      </c>
+      <c r="AE423">
+        <v>1.5</v>
+      </c>
+      <c r="AF423">
+        <v>2.5</v>
+      </c>
+      <c r="AG423">
+        <v>2.3</v>
+      </c>
+      <c r="AH423">
+        <v>1.55</v>
+      </c>
+      <c r="AI423">
+        <v>2.19</v>
+      </c>
+      <c r="AJ423">
+        <v>1.63</v>
+      </c>
+      <c r="AK423">
+        <v>1.17</v>
+      </c>
+      <c r="AL423">
+        <v>1.28</v>
+      </c>
+      <c r="AM423">
+        <v>1.95</v>
+      </c>
+      <c r="AN423">
+        <v>1.84</v>
+      </c>
+      <c r="AO423">
+        <v>0.89</v>
+      </c>
+      <c r="AP423">
+        <v>1.9</v>
+      </c>
+      <c r="AQ423">
+        <v>0.85</v>
+      </c>
+      <c r="AR423">
+        <v>1.42</v>
+      </c>
+      <c r="AS423">
+        <v>1.12</v>
+      </c>
+      <c r="AT423">
+        <v>2.54</v>
+      </c>
+      <c r="AU423">
+        <v>8</v>
+      </c>
+      <c r="AV423">
+        <v>4</v>
+      </c>
+      <c r="AW423">
+        <v>8</v>
+      </c>
+      <c r="AX423">
+        <v>7</v>
+      </c>
+      <c r="AY423">
+        <v>16</v>
+      </c>
+      <c r="AZ423">
+        <v>11</v>
+      </c>
+      <c r="BA423">
+        <v>5</v>
+      </c>
+      <c r="BB423">
+        <v>2</v>
+      </c>
+      <c r="BC423">
+        <v>7</v>
+      </c>
+      <c r="BD423">
+        <v>1.41</v>
+      </c>
+      <c r="BE423">
+        <v>8.5</v>
+      </c>
+      <c r="BF423">
+        <v>3.59</v>
+      </c>
+      <c r="BG423">
+        <v>1.36</v>
+      </c>
+      <c r="BH423">
+        <v>2.89</v>
+      </c>
+      <c r="BI423">
+        <v>1.71</v>
+      </c>
+      <c r="BJ423">
+        <v>2.14</v>
+      </c>
+      <c r="BK423">
+        <v>2.14</v>
+      </c>
+      <c r="BL423">
+        <v>1.71</v>
+      </c>
+      <c r="BM423">
+        <v>2.79</v>
+      </c>
+      <c r="BN423">
+        <v>1.36</v>
+      </c>
+      <c r="BO423">
+        <v>3.9</v>
+      </c>
+      <c r="BP423">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="424" spans="1:68">
+      <c r="A424" s="1">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>6720134</v>
+      </c>
+      <c r="C424" t="s">
+        <v>68</v>
+      </c>
+      <c r="D424" t="s">
+        <v>69</v>
+      </c>
+      <c r="E424" s="2">
+        <v>45423.5625</v>
+      </c>
+      <c r="F424">
+        <v>39</v>
+      </c>
+      <c r="G424" t="s">
+        <v>71</v>
+      </c>
+      <c r="H424" t="s">
+        <v>83</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+      <c r="L424">
+        <v>0</v>
+      </c>
+      <c r="M424">
+        <v>0</v>
+      </c>
+      <c r="N424">
+        <v>0</v>
+      </c>
+      <c r="O424" t="s">
+        <v>96</v>
+      </c>
+      <c r="P424" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q424">
+        <v>2.74</v>
+      </c>
+      <c r="R424">
+        <v>2.01</v>
+      </c>
+      <c r="S424">
+        <v>4.33</v>
+      </c>
+      <c r="T424">
+        <v>1.48</v>
+      </c>
+      <c r="U424">
+        <v>2.55</v>
+      </c>
+      <c r="V424">
+        <v>3.28</v>
+      </c>
+      <c r="W424">
+        <v>1.31</v>
+      </c>
+      <c r="X424">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y424">
+        <v>1.05</v>
+      </c>
+      <c r="Z424">
+        <v>2.13</v>
+      </c>
+      <c r="AA424">
+        <v>2.96</v>
+      </c>
+      <c r="AB424">
+        <v>3.3</v>
+      </c>
+      <c r="AC424">
+        <v>1.04</v>
+      </c>
+      <c r="AD424">
+        <v>7.3</v>
+      </c>
+      <c r="AE424">
+        <v>1.38</v>
+      </c>
+      <c r="AF424">
+        <v>2.72</v>
+      </c>
+      <c r="AG424">
+        <v>2.26</v>
+      </c>
+      <c r="AH424">
+        <v>1.5</v>
+      </c>
+      <c r="AI424">
+        <v>1.97</v>
+      </c>
+      <c r="AJ424">
+        <v>1.78</v>
+      </c>
+      <c r="AK424">
+        <v>1.25</v>
+      </c>
+      <c r="AL424">
+        <v>1.3</v>
+      </c>
+      <c r="AM424">
+        <v>1.7</v>
+      </c>
+      <c r="AN424">
+        <v>2.26</v>
+      </c>
+      <c r="AO424">
+        <v>1.21</v>
+      </c>
+      <c r="AP424">
+        <v>2.2</v>
+      </c>
+      <c r="AQ424">
+        <v>1.2</v>
+      </c>
+      <c r="AR424">
+        <v>1.61</v>
+      </c>
+      <c r="AS424">
+        <v>1.09</v>
+      </c>
+      <c r="AT424">
+        <v>2.7</v>
+      </c>
+      <c r="AU424">
+        <v>3</v>
+      </c>
+      <c r="AV424">
+        <v>2</v>
+      </c>
+      <c r="AW424">
+        <v>9</v>
+      </c>
+      <c r="AX424">
+        <v>2</v>
+      </c>
+      <c r="AY424">
+        <v>12</v>
+      </c>
+      <c r="AZ424">
+        <v>4</v>
+      </c>
+      <c r="BA424">
+        <v>3</v>
+      </c>
+      <c r="BB424">
+        <v>4</v>
+      </c>
+      <c r="BC424">
+        <v>7</v>
+      </c>
+      <c r="BD424">
+        <v>1.55</v>
+      </c>
+      <c r="BE424">
+        <v>8.5</v>
+      </c>
+      <c r="BF424">
+        <v>2.91</v>
+      </c>
+      <c r="BG424">
+        <v>1.22</v>
+      </c>
+      <c r="BH424">
+        <v>3.65</v>
+      </c>
+      <c r="BI424">
+        <v>1.44</v>
+      </c>
+      <c r="BJ424">
+        <v>2.58</v>
+      </c>
+      <c r="BK424">
+        <v>1.85</v>
+      </c>
+      <c r="BL424">
+        <v>1.95</v>
+      </c>
+      <c r="BM424">
+        <v>2.25</v>
+      </c>
+      <c r="BN424">
+        <v>1.64</v>
+      </c>
+      <c r="BO424">
+        <v>2.98</v>
+      </c>
+      <c r="BP424">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="425" spans="1:68">
+      <c r="A425" s="1">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>6720133</v>
+      </c>
+      <c r="C425" t="s">
+        <v>68</v>
+      </c>
+      <c r="D425" t="s">
+        <v>69</v>
+      </c>
+      <c r="E425" s="2">
+        <v>45423.66666666666</v>
+      </c>
+      <c r="F425">
+        <v>39</v>
+      </c>
+      <c r="G425" t="s">
+        <v>84</v>
+      </c>
+      <c r="H425" t="s">
+        <v>82</v>
+      </c>
+      <c r="I425">
+        <v>1</v>
+      </c>
+      <c r="J425">
+        <v>1</v>
+      </c>
+      <c r="K425">
+        <v>2</v>
+      </c>
+      <c r="L425">
+        <v>2</v>
+      </c>
+      <c r="M425">
+        <v>2</v>
+      </c>
+      <c r="N425">
+        <v>4</v>
+      </c>
+      <c r="O425" t="s">
+        <v>336</v>
+      </c>
+      <c r="P425" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q425">
+        <v>3</v>
+      </c>
+      <c r="R425">
+        <v>2.05</v>
+      </c>
+      <c r="S425">
+        <v>3.35</v>
+      </c>
+      <c r="T425">
+        <v>1.4</v>
+      </c>
+      <c r="U425">
+        <v>2.7</v>
+      </c>
+      <c r="V425">
+        <v>2.8</v>
+      </c>
+      <c r="W425">
+        <v>1.38</v>
+      </c>
+      <c r="X425">
+        <v>7.75</v>
+      </c>
+      <c r="Y425">
+        <v>1.08</v>
+      </c>
+      <c r="Z425">
+        <v>2.51</v>
+      </c>
+      <c r="AA425">
+        <v>3.05</v>
+      </c>
+      <c r="AB425">
+        <v>2.61</v>
+      </c>
+      <c r="AC425">
+        <v>1.06</v>
+      </c>
+      <c r="AD425">
+        <v>8.5</v>
+      </c>
+      <c r="AE425">
+        <v>1.33</v>
+      </c>
+      <c r="AF425">
+        <v>3.3</v>
+      </c>
+      <c r="AG425">
+        <v>1.91</v>
+      </c>
+      <c r="AH425">
+        <v>1.7</v>
+      </c>
+      <c r="AI425">
+        <v>1.7</v>
+      </c>
+      <c r="AJ425">
+        <v>2</v>
+      </c>
+      <c r="AK425">
+        <v>1.4</v>
+      </c>
+      <c r="AL425">
+        <v>1.3</v>
+      </c>
+      <c r="AM425">
+        <v>1.5</v>
+      </c>
+      <c r="AN425">
+        <v>1.74</v>
+      </c>
+      <c r="AO425">
+        <v>1.26</v>
+      </c>
+      <c r="AP425">
+        <v>1.7</v>
+      </c>
+      <c r="AQ425">
+        <v>1.25</v>
+      </c>
+      <c r="AR425">
+        <v>1.54</v>
+      </c>
+      <c r="AS425">
+        <v>1.28</v>
+      </c>
+      <c r="AT425">
+        <v>2.82</v>
+      </c>
+      <c r="AU425">
+        <v>6</v>
+      </c>
+      <c r="AV425">
+        <v>3</v>
+      </c>
+      <c r="AW425">
+        <v>7</v>
+      </c>
+      <c r="AX425">
+        <v>6</v>
+      </c>
+      <c r="AY425">
+        <v>13</v>
+      </c>
+      <c r="AZ425">
+        <v>9</v>
+      </c>
+      <c r="BA425">
+        <v>6</v>
+      </c>
+      <c r="BB425">
+        <v>5</v>
+      </c>
+      <c r="BC425">
+        <v>11</v>
+      </c>
+      <c r="BD425">
+        <v>1.85</v>
+      </c>
+      <c r="BE425">
+        <v>8</v>
+      </c>
+      <c r="BF425">
+        <v>2.28</v>
+      </c>
+      <c r="BG425">
+        <v>1.25</v>
+      </c>
+      <c r="BH425">
+        <v>3.42</v>
+      </c>
+      <c r="BI425">
+        <v>1.54</v>
+      </c>
+      <c r="BJ425">
+        <v>2.45</v>
+      </c>
+      <c r="BK425">
+        <v>2</v>
+      </c>
+      <c r="BL425">
+        <v>1.8</v>
+      </c>
+      <c r="BM425">
+        <v>2.35</v>
+      </c>
+      <c r="BN425">
+        <v>1.59</v>
+      </c>
+      <c r="BO425">
+        <v>3.18</v>
+      </c>
+      <c r="BP425">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -88397,22 +88397,22 @@
         <v>2.65</v>
       </c>
       <c r="AU421">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV421">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW421">
         <v>8</v>
       </c>
       <c r="AX421">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY421">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ421">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA421">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="455">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1027,6 +1027,12 @@
     <t>['11', '90']</t>
   </si>
   <si>
+    <t>['73', '90+10']</t>
+  </si>
+  <si>
+    <t>['6', '45+4']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -1370,6 +1376,9 @@
   </si>
   <si>
     <t>['31', '61']</t>
+  </si>
+  <si>
+    <t>['32', '38', '81']</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP425"/>
+  <dimension ref="A1:BP430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2068,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ2">
         <v>1.16</v>
@@ -2689,7 +2698,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ5">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2892,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -3101,7 +3110,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ7">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3226,7 +3235,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3304,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ8">
         <v>1.2</v>
@@ -3510,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ9">
         <v>1.05</v>
@@ -4256,7 +4265,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q13">
         <v>2.55</v>
@@ -5080,7 +5089,7 @@
         <v>105</v>
       </c>
       <c r="P17" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q17">
         <v>2.28</v>
@@ -5286,7 +5295,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5367,7 +5376,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ18">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5570,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5904,7 +5913,7 @@
         <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q21">
         <v>2.3</v>
@@ -5982,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ21">
         <v>0.79</v>
@@ -6316,7 +6325,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6397,7 +6406,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ23">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6600,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
         <v>1.16</v>
@@ -6934,7 +6943,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q26">
         <v>2.8</v>
@@ -7015,7 +7024,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ26">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR26">
         <v>1.19</v>
@@ -7140,7 +7149,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q27">
         <v>2.32</v>
@@ -7424,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ28">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>1.26</v>
@@ -8042,7 +8051,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ31">
         <v>0.6</v>
@@ -8663,7 +8672,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ34">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR34">
         <v>1.6</v>
@@ -9072,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ36">
         <v>1.26</v>
@@ -9612,7 +9621,7 @@
         <v>120</v>
       </c>
       <c r="P39" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q39">
         <v>2.45</v>
@@ -9690,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9818,7 +9827,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q40">
         <v>2.9</v>
@@ -10105,7 +10114,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ41">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR41">
         <v>1.79</v>
@@ -10311,7 +10320,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ42">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR42">
         <v>1.3</v>
@@ -10436,7 +10445,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -11054,7 +11063,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -11544,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1.05</v>
@@ -11753,7 +11762,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ49">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR49">
         <v>1.25</v>
@@ -12290,7 +12299,7 @@
         <v>130</v>
       </c>
       <c r="P52" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q52">
         <v>2.71</v>
@@ -12371,7 +12380,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ52">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.32</v>
@@ -12496,7 +12505,7 @@
         <v>131</v>
       </c>
       <c r="P53" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q53">
         <v>3.6</v>
@@ -12702,7 +12711,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12780,10 +12789,10 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR54">
         <v>1.31</v>
@@ -12908,7 +12917,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q55">
         <v>2.82</v>
@@ -13114,7 +13123,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13320,7 +13329,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q57">
         <v>2.63</v>
@@ -13526,7 +13535,7 @@
         <v>134</v>
       </c>
       <c r="P58" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13607,7 +13616,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ58">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.28</v>
@@ -13732,7 +13741,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -14222,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ61">
         <v>0.74</v>
@@ -14428,7 +14437,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ62">
         <v>0.8</v>
@@ -14762,7 +14771,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -15046,10 +15055,10 @@
         <v>3</v>
       </c>
       <c r="AP65">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ65">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR65">
         <v>1.78</v>
@@ -15255,7 +15264,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ66">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR66">
         <v>1.52</v>
@@ -15586,7 +15595,7 @@
         <v>106</v>
       </c>
       <c r="P68" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15664,7 +15673,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
         <v>1.25</v>
@@ -16410,7 +16419,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16491,7 +16500,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ72">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR72">
         <v>1.13</v>
@@ -17106,7 +17115,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>1.26</v>
@@ -17234,7 +17243,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17315,7 +17324,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ76">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR76">
         <v>1.43</v>
@@ -17727,7 +17736,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ78">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR78">
         <v>1.91</v>
@@ -18139,7 +18148,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ80">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR80">
         <v>1.41</v>
@@ -18342,7 +18351,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ81">
         <v>1.16</v>
@@ -18470,7 +18479,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18754,7 +18763,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ83">
         <v>0.6</v>
@@ -18882,7 +18891,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -19166,7 +19175,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ85">
         <v>1.21</v>
@@ -19500,7 +19509,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q87">
         <v>2.4</v>
@@ -19706,7 +19715,7 @@
         <v>96</v>
       </c>
       <c r="P88" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -20118,7 +20127,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q90">
         <v>3.82</v>
@@ -20405,7 +20414,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ91">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR91">
         <v>1.77</v>
@@ -21020,10 +21029,10 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR94">
         <v>1.02</v>
@@ -21435,7 +21444,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ96">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -21560,7 +21569,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q97">
         <v>2.82</v>
@@ -21641,7 +21650,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ97">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR97">
         <v>1.28</v>
@@ -21766,7 +21775,7 @@
         <v>162</v>
       </c>
       <c r="P98" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q98">
         <v>4.19</v>
@@ -22178,7 +22187,7 @@
         <v>96</v>
       </c>
       <c r="P100" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22256,7 +22265,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ100">
         <v>1.2</v>
@@ -22384,7 +22393,7 @@
         <v>96</v>
       </c>
       <c r="P101" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q101">
         <v>2.65</v>
@@ -22462,7 +22471,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ101">
         <v>1.16</v>
@@ -22590,7 +22599,7 @@
         <v>96</v>
       </c>
       <c r="P102" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22796,7 +22805,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q103">
         <v>2.8</v>
@@ -23208,7 +23217,7 @@
         <v>121</v>
       </c>
       <c r="P105" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q105">
         <v>3.7</v>
@@ -23286,7 +23295,7 @@
         <v>1.2</v>
       </c>
       <c r="AP105">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ105">
         <v>1.25</v>
@@ -23414,7 +23423,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q106">
         <v>2.4</v>
@@ -23620,7 +23629,7 @@
         <v>98</v>
       </c>
       <c r="P107" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -24032,7 +24041,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q109">
         <v>2.4</v>
@@ -24316,7 +24325,7 @@
         <v>0.75</v>
       </c>
       <c r="AP110">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ110">
         <v>0.6</v>
@@ -24728,7 +24737,7 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
         <v>0.74</v>
@@ -24937,7 +24946,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ113">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -25062,7 +25071,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q114">
         <v>2.9</v>
@@ -25140,7 +25149,7 @@
         <v>0.4</v>
       </c>
       <c r="AP114">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -25268,7 +25277,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q115">
         <v>2.9</v>
@@ -25349,7 +25358,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ115">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR115">
         <v>1.61</v>
@@ -25680,7 +25689,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q117">
         <v>2.7</v>
@@ -25761,7 +25770,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ117">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>1.38</v>
@@ -26298,7 +26307,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q120">
         <v>2.15</v>
@@ -26379,7 +26388,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ120">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR120">
         <v>1.44</v>
@@ -26997,7 +27006,7 @@
         <v>2</v>
       </c>
       <c r="AQ123">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR123">
         <v>1.48</v>
@@ -27200,7 +27209,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ124">
         <v>1.11</v>
@@ -27328,7 +27337,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27740,7 +27749,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -28358,7 +28367,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -28436,7 +28445,7 @@
         <v>0.83</v>
       </c>
       <c r="AP130">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ130">
         <v>1.05</v>
@@ -28976,7 +28985,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -30084,10 +30093,10 @@
         <v>1.4</v>
       </c>
       <c r="AP138">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ138">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR138">
         <v>1.93</v>
@@ -30702,7 +30711,7 @@
         <v>1.33</v>
       </c>
       <c r="AP141">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
         <v>0.85</v>
@@ -30911,7 +30920,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ142">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR142">
         <v>1.4</v>
@@ -31036,7 +31045,7 @@
         <v>191</v>
       </c>
       <c r="P143" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -31242,7 +31251,7 @@
         <v>98</v>
       </c>
       <c r="P144" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q144">
         <v>3.25</v>
@@ -31323,7 +31332,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ144">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR144">
         <v>1.39</v>
@@ -31448,7 +31457,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q145">
         <v>2.6</v>
@@ -31654,7 +31663,7 @@
         <v>96</v>
       </c>
       <c r="P146" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q146">
         <v>3.35</v>
@@ -31860,7 +31869,7 @@
         <v>193</v>
       </c>
       <c r="P147" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q147">
         <v>2.3</v>
@@ -32147,7 +32156,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ148">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR148">
         <v>1.74</v>
@@ -32272,7 +32281,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q149">
         <v>2.8</v>
@@ -32350,7 +32359,7 @@
         <v>0.83</v>
       </c>
       <c r="AP149">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ149">
         <v>1.16</v>
@@ -32762,10 +32771,10 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ151">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR151">
         <v>1.05</v>
@@ -32890,7 +32899,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -33096,7 +33105,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -33174,10 +33183,10 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ153">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR153">
         <v>1.42</v>
@@ -33920,7 +33929,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q157">
         <v>3.14</v>
@@ -34204,10 +34213,10 @@
         <v>1.83</v>
       </c>
       <c r="AP158">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ158">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR158">
         <v>1.82</v>
@@ -34332,7 +34341,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34538,7 +34547,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q160">
         <v>1.95</v>
@@ -34744,7 +34753,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34950,7 +34959,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q162">
         <v>2.45</v>
@@ -35237,7 +35246,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ163">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR163">
         <v>1.27</v>
@@ -35568,7 +35577,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35852,7 +35861,7 @@
         <v>0.86</v>
       </c>
       <c r="AP166">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ166">
         <v>1.21</v>
@@ -36061,7 +36070,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ167">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR167">
         <v>1.75</v>
@@ -36470,10 +36479,10 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ169">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR169">
         <v>1</v>
@@ -36598,7 +36607,7 @@
         <v>96</v>
       </c>
       <c r="P170" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q170">
         <v>2.8</v>
@@ -36679,7 +36688,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ170">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR170">
         <v>1.38</v>
@@ -37010,7 +37019,7 @@
         <v>175</v>
       </c>
       <c r="P172" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37216,7 +37225,7 @@
         <v>211</v>
       </c>
       <c r="P173" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q173">
         <v>2.88</v>
@@ -37422,7 +37431,7 @@
         <v>212</v>
       </c>
       <c r="P174" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q174">
         <v>3.65</v>
@@ -37500,7 +37509,7 @@
         <v>1.63</v>
       </c>
       <c r="AP174">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ174">
         <v>1.25</v>
@@ -37706,7 +37715,7 @@
         <v>0.71</v>
       </c>
       <c r="AP175">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ175">
         <v>0.74</v>
@@ -38040,7 +38049,7 @@
         <v>214</v>
       </c>
       <c r="P177" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38739,7 +38748,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ180">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR180">
         <v>1.33</v>
@@ -38942,10 +38951,10 @@
         <v>1.57</v>
       </c>
       <c r="AP181">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ181">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR181">
         <v>1.77</v>
@@ -39276,7 +39285,7 @@
         <v>217</v>
       </c>
       <c r="P183" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39560,7 +39569,7 @@
         <v>0.25</v>
       </c>
       <c r="AP184">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ184">
         <v>0.79</v>
@@ -40590,7 +40599,7 @@
         <v>1.38</v>
       </c>
       <c r="AP189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ189">
         <v>1.2</v>
@@ -40718,7 +40727,7 @@
         <v>96</v>
       </c>
       <c r="P190" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q190">
         <v>2.85</v>
@@ -40799,7 +40808,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ190">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR190">
         <v>1.2</v>
@@ -41002,7 +41011,7 @@
         <v>1.33</v>
       </c>
       <c r="AP191">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ191">
         <v>1.05</v>
@@ -41211,7 +41220,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ192">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR192">
         <v>1.41</v>
@@ -41623,7 +41632,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ194">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR194">
         <v>1.48</v>
@@ -41748,7 +41757,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q195">
         <v>3.75</v>
@@ -41954,7 +41963,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q196">
         <v>3.25</v>
@@ -42366,7 +42375,7 @@
         <v>96</v>
       </c>
       <c r="P198" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q198">
         <v>3.4</v>
@@ -42444,7 +42453,7 @@
         <v>0.13</v>
       </c>
       <c r="AP198">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ198">
         <v>0.74</v>
@@ -42856,10 +42865,10 @@
         <v>0.67</v>
       </c>
       <c r="AP200">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ200">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR200">
         <v>1.78</v>
@@ -43065,7 +43074,7 @@
         <v>2</v>
       </c>
       <c r="AQ201">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR201">
         <v>1.51</v>
@@ -43190,7 +43199,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -43808,7 +43817,7 @@
         <v>100</v>
       </c>
       <c r="P205" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q205">
         <v>2.35</v>
@@ -43886,7 +43895,7 @@
         <v>0.89</v>
       </c>
       <c r="AP205">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ205">
         <v>1.21</v>
@@ -44014,7 +44023,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q206">
         <v>3.25</v>
@@ -44220,7 +44229,7 @@
         <v>231</v>
       </c>
       <c r="P207" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q207">
         <v>2.38</v>
@@ -44426,7 +44435,7 @@
         <v>97</v>
       </c>
       <c r="P208" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -45044,7 +45053,7 @@
         <v>232</v>
       </c>
       <c r="P211" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45122,7 +45131,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ211">
         <v>1.16</v>
@@ -45250,7 +45259,7 @@
         <v>233</v>
       </c>
       <c r="P212" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -45662,7 +45671,7 @@
         <v>96</v>
       </c>
       <c r="P214" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -45740,7 +45749,7 @@
         <v>0.44</v>
       </c>
       <c r="AP214">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ214">
         <v>0.74</v>
@@ -45868,7 +45877,7 @@
         <v>190</v>
       </c>
       <c r="P215" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q215">
         <v>2.85</v>
@@ -45949,7 +45958,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ215">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR215">
         <v>1.56</v>
@@ -46567,7 +46576,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ218">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR218">
         <v>1.63</v>
@@ -46770,10 +46779,10 @@
         <v>1.33</v>
       </c>
       <c r="AP219">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ219">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR219">
         <v>1.02</v>
@@ -46979,7 +46988,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ220">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR220">
         <v>1.48</v>
@@ -47594,7 +47603,7 @@
         <v>1.2</v>
       </c>
       <c r="AP223">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ223">
         <v>1.05</v>
@@ -47722,7 +47731,7 @@
         <v>240</v>
       </c>
       <c r="P224" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -48006,7 +48015,7 @@
         <v>1.11</v>
       </c>
       <c r="AP225">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ225">
         <v>0.8</v>
@@ -48134,7 +48143,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q226">
         <v>3</v>
@@ -48627,7 +48636,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ228">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR228">
         <v>1.45</v>
@@ -49164,7 +49173,7 @@
         <v>125</v>
       </c>
       <c r="P231" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q231">
         <v>2.9</v>
@@ -49242,7 +49251,7 @@
         <v>0.8</v>
       </c>
       <c r="AP231">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ231">
         <v>0.85</v>
@@ -50478,7 +50487,7 @@
         <v>0.2</v>
       </c>
       <c r="AP237">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ237">
         <v>0.79</v>
@@ -51018,7 +51027,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q240">
         <v>3.2</v>
@@ -51099,7 +51108,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ240">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR240">
         <v>1.43</v>
@@ -51224,7 +51233,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q241">
         <v>2.88</v>
@@ -51302,10 +51311,10 @@
         <v>0.6</v>
       </c>
       <c r="AP241">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ241">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR241">
         <v>1.4</v>
@@ -51511,7 +51520,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ242">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR242">
         <v>1.55</v>
@@ -51717,7 +51726,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ243">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR243">
         <v>1.28</v>
@@ -51920,7 +51929,7 @@
         <v>1</v>
       </c>
       <c r="AP244">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ244">
         <v>0.85</v>
@@ -52254,7 +52263,7 @@
         <v>96</v>
       </c>
       <c r="P246" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q246">
         <v>3.35</v>
@@ -52332,7 +52341,7 @@
         <v>1.18</v>
       </c>
       <c r="AP246">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ246">
         <v>1.05</v>
@@ -52460,7 +52469,7 @@
         <v>253</v>
       </c>
       <c r="P247" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q247">
         <v>2.23</v>
@@ -52541,7 +52550,7 @@
         <v>2</v>
       </c>
       <c r="AQ247">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR247">
         <v>1.48</v>
@@ -52666,7 +52675,7 @@
         <v>254</v>
       </c>
       <c r="P248" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q248">
         <v>3.18</v>
@@ -52872,7 +52881,7 @@
         <v>202</v>
       </c>
       <c r="P249" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q249">
         <v>2.95</v>
@@ -53078,7 +53087,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53490,7 +53499,7 @@
         <v>255</v>
       </c>
       <c r="P252" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53774,7 +53783,7 @@
         <v>1.09</v>
       </c>
       <c r="AP253">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ253">
         <v>1.26</v>
@@ -54392,7 +54401,7 @@
         <v>0.27</v>
       </c>
       <c r="AP256">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ256">
         <v>0.79</v>
@@ -54601,7 +54610,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ257">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR257">
         <v>1.35</v>
@@ -54804,10 +54813,10 @@
         <v>1.82</v>
       </c>
       <c r="AP258">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ258">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR258">
         <v>1.32</v>
@@ -55013,7 +55022,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ259">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR259">
         <v>1.64</v>
@@ -55138,7 +55147,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q260">
         <v>3.6</v>
@@ -55344,7 +55353,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q261">
         <v>3.1</v>
@@ -55425,7 +55434,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ261">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR261">
         <v>1.65</v>
@@ -55756,7 +55765,7 @@
         <v>261</v>
       </c>
       <c r="P263" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q263">
         <v>2.7</v>
@@ -55962,7 +55971,7 @@
         <v>262</v>
       </c>
       <c r="P264" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q264">
         <v>2.63</v>
@@ -56452,7 +56461,7 @@
         <v>0.67</v>
       </c>
       <c r="AP266">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ266">
         <v>0.74</v>
@@ -56658,7 +56667,7 @@
         <v>1.17</v>
       </c>
       <c r="AP267">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ267">
         <v>1.21</v>
@@ -57073,7 +57082,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ269">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR269">
         <v>1.37</v>
@@ -57610,7 +57619,7 @@
         <v>116</v>
       </c>
       <c r="P272" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q272">
         <v>3.75</v>
@@ -57894,7 +57903,7 @@
         <v>1.33</v>
       </c>
       <c r="AP273">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ273">
         <v>1.05</v>
@@ -58100,7 +58109,7 @@
         <v>0.83</v>
       </c>
       <c r="AP274">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ274">
         <v>1</v>
@@ -58721,7 +58730,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ277">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR277">
         <v>1.59</v>
@@ -58927,7 +58936,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ278">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR278">
         <v>1.32</v>
@@ -59130,7 +59139,7 @@
         <v>1.25</v>
       </c>
       <c r="AP279">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ279">
         <v>1.16</v>
@@ -59751,7 +59760,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ282">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR282">
         <v>1.64</v>
@@ -60160,7 +60169,7 @@
         <v>1</v>
       </c>
       <c r="AP284">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ284">
         <v>0.8</v>
@@ -60369,7 +60378,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ285">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR285">
         <v>1.69</v>
@@ -60906,7 +60915,7 @@
         <v>273</v>
       </c>
       <c r="P288" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q288">
         <v>2.63</v>
@@ -61190,7 +61199,7 @@
         <v>0.62</v>
       </c>
       <c r="AP289">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ289">
         <v>0.74</v>
@@ -61399,7 +61408,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ290">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR290">
         <v>1.44</v>
@@ -61524,7 +61533,7 @@
         <v>190</v>
       </c>
       <c r="P291" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q291">
         <v>3.2</v>
@@ -62014,7 +62023,7 @@
         <v>1</v>
       </c>
       <c r="AP293">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ293">
         <v>1</v>
@@ -62838,7 +62847,7 @@
         <v>1.31</v>
       </c>
       <c r="AP297">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ297">
         <v>1.25</v>
@@ -63459,7 +63468,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ300">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR300">
         <v>1.41</v>
@@ -63665,7 +63674,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ301">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR301">
         <v>1.62</v>
@@ -63790,7 +63799,7 @@
         <v>281</v>
       </c>
       <c r="P302" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q302">
         <v>2.75</v>
@@ -64408,7 +64417,7 @@
         <v>206</v>
       </c>
       <c r="P305" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q305">
         <v>4</v>
@@ -64489,7 +64498,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ305">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR305">
         <v>1.27</v>
@@ -64692,7 +64701,7 @@
         <v>1.15</v>
       </c>
       <c r="AP306">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ306">
         <v>1.16</v>
@@ -64898,7 +64907,7 @@
         <v>0.54</v>
       </c>
       <c r="AP307">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ307">
         <v>0.74</v>
@@ -65026,7 +65035,7 @@
         <v>96</v>
       </c>
       <c r="P308" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q308">
         <v>3.1</v>
@@ -65107,7 +65116,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ308">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR308">
         <v>1.39</v>
@@ -65519,7 +65528,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ310">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR310">
         <v>1.26</v>
@@ -65725,7 +65734,7 @@
         <v>2</v>
       </c>
       <c r="AQ311">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR311">
         <v>1.47</v>
@@ -65850,7 +65859,7 @@
         <v>286</v>
       </c>
       <c r="P312" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q312">
         <v>2.8</v>
@@ -66056,7 +66065,7 @@
         <v>287</v>
       </c>
       <c r="P313" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q313">
         <v>2.62</v>
@@ -66134,7 +66143,7 @@
         <v>1.14</v>
       </c>
       <c r="AP313">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ313">
         <v>1.16</v>
@@ -66674,7 +66683,7 @@
         <v>290</v>
       </c>
       <c r="P316" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q316">
         <v>2.7</v>
@@ -67086,7 +67095,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q318">
         <v>3</v>
@@ -67370,7 +67379,7 @@
         <v>1</v>
       </c>
       <c r="AP319">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ319">
         <v>0.85</v>
@@ -67704,7 +67713,7 @@
         <v>92</v>
       </c>
       <c r="P321" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q321">
         <v>3.1</v>
@@ -67782,7 +67791,7 @@
         <v>0.86</v>
       </c>
       <c r="AP321">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ321">
         <v>1.11</v>
@@ -68197,7 +68206,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ323">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR323">
         <v>1.67</v>
@@ -68400,7 +68409,7 @@
         <v>1.29</v>
       </c>
       <c r="AP324">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ324">
         <v>1</v>
@@ -68528,7 +68537,7 @@
         <v>296</v>
       </c>
       <c r="P325" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q325">
         <v>3.25</v>
@@ -68609,7 +68618,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ325">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR325">
         <v>1.39</v>
@@ -69636,10 +69645,10 @@
         <v>1.5</v>
       </c>
       <c r="AP330">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ330">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR330">
         <v>1.12</v>
@@ -70463,7 +70472,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ334">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR334">
         <v>1.62</v>
@@ -70669,7 +70678,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ335">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR335">
         <v>1.33</v>
@@ -70872,7 +70881,7 @@
         <v>0.93</v>
       </c>
       <c r="AP336">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ336">
         <v>1</v>
@@ -71824,7 +71833,7 @@
         <v>301</v>
       </c>
       <c r="P341" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q341">
         <v>2.5</v>
@@ -71902,7 +71911,7 @@
         <v>0.53</v>
       </c>
       <c r="AP341">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ341">
         <v>0.74</v>
@@ -72030,7 +72039,7 @@
         <v>96</v>
       </c>
       <c r="P342" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q342">
         <v>2.5</v>
@@ -72520,7 +72529,7 @@
         <v>0.5</v>
       </c>
       <c r="AP344">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ344">
         <v>0.6</v>
@@ -72648,7 +72657,7 @@
         <v>121</v>
       </c>
       <c r="P345" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q345">
         <v>3.65</v>
@@ -72729,7 +72738,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ345">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR345">
         <v>1.57</v>
@@ -72935,7 +72944,7 @@
         <v>2</v>
       </c>
       <c r="AQ346">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR346">
         <v>1.45</v>
@@ -73138,7 +73147,7 @@
         <v>1.07</v>
       </c>
       <c r="AP347">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ347">
         <v>1.05</v>
@@ -73759,7 +73768,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ350">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR350">
         <v>1.32</v>
@@ -73884,7 +73893,7 @@
         <v>306</v>
       </c>
       <c r="P351" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q351">
         <v>3.25</v>
@@ -74374,7 +74383,7 @@
         <v>1.2</v>
       </c>
       <c r="AP353">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ353">
         <v>1</v>
@@ -75532,7 +75541,7 @@
         <v>309</v>
       </c>
       <c r="P359" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q359">
         <v>2.75</v>
@@ -75816,10 +75825,10 @@
         <v>1.25</v>
       </c>
       <c r="AP360">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ360">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR360">
         <v>1.58</v>
@@ -76150,7 +76159,7 @@
         <v>310</v>
       </c>
       <c r="P362" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76231,7 +76240,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ362">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR362">
         <v>1.44</v>
@@ -76640,10 +76649,10 @@
         <v>0.44</v>
       </c>
       <c r="AP364">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ364">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR364">
         <v>1.5</v>
@@ -76768,7 +76777,7 @@
         <v>96</v>
       </c>
       <c r="P365" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q365">
         <v>2.73</v>
@@ -76846,7 +76855,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP365">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ365">
         <v>1.11</v>
@@ -76974,7 +76983,7 @@
         <v>312</v>
       </c>
       <c r="P366" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q366">
         <v>3.9</v>
@@ -77052,7 +77061,7 @@
         <v>1.19</v>
       </c>
       <c r="AP366">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ366">
         <v>1</v>
@@ -77180,7 +77189,7 @@
         <v>96</v>
       </c>
       <c r="P367" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q367">
         <v>2.8</v>
@@ -77467,7 +77476,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ368">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR368">
         <v>1.5</v>
@@ -77673,7 +77682,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ369">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR369">
         <v>1.34</v>
@@ -78004,7 +78013,7 @@
         <v>315</v>
       </c>
       <c r="P371" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q371">
         <v>3.25</v>
@@ -78210,7 +78219,7 @@
         <v>316</v>
       </c>
       <c r="P372" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q372">
         <v>3.25</v>
@@ -78622,7 +78631,7 @@
         <v>96</v>
       </c>
       <c r="P374" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q374">
         <v>4.5</v>
@@ -78700,7 +78709,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP374">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ374">
         <v>1.26</v>
@@ -78828,7 +78837,7 @@
         <v>96</v>
       </c>
       <c r="P375" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q375">
         <v>2.38</v>
@@ -79652,7 +79661,7 @@
         <v>126</v>
       </c>
       <c r="P379" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q379">
         <v>2.3</v>
@@ -79936,7 +79945,7 @@
         <v>0.71</v>
       </c>
       <c r="AP380">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ380">
         <v>0.8</v>
@@ -80064,7 +80073,7 @@
         <v>96</v>
       </c>
       <c r="P381" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q381">
         <v>3.45</v>
@@ -80348,10 +80357,10 @@
         <v>0.82</v>
       </c>
       <c r="AP382">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ382">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR382">
         <v>1.61</v>
@@ -80476,7 +80485,7 @@
         <v>203</v>
       </c>
       <c r="P383" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q383">
         <v>3.7</v>
@@ -80888,7 +80897,7 @@
         <v>320</v>
       </c>
       <c r="P385" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q385">
         <v>3.1</v>
@@ -80969,7 +80978,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ385">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR385">
         <v>1.39</v>
@@ -81175,7 +81184,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ386">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR386">
         <v>1.28</v>
@@ -81381,7 +81390,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ387">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR387">
         <v>1.34</v>
@@ -81506,7 +81515,7 @@
         <v>96</v>
       </c>
       <c r="P388" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q388">
         <v>4.2</v>
@@ -81584,7 +81593,7 @@
         <v>1.06</v>
       </c>
       <c r="AP388">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AQ388">
         <v>1.26</v>
@@ -82124,7 +82133,7 @@
         <v>321</v>
       </c>
       <c r="P391" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q391">
         <v>2.31</v>
@@ -82202,7 +82211,7 @@
         <v>1.12</v>
       </c>
       <c r="AP391">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ391">
         <v>1.05</v>
@@ -82330,7 +82339,7 @@
         <v>322</v>
       </c>
       <c r="P392" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q392">
         <v>3.35</v>
@@ -82411,7 +82420,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ392">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR392">
         <v>1.31</v>
@@ -83438,7 +83447,7 @@
         <v>1.06</v>
       </c>
       <c r="AP397">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ397">
         <v>1.11</v>
@@ -83772,7 +83781,7 @@
         <v>270</v>
       </c>
       <c r="P399" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q399">
         <v>2.8</v>
@@ -83853,7 +83862,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ399">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR399">
         <v>1.36</v>
@@ -83978,7 +83987,7 @@
         <v>326</v>
       </c>
       <c r="P400" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q400">
         <v>2.38</v>
@@ -84184,7 +84193,7 @@
         <v>327</v>
       </c>
       <c r="P401" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q401">
         <v>2.79</v>
@@ -84262,7 +84271,7 @@
         <v>1.22</v>
       </c>
       <c r="AP401">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ401">
         <v>1.2</v>
@@ -84390,7 +84399,7 @@
         <v>96</v>
       </c>
       <c r="P402" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q402">
         <v>2.34</v>
@@ -84471,7 +84480,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ402">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR402">
         <v>1.49</v>
@@ -84674,10 +84683,10 @@
         <v>0.78</v>
       </c>
       <c r="AP403">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ403">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR403">
         <v>1.5</v>
@@ -85089,7 +85098,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ405">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR405">
         <v>1.62</v>
@@ -85498,7 +85507,7 @@
         <v>1.33</v>
       </c>
       <c r="AP407">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ407">
         <v>1.25</v>
@@ -85626,7 +85635,7 @@
         <v>96</v>
       </c>
       <c r="P408" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q408">
         <v>2.88</v>
@@ -85832,7 +85841,7 @@
         <v>96</v>
       </c>
       <c r="P409" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q409">
         <v>3.25</v>
@@ -86244,7 +86253,7 @@
         <v>96</v>
       </c>
       <c r="P411" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q411">
         <v>3.75</v>
@@ -86734,7 +86743,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP413">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ413">
         <v>0.85</v>
@@ -87480,7 +87489,7 @@
         <v>331</v>
       </c>
       <c r="P417" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q417">
         <v>4</v>
@@ -87561,7 +87570,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ417">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AR417">
         <v>1.35</v>
@@ -87686,7 +87695,7 @@
         <v>213</v>
       </c>
       <c r="P418" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q418">
         <v>3.1</v>
@@ -88098,7 +88107,7 @@
         <v>333</v>
       </c>
       <c r="P420" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q420">
         <v>2.54</v>
@@ -88397,22 +88406,22 @@
         <v>2.65</v>
       </c>
       <c r="AU421">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV421">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW421">
         <v>8</v>
       </c>
       <c r="AX421">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY421">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ421">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA421">
         <v>10</v>
@@ -88510,7 +88519,7 @@
         <v>334</v>
       </c>
       <c r="P422" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q422">
         <v>2.8</v>
@@ -89128,7 +89137,7 @@
         <v>336</v>
       </c>
       <c r="P425" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q425">
         <v>3</v>
@@ -89285,6 +89294,1036 @@
       </c>
       <c r="BP425">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="426" spans="1:68">
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>6720126</v>
+      </c>
+      <c r="C426" t="s">
+        <v>68</v>
+      </c>
+      <c r="D426" t="s">
+        <v>69</v>
+      </c>
+      <c r="E426" s="2">
+        <v>45424.375</v>
+      </c>
+      <c r="F426">
+        <v>39</v>
+      </c>
+      <c r="G426" t="s">
+        <v>70</v>
+      </c>
+      <c r="H426" t="s">
+        <v>88</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>0</v>
+      </c>
+      <c r="L426">
+        <v>2</v>
+      </c>
+      <c r="M426">
+        <v>0</v>
+      </c>
+      <c r="N426">
+        <v>2</v>
+      </c>
+      <c r="O426" t="s">
+        <v>337</v>
+      </c>
+      <c r="P426" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q426">
+        <v>2.95</v>
+      </c>
+      <c r="R426">
+        <v>2</v>
+      </c>
+      <c r="S426">
+        <v>3.6</v>
+      </c>
+      <c r="T426">
+        <v>1.4</v>
+      </c>
+      <c r="U426">
+        <v>2.7</v>
+      </c>
+      <c r="V426">
+        <v>2.88</v>
+      </c>
+      <c r="W426">
+        <v>1.36</v>
+      </c>
+      <c r="X426">
+        <v>7</v>
+      </c>
+      <c r="Y426">
+        <v>1.07</v>
+      </c>
+      <c r="Z426">
+        <v>2.25</v>
+      </c>
+      <c r="AA426">
+        <v>3.2</v>
+      </c>
+      <c r="AB426">
+        <v>3.1</v>
+      </c>
+      <c r="AC426">
+        <v>1.05</v>
+      </c>
+      <c r="AD426">
+        <v>8</v>
+      </c>
+      <c r="AE426">
+        <v>1.33</v>
+      </c>
+      <c r="AF426">
+        <v>3</v>
+      </c>
+      <c r="AG426">
+        <v>2</v>
+      </c>
+      <c r="AH426">
+        <v>1.67</v>
+      </c>
+      <c r="AI426">
+        <v>1.77</v>
+      </c>
+      <c r="AJ426">
+        <v>1.9</v>
+      </c>
+      <c r="AK426">
+        <v>1.4</v>
+      </c>
+      <c r="AL426">
+        <v>1.33</v>
+      </c>
+      <c r="AM426">
+        <v>1.57</v>
+      </c>
+      <c r="AN426">
+        <v>1.21</v>
+      </c>
+      <c r="AO426">
+        <v>0.53</v>
+      </c>
+      <c r="AP426">
+        <v>1.3</v>
+      </c>
+      <c r="AQ426">
+        <v>0.5</v>
+      </c>
+      <c r="AR426">
+        <v>1.12</v>
+      </c>
+      <c r="AS426">
+        <v>1.04</v>
+      </c>
+      <c r="AT426">
+        <v>2.16</v>
+      </c>
+      <c r="AU426">
+        <v>5</v>
+      </c>
+      <c r="AV426">
+        <v>5</v>
+      </c>
+      <c r="AW426">
+        <v>3</v>
+      </c>
+      <c r="AX426">
+        <v>4</v>
+      </c>
+      <c r="AY426">
+        <v>8</v>
+      </c>
+      <c r="AZ426">
+        <v>9</v>
+      </c>
+      <c r="BA426">
+        <v>2</v>
+      </c>
+      <c r="BB426">
+        <v>7</v>
+      </c>
+      <c r="BC426">
+        <v>9</v>
+      </c>
+      <c r="BD426">
+        <v>1.69</v>
+      </c>
+      <c r="BE426">
+        <v>8</v>
+      </c>
+      <c r="BF426">
+        <v>2.65</v>
+      </c>
+      <c r="BG426">
+        <v>1.29</v>
+      </c>
+      <c r="BH426">
+        <v>3.14</v>
+      </c>
+      <c r="BI426">
+        <v>1.6</v>
+      </c>
+      <c r="BJ426">
+        <v>2.32</v>
+      </c>
+      <c r="BK426">
+        <v>1.97</v>
+      </c>
+      <c r="BL426">
+        <v>1.84</v>
+      </c>
+      <c r="BM426">
+        <v>2.5</v>
+      </c>
+      <c r="BN426">
+        <v>1.52</v>
+      </c>
+      <c r="BO426">
+        <v>3.48</v>
+      </c>
+      <c r="BP426">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="427" spans="1:68">
+      <c r="A427" s="1">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>6720130</v>
+      </c>
+      <c r="C427" t="s">
+        <v>68</v>
+      </c>
+      <c r="D427" t="s">
+        <v>69</v>
+      </c>
+      <c r="E427" s="2">
+        <v>45424.46875</v>
+      </c>
+      <c r="F427">
+        <v>39</v>
+      </c>
+      <c r="G427" t="s">
+        <v>86</v>
+      </c>
+      <c r="H427" t="s">
+        <v>73</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>0</v>
+      </c>
+      <c r="L427">
+        <v>1</v>
+      </c>
+      <c r="M427">
+        <v>0</v>
+      </c>
+      <c r="N427">
+        <v>1</v>
+      </c>
+      <c r="O427" t="s">
+        <v>179</v>
+      </c>
+      <c r="P427" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q427">
+        <v>2.5</v>
+      </c>
+      <c r="R427">
+        <v>1.95</v>
+      </c>
+      <c r="S427">
+        <v>5.25</v>
+      </c>
+      <c r="T427">
+        <v>1.55</v>
+      </c>
+      <c r="U427">
+        <v>2.3</v>
+      </c>
+      <c r="V427">
+        <v>3.6</v>
+      </c>
+      <c r="W427">
+        <v>1.25</v>
+      </c>
+      <c r="X427">
+        <v>9</v>
+      </c>
+      <c r="Y427">
+        <v>1.03</v>
+      </c>
+      <c r="Z427">
+        <v>1.75</v>
+      </c>
+      <c r="AA427">
+        <v>3.3</v>
+      </c>
+      <c r="AB427">
+        <v>5</v>
+      </c>
+      <c r="AC427">
+        <v>1.09</v>
+      </c>
+      <c r="AD427">
+        <v>6</v>
+      </c>
+      <c r="AE427">
+        <v>1.48</v>
+      </c>
+      <c r="AF427">
+        <v>2.37</v>
+      </c>
+      <c r="AG427">
+        <v>2.51</v>
+      </c>
+      <c r="AH427">
+        <v>1.53</v>
+      </c>
+      <c r="AI427">
+        <v>2.25</v>
+      </c>
+      <c r="AJ427">
+        <v>1.57</v>
+      </c>
+      <c r="AK427">
+        <v>1.18</v>
+      </c>
+      <c r="AL427">
+        <v>1.35</v>
+      </c>
+      <c r="AM427">
+        <v>1.95</v>
+      </c>
+      <c r="AN427">
+        <v>1.95</v>
+      </c>
+      <c r="AO427">
+        <v>1.11</v>
+      </c>
+      <c r="AP427">
+        <v>2</v>
+      </c>
+      <c r="AQ427">
+        <v>1.05</v>
+      </c>
+      <c r="AR427">
+        <v>1.5</v>
+      </c>
+      <c r="AS427">
+        <v>1.09</v>
+      </c>
+      <c r="AT427">
+        <v>2.59</v>
+      </c>
+      <c r="AU427">
+        <v>5</v>
+      </c>
+      <c r="AV427">
+        <v>5</v>
+      </c>
+      <c r="AW427">
+        <v>11</v>
+      </c>
+      <c r="AX427">
+        <v>2</v>
+      </c>
+      <c r="AY427">
+        <v>16</v>
+      </c>
+      <c r="AZ427">
+        <v>7</v>
+      </c>
+      <c r="BA427">
+        <v>4</v>
+      </c>
+      <c r="BB427">
+        <v>13</v>
+      </c>
+      <c r="BC427">
+        <v>17</v>
+      </c>
+      <c r="BD427">
+        <v>1.41</v>
+      </c>
+      <c r="BE427">
+        <v>9</v>
+      </c>
+      <c r="BF427">
+        <v>3.49</v>
+      </c>
+      <c r="BG427">
+        <v>1.24</v>
+      </c>
+      <c r="BH427">
+        <v>3.48</v>
+      </c>
+      <c r="BI427">
+        <v>1.53</v>
+      </c>
+      <c r="BJ427">
+        <v>2.46</v>
+      </c>
+      <c r="BK427">
+        <v>1.85</v>
+      </c>
+      <c r="BL427">
+        <v>1.95</v>
+      </c>
+      <c r="BM427">
+        <v>2.33</v>
+      </c>
+      <c r="BN427">
+        <v>1.58</v>
+      </c>
+      <c r="BO427">
+        <v>3.14</v>
+      </c>
+      <c r="BP427">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="428" spans="1:68">
+      <c r="A428" s="1">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>6720128</v>
+      </c>
+      <c r="C428" t="s">
+        <v>68</v>
+      </c>
+      <c r="D428" t="s">
+        <v>69</v>
+      </c>
+      <c r="E428" s="2">
+        <v>45424.5625</v>
+      </c>
+      <c r="F428">
+        <v>39</v>
+      </c>
+      <c r="G428" t="s">
+        <v>77</v>
+      </c>
+      <c r="H428" t="s">
+        <v>80</v>
+      </c>
+      <c r="I428">
+        <v>2</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>2</v>
+      </c>
+      <c r="L428">
+        <v>2</v>
+      </c>
+      <c r="M428">
+        <v>0</v>
+      </c>
+      <c r="N428">
+        <v>2</v>
+      </c>
+      <c r="O428" t="s">
+        <v>338</v>
+      </c>
+      <c r="P428" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q428">
+        <v>3.3</v>
+      </c>
+      <c r="R428">
+        <v>1.87</v>
+      </c>
+      <c r="S428">
+        <v>3.94</v>
+      </c>
+      <c r="T428">
+        <v>1.59</v>
+      </c>
+      <c r="U428">
+        <v>2.28</v>
+      </c>
+      <c r="V428">
+        <v>3.72</v>
+      </c>
+      <c r="W428">
+        <v>1.25</v>
+      </c>
+      <c r="X428">
+        <v>10.5</v>
+      </c>
+      <c r="Y428">
+        <v>1.03</v>
+      </c>
+      <c r="Z428">
+        <v>2.47</v>
+      </c>
+      <c r="AA428">
+        <v>2.8</v>
+      </c>
+      <c r="AB428">
+        <v>2.97</v>
+      </c>
+      <c r="AC428">
+        <v>1.08</v>
+      </c>
+      <c r="AD428">
+        <v>6</v>
+      </c>
+      <c r="AE428">
+        <v>1.5</v>
+      </c>
+      <c r="AF428">
+        <v>2.5</v>
+      </c>
+      <c r="AG428">
+        <v>2.62</v>
+      </c>
+      <c r="AH428">
+        <v>1.43</v>
+      </c>
+      <c r="AI428">
+        <v>2.13</v>
+      </c>
+      <c r="AJ428">
+        <v>1.67</v>
+      </c>
+      <c r="AK428">
+        <v>1.38</v>
+      </c>
+      <c r="AL428">
+        <v>1.39</v>
+      </c>
+      <c r="AM428">
+        <v>1.52</v>
+      </c>
+      <c r="AN428">
+        <v>1.32</v>
+      </c>
+      <c r="AO428">
+        <v>0.89</v>
+      </c>
+      <c r="AP428">
+        <v>1.4</v>
+      </c>
+      <c r="AQ428">
+        <v>0.85</v>
+      </c>
+      <c r="AR428">
+        <v>1.35</v>
+      </c>
+      <c r="AS428">
+        <v>1</v>
+      </c>
+      <c r="AT428">
+        <v>2.35</v>
+      </c>
+      <c r="AU428">
+        <v>2</v>
+      </c>
+      <c r="AV428">
+        <v>7</v>
+      </c>
+      <c r="AW428">
+        <v>2</v>
+      </c>
+      <c r="AX428">
+        <v>7</v>
+      </c>
+      <c r="AY428">
+        <v>4</v>
+      </c>
+      <c r="AZ428">
+        <v>14</v>
+      </c>
+      <c r="BA428">
+        <v>2</v>
+      </c>
+      <c r="BB428">
+        <v>5</v>
+      </c>
+      <c r="BC428">
+        <v>7</v>
+      </c>
+      <c r="BD428">
+        <v>1.82</v>
+      </c>
+      <c r="BE428">
+        <v>8</v>
+      </c>
+      <c r="BF428">
+        <v>2.39</v>
+      </c>
+      <c r="BG428">
+        <v>1.3</v>
+      </c>
+      <c r="BH428">
+        <v>3.08</v>
+      </c>
+      <c r="BI428">
+        <v>1.65</v>
+      </c>
+      <c r="BJ428">
+        <v>2.24</v>
+      </c>
+      <c r="BK428">
+        <v>2.04</v>
+      </c>
+      <c r="BL428">
+        <v>1.78</v>
+      </c>
+      <c r="BM428">
+        <v>2.62</v>
+      </c>
+      <c r="BN428">
+        <v>1.43</v>
+      </c>
+      <c r="BO428">
+        <v>3.56</v>
+      </c>
+      <c r="BP428">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="429" spans="1:68">
+      <c r="A429" s="1">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>6720125</v>
+      </c>
+      <c r="C429" t="s">
+        <v>68</v>
+      </c>
+      <c r="D429" t="s">
+        <v>69</v>
+      </c>
+      <c r="E429" s="2">
+        <v>45424.5625</v>
+      </c>
+      <c r="F429">
+        <v>39</v>
+      </c>
+      <c r="G429" t="s">
+        <v>76</v>
+      </c>
+      <c r="H429" t="s">
+        <v>78</v>
+      </c>
+      <c r="I429">
+        <v>1</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>1</v>
+      </c>
+      <c r="L429">
+        <v>1</v>
+      </c>
+      <c r="M429">
+        <v>0</v>
+      </c>
+      <c r="N429">
+        <v>1</v>
+      </c>
+      <c r="O429" t="s">
+        <v>121</v>
+      </c>
+      <c r="P429" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q429">
+        <v>3.27</v>
+      </c>
+      <c r="R429">
+        <v>1.96</v>
+      </c>
+      <c r="S429">
+        <v>3.89</v>
+      </c>
+      <c r="T429">
+        <v>1.53</v>
+      </c>
+      <c r="U429">
+        <v>2.41</v>
+      </c>
+      <c r="V429">
+        <v>3.64</v>
+      </c>
+      <c r="W429">
+        <v>1.26</v>
+      </c>
+      <c r="X429">
+        <v>10</v>
+      </c>
+      <c r="Y429">
+        <v>1.03</v>
+      </c>
+      <c r="Z429">
+        <v>2.32</v>
+      </c>
+      <c r="AA429">
+        <v>3.14</v>
+      </c>
+      <c r="AB429">
+        <v>3.3</v>
+      </c>
+      <c r="AC429">
+        <v>1.07</v>
+      </c>
+      <c r="AD429">
+        <v>6.35</v>
+      </c>
+      <c r="AE429">
+        <v>1.47</v>
+      </c>
+      <c r="AF429">
+        <v>2.43</v>
+      </c>
+      <c r="AG429">
+        <v>2.5</v>
+      </c>
+      <c r="AH429">
+        <v>1.47</v>
+      </c>
+      <c r="AI429">
+        <v>2.1</v>
+      </c>
+      <c r="AJ429">
+        <v>1.65</v>
+      </c>
+      <c r="AK429">
+        <v>1.37</v>
+      </c>
+      <c r="AL429">
+        <v>1.36</v>
+      </c>
+      <c r="AM429">
+        <v>1.56</v>
+      </c>
+      <c r="AN429">
+        <v>1.63</v>
+      </c>
+      <c r="AO429">
+        <v>1.68</v>
+      </c>
+      <c r="AP429">
+        <v>1.7</v>
+      </c>
+      <c r="AQ429">
+        <v>1.6</v>
+      </c>
+      <c r="AR429">
+        <v>1.62</v>
+      </c>
+      <c r="AS429">
+        <v>1.09</v>
+      </c>
+      <c r="AT429">
+        <v>2.71</v>
+      </c>
+      <c r="AU429">
+        <v>2</v>
+      </c>
+      <c r="AV429">
+        <v>4</v>
+      </c>
+      <c r="AW429">
+        <v>3</v>
+      </c>
+      <c r="AX429">
+        <v>6</v>
+      </c>
+      <c r="AY429">
+        <v>5</v>
+      </c>
+      <c r="AZ429">
+        <v>10</v>
+      </c>
+      <c r="BA429">
+        <v>3</v>
+      </c>
+      <c r="BB429">
+        <v>7</v>
+      </c>
+      <c r="BC429">
+        <v>10</v>
+      </c>
+      <c r="BD429">
+        <v>1.75</v>
+      </c>
+      <c r="BE429">
+        <v>7.5</v>
+      </c>
+      <c r="BF429">
+        <v>2.45</v>
+      </c>
+      <c r="BG429">
+        <v>1.31</v>
+      </c>
+      <c r="BH429">
+        <v>3.04</v>
+      </c>
+      <c r="BI429">
+        <v>1.64</v>
+      </c>
+      <c r="BJ429">
+        <v>2.26</v>
+      </c>
+      <c r="BK429">
+        <v>2.02</v>
+      </c>
+      <c r="BL429">
+        <v>1.79</v>
+      </c>
+      <c r="BM429">
+        <v>2.65</v>
+      </c>
+      <c r="BN429">
+        <v>1.42</v>
+      </c>
+      <c r="BO429">
+        <v>3.64</v>
+      </c>
+      <c r="BP429">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="430" spans="1:68">
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>6720129</v>
+      </c>
+      <c r="C430" t="s">
+        <v>68</v>
+      </c>
+      <c r="D430" t="s">
+        <v>69</v>
+      </c>
+      <c r="E430" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F430">
+        <v>39</v>
+      </c>
+      <c r="G430" t="s">
+        <v>74</v>
+      </c>
+      <c r="H430" t="s">
+        <v>89</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>2</v>
+      </c>
+      <c r="K430">
+        <v>2</v>
+      </c>
+      <c r="L430">
+        <v>0</v>
+      </c>
+      <c r="M430">
+        <v>3</v>
+      </c>
+      <c r="N430">
+        <v>3</v>
+      </c>
+      <c r="O430" t="s">
+        <v>96</v>
+      </c>
+      <c r="P430" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q430">
+        <v>2.22</v>
+      </c>
+      <c r="R430">
+        <v>2.05</v>
+      </c>
+      <c r="S430">
+        <v>6.45</v>
+      </c>
+      <c r="T430">
+        <v>1.5</v>
+      </c>
+      <c r="U430">
+        <v>2.49</v>
+      </c>
+      <c r="V430">
+        <v>3.34</v>
+      </c>
+      <c r="W430">
+        <v>1.3</v>
+      </c>
+      <c r="X430">
+        <v>9.1</v>
+      </c>
+      <c r="Y430">
+        <v>1.04</v>
+      </c>
+      <c r="Z430">
+        <v>1.55</v>
+      </c>
+      <c r="AA430">
+        <v>3.5</v>
+      </c>
+      <c r="AB430">
+        <v>6.06</v>
+      </c>
+      <c r="AC430">
+        <v>1.05</v>
+      </c>
+      <c r="AD430">
+        <v>7.1</v>
+      </c>
+      <c r="AE430">
+        <v>1.41</v>
+      </c>
+      <c r="AF430">
+        <v>2.61</v>
+      </c>
+      <c r="AG430">
+        <v>2.2</v>
+      </c>
+      <c r="AH430">
+        <v>1.62</v>
+      </c>
+      <c r="AI430">
+        <v>2.29</v>
+      </c>
+      <c r="AJ430">
+        <v>1.58</v>
+      </c>
+      <c r="AK430">
+        <v>1.13</v>
+      </c>
+      <c r="AL430">
+        <v>1.28</v>
+      </c>
+      <c r="AM430">
+        <v>2.27</v>
+      </c>
+      <c r="AN430">
+        <v>1.89</v>
+      </c>
+      <c r="AO430">
+        <v>1.11</v>
+      </c>
+      <c r="AP430">
+        <v>1.8</v>
+      </c>
+      <c r="AQ430">
+        <v>1.2</v>
+      </c>
+      <c r="AR430">
+        <v>1.63</v>
+      </c>
+      <c r="AS430">
+        <v>0.9</v>
+      </c>
+      <c r="AT430">
+        <v>2.53</v>
+      </c>
+      <c r="AU430">
+        <v>5</v>
+      </c>
+      <c r="AV430">
+        <v>0</v>
+      </c>
+      <c r="AW430">
+        <v>10</v>
+      </c>
+      <c r="AX430">
+        <v>4</v>
+      </c>
+      <c r="AY430">
+        <v>15</v>
+      </c>
+      <c r="AZ430">
+        <v>4</v>
+      </c>
+      <c r="BA430">
+        <v>3</v>
+      </c>
+      <c r="BB430">
+        <v>2</v>
+      </c>
+      <c r="BC430">
+        <v>5</v>
+      </c>
+      <c r="BD430">
+        <v>1.26</v>
+      </c>
+      <c r="BE430">
+        <v>10</v>
+      </c>
+      <c r="BF430">
+        <v>4.86</v>
+      </c>
+      <c r="BG430">
+        <v>1.22</v>
+      </c>
+      <c r="BH430">
+        <v>3.65</v>
+      </c>
+      <c r="BI430">
+        <v>1.44</v>
+      </c>
+      <c r="BJ430">
+        <v>2.58</v>
+      </c>
+      <c r="BK430">
+        <v>1.82</v>
+      </c>
+      <c r="BL430">
+        <v>1.98</v>
+      </c>
+      <c r="BM430">
+        <v>2.24</v>
+      </c>
+      <c r="BN430">
+        <v>1.64</v>
+      </c>
+      <c r="BO430">
+        <v>2.93</v>
+      </c>
+      <c r="BP430">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -89848,22 +89848,22 @@
         <v>2.35</v>
       </c>
       <c r="AU428">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV428">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW428">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX428">
         <v>7</v>
       </c>
       <c r="AY428">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ428">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA428">
         <v>2</v>
@@ -90054,22 +90054,22 @@
         <v>2.71</v>
       </c>
       <c r="AU429">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV429">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW429">
         <v>3</v>
       </c>
       <c r="AX429">
+        <v>8</v>
+      </c>
+      <c r="AY429">
         <v>6</v>
       </c>
-      <c r="AY429">
-        <v>5</v>
-      </c>
       <c r="AZ429">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA429">
         <v>3</v>
@@ -90263,19 +90263,19 @@
         <v>5</v>
       </c>
       <c r="AV430">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW430">
         <v>10</v>
       </c>
       <c r="AX430">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY430">
         <v>15</v>
       </c>
       <c r="AZ430">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA430">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="455">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1740,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP430"/>
+  <dimension ref="A1:BP431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ11">
         <v>0.85</v>
@@ -4758,7 +4758,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ15">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ30">
         <v>1.2</v>
@@ -12583,7 +12583,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ53">
         <v>0.6</v>
@@ -12998,7 +12998,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ55">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -16294,7 +16294,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ71">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR71">
         <v>1.41</v>
@@ -17321,7 +17321,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ76">
         <v>1.6</v>
@@ -21238,7 +21238,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ95">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR95">
         <v>1.43</v>
@@ -21853,7 +21853,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ98">
         <v>1.25</v>
@@ -24943,7 +24943,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ113">
         <v>0.85</v>
@@ -26182,7 +26182,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ119">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR119">
         <v>1.04</v>
@@ -28242,7 +28242,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ129">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR129">
         <v>1.17</v>
@@ -30299,7 +30299,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ139">
         <v>1.21</v>
@@ -32362,7 +32362,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ149">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR149">
         <v>1.79</v>
@@ -34419,7 +34419,7 @@
         <v>1.14</v>
       </c>
       <c r="AP159">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -36894,7 +36894,7 @@
         <v>2</v>
       </c>
       <c r="AQ171">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR171">
         <v>1.45</v>
@@ -39775,7 +39775,7 @@
         <v>0.88</v>
       </c>
       <c r="AP185">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ185">
         <v>1.11</v>
@@ -41838,7 +41838,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ195">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR195">
         <v>1.43</v>
@@ -42247,7 +42247,7 @@
         <v>1</v>
       </c>
       <c r="AP197">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ197">
         <v>1</v>
@@ -45134,7 +45134,7 @@
         <v>2</v>
       </c>
       <c r="AQ211">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR211">
         <v>1.25</v>
@@ -46161,7 +46161,7 @@
         <v>0.67</v>
       </c>
       <c r="AP216">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ216">
         <v>0.74</v>
@@ -50284,7 +50284,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ236">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR236">
         <v>1.38</v>
@@ -53371,7 +53371,7 @@
         <v>1.27</v>
       </c>
       <c r="AP251">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ251">
         <v>1.16</v>
@@ -55640,7 +55640,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ262">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR262">
         <v>1.45</v>
@@ -57079,7 +57079,7 @@
         <v>0.5</v>
       </c>
       <c r="AP269">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ269">
         <v>0.5</v>
@@ -59142,7 +59142,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ279">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR279">
         <v>1.09</v>
@@ -64704,7 +64704,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ306">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR306">
         <v>1.36</v>
@@ -65113,7 +65113,7 @@
         <v>1.15</v>
       </c>
       <c r="AP308">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ308">
         <v>1.2</v>
@@ -67997,7 +67997,7 @@
         <v>1.21</v>
       </c>
       <c r="AP322">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ322">
         <v>1.05</v>
@@ -68824,7 +68824,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ326">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR326">
         <v>1.58</v>
@@ -73765,7 +73765,7 @@
         <v>1.07</v>
       </c>
       <c r="AP350">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ350">
         <v>1.05</v>
@@ -73974,7 +73974,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ351">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR351">
         <v>1.54</v>
@@ -76446,7 +76446,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ363">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR363">
         <v>1.4</v>
@@ -78091,7 +78091,7 @@
         <v>1</v>
       </c>
       <c r="AP371">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ371">
         <v>1.05</v>
@@ -80566,7 +80566,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ383">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR383">
         <v>1.44</v>
@@ -83241,7 +83241,7 @@
         <v>0.65</v>
       </c>
       <c r="AP396">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ396">
         <v>0.74</v>
@@ -86125,7 +86125,7 @@
         <v>1.17</v>
       </c>
       <c r="AP410">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AQ410">
         <v>1.26</v>
@@ -86540,7 +86540,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ412">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR412">
         <v>1.53</v>
@@ -90324,6 +90324,212 @@
       </c>
       <c r="BP430">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="431" spans="1:68">
+      <c r="A431" s="1">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>6720145</v>
+      </c>
+      <c r="C431" t="s">
+        <v>68</v>
+      </c>
+      <c r="D431" t="s">
+        <v>69</v>
+      </c>
+      <c r="E431" s="2">
+        <v>45429.64583333334</v>
+      </c>
+      <c r="F431">
+        <v>40</v>
+      </c>
+      <c r="G431" t="s">
+        <v>79</v>
+      </c>
+      <c r="H431" t="s">
+        <v>74</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0</v>
+      </c>
+      <c r="L431">
+        <v>1</v>
+      </c>
+      <c r="M431">
+        <v>1</v>
+      </c>
+      <c r="N431">
+        <v>2</v>
+      </c>
+      <c r="O431" t="s">
+        <v>195</v>
+      </c>
+      <c r="P431" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q431">
+        <v>3.8</v>
+      </c>
+      <c r="R431">
+        <v>2</v>
+      </c>
+      <c r="S431">
+        <v>2.8</v>
+      </c>
+      <c r="T431">
+        <v>1.45</v>
+      </c>
+      <c r="U431">
+        <v>2.55</v>
+      </c>
+      <c r="V431">
+        <v>2.95</v>
+      </c>
+      <c r="W431">
+        <v>1.35</v>
+      </c>
+      <c r="X431">
+        <v>8.5</v>
+      </c>
+      <c r="Y431">
+        <v>1.07</v>
+      </c>
+      <c r="Z431">
+        <v>3.9</v>
+      </c>
+      <c r="AA431">
+        <v>3.1</v>
+      </c>
+      <c r="AB431">
+        <v>1.85</v>
+      </c>
+      <c r="AC431">
+        <v>1.07</v>
+      </c>
+      <c r="AD431">
+        <v>8</v>
+      </c>
+      <c r="AE431">
+        <v>1.38</v>
+      </c>
+      <c r="AF431">
+        <v>3</v>
+      </c>
+      <c r="AG431">
+        <v>2</v>
+      </c>
+      <c r="AH431">
+        <v>1.7</v>
+      </c>
+      <c r="AI431">
+        <v>1.77</v>
+      </c>
+      <c r="AJ431">
+        <v>1.9</v>
+      </c>
+      <c r="AK431">
+        <v>1.65</v>
+      </c>
+      <c r="AL431">
+        <v>1.28</v>
+      </c>
+      <c r="AM431">
+        <v>1.3</v>
+      </c>
+      <c r="AN431">
+        <v>1.47</v>
+      </c>
+      <c r="AO431">
+        <v>1.16</v>
+      </c>
+      <c r="AP431">
+        <v>1.45</v>
+      </c>
+      <c r="AQ431">
+        <v>1.15</v>
+      </c>
+      <c r="AR431">
+        <v>1.29</v>
+      </c>
+      <c r="AS431">
+        <v>1.4</v>
+      </c>
+      <c r="AT431">
+        <v>2.69</v>
+      </c>
+      <c r="AU431">
+        <v>5</v>
+      </c>
+      <c r="AV431">
+        <v>5</v>
+      </c>
+      <c r="AW431">
+        <v>2</v>
+      </c>
+      <c r="AX431">
+        <v>11</v>
+      </c>
+      <c r="AY431">
+        <v>7</v>
+      </c>
+      <c r="AZ431">
+        <v>16</v>
+      </c>
+      <c r="BA431">
+        <v>5</v>
+      </c>
+      <c r="BB431">
+        <v>7</v>
+      </c>
+      <c r="BC431">
+        <v>12</v>
+      </c>
+      <c r="BD431">
+        <v>2.53</v>
+      </c>
+      <c r="BE431">
+        <v>7.5</v>
+      </c>
+      <c r="BF431">
+        <v>1.75</v>
+      </c>
+      <c r="BG431">
+        <v>1.42</v>
+      </c>
+      <c r="BH431">
+        <v>2.7</v>
+      </c>
+      <c r="BI431">
+        <v>1.72</v>
+      </c>
+      <c r="BJ431">
+        <v>2.05</v>
+      </c>
+      <c r="BK431">
+        <v>2.2</v>
+      </c>
+      <c r="BL431">
+        <v>1.65</v>
+      </c>
+      <c r="BM431">
+        <v>2.85</v>
+      </c>
+      <c r="BN431">
+        <v>1.38</v>
+      </c>
+      <c r="BO431">
+        <v>3.9</v>
+      </c>
+      <c r="BP431">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="457">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1033,6 +1033,9 @@
     <t>['6', '45+4']</t>
   </si>
   <si>
+    <t>['17', '77']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -1379,6 +1382,9 @@
   </si>
   <si>
     <t>['32', '38', '81']</t>
+  </si>
+  <si>
+    <t>['37', '50', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP431"/>
+  <dimension ref="A1:BP434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2286,7 +2292,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ3">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -3235,7 +3241,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3725,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ10">
         <v>0.6</v>
@@ -4265,7 +4271,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q13">
         <v>2.55</v>
@@ -4343,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>1.21</v>
@@ -4964,7 +4970,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5089,7 +5095,7 @@
         <v>105</v>
       </c>
       <c r="P17" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q17">
         <v>2.28</v>
@@ -5170,7 +5176,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ17">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5295,7 +5301,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5913,7 +5919,7 @@
         <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q21">
         <v>2.3</v>
@@ -6325,7 +6331,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6403,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ23">
         <v>0.85</v>
@@ -6943,7 +6949,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q26">
         <v>2.8</v>
@@ -7149,7 +7155,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q27">
         <v>2.32</v>
@@ -7642,7 +7648,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ29">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -8257,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ32">
         <v>0.74</v>
@@ -9290,7 +9296,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ37">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR37">
         <v>1.54</v>
@@ -9621,7 +9627,7 @@
         <v>120</v>
       </c>
       <c r="P39" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q39">
         <v>2.45</v>
@@ -9702,7 +9708,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR39">
         <v>1.64</v>
@@ -9827,7 +9833,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q40">
         <v>2.9</v>
@@ -10111,7 +10117,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>0.85</v>
@@ -10445,7 +10451,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10935,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ45">
         <v>0.8</v>
@@ -11063,7 +11069,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -11556,7 +11562,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.44</v>
@@ -11759,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ49">
         <v>1.2</v>
@@ -12299,7 +12305,7 @@
         <v>130</v>
       </c>
       <c r="P52" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q52">
         <v>2.71</v>
@@ -12505,7 +12511,7 @@
         <v>131</v>
       </c>
       <c r="P53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q53">
         <v>3.6</v>
@@ -12711,7 +12717,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12917,7 +12923,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q55">
         <v>2.82</v>
@@ -13123,7 +13129,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13329,7 +13335,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q57">
         <v>2.63</v>
@@ -13410,7 +13416,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR57">
         <v>1.41</v>
@@ -13535,7 +13541,7 @@
         <v>134</v>
       </c>
       <c r="P58" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13613,7 +13619,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
@@ -13741,7 +13747,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -14234,7 +14240,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ61">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR61">
         <v>1.72</v>
@@ -14771,7 +14777,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -15467,7 +15473,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
         <v>1.11</v>
@@ -15595,7 +15601,7 @@
         <v>106</v>
       </c>
       <c r="P68" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15879,10 +15885,10 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ69">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.18</v>
@@ -16419,7 +16425,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -17243,7 +17249,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17939,10 +17945,10 @@
         <v>0.67</v>
       </c>
       <c r="AP79">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR79">
         <v>1.34</v>
@@ -18479,7 +18485,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18891,7 +18897,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -19384,7 +19390,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ86">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR86">
         <v>1.81</v>
@@ -19509,7 +19515,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q87">
         <v>2.4</v>
@@ -19715,7 +19721,7 @@
         <v>96</v>
       </c>
       <c r="P88" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19793,10 +19799,10 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ88">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.27</v>
@@ -20127,7 +20133,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q90">
         <v>3.82</v>
@@ -20620,7 +20626,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR92">
         <v>1.21</v>
@@ -21569,7 +21575,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q97">
         <v>2.82</v>
@@ -21647,7 +21653,7 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ97">
         <v>1.05</v>
@@ -21775,7 +21781,7 @@
         <v>162</v>
       </c>
       <c r="P98" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q98">
         <v>4.19</v>
@@ -22187,7 +22193,7 @@
         <v>96</v>
       </c>
       <c r="P100" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22393,7 +22399,7 @@
         <v>96</v>
       </c>
       <c r="P101" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q101">
         <v>2.65</v>
@@ -22599,7 +22605,7 @@
         <v>96</v>
       </c>
       <c r="P102" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22677,7 +22683,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ102">
         <v>1.05</v>
@@ -22805,7 +22811,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q103">
         <v>2.8</v>
@@ -22886,7 +22892,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ103">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1.15</v>
@@ -23089,7 +23095,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ104">
         <v>1.11</v>
@@ -23217,7 +23223,7 @@
         <v>121</v>
       </c>
       <c r="P105" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q105">
         <v>3.7</v>
@@ -23423,7 +23429,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q106">
         <v>2.4</v>
@@ -23629,7 +23635,7 @@
         <v>98</v>
       </c>
       <c r="P107" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -23916,7 +23922,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ108">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR108">
         <v>1.3</v>
@@ -24041,7 +24047,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q109">
         <v>2.4</v>
@@ -25071,7 +25077,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q114">
         <v>2.9</v>
@@ -25152,7 +25158,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR114">
         <v>1.32</v>
@@ -25277,7 +25283,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q115">
         <v>2.9</v>
@@ -25689,7 +25695,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q117">
         <v>2.7</v>
@@ -25973,7 +25979,7 @@
         <v>1.6</v>
       </c>
       <c r="AP118">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ118">
         <v>0.85</v>
@@ -26307,7 +26313,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q120">
         <v>2.15</v>
@@ -26591,7 +26597,7 @@
         <v>0.2</v>
       </c>
       <c r="AP121">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ121">
         <v>0.79</v>
@@ -27337,7 +27343,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27749,7 +27755,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -28239,7 +28245,7 @@
         <v>0.4</v>
       </c>
       <c r="AP129">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ129">
         <v>1.15</v>
@@ -28367,7 +28373,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -28448,7 +28454,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ130">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.71</v>
@@ -28654,7 +28660,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ131">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR131">
         <v>1.26</v>
@@ -28985,7 +28991,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29887,7 +29893,7 @@
         <v>2</v>
       </c>
       <c r="AP137">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ137">
         <v>1.16</v>
@@ -30505,7 +30511,7 @@
         <v>0.6</v>
       </c>
       <c r="AP140">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ140">
         <v>0.74</v>
@@ -30917,7 +30923,7 @@
         <v>0.5</v>
       </c>
       <c r="AP142">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ142">
         <v>0.5</v>
@@ -31045,7 +31051,7 @@
         <v>191</v>
       </c>
       <c r="P143" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -31251,7 +31257,7 @@
         <v>98</v>
       </c>
       <c r="P144" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q144">
         <v>3.25</v>
@@ -31457,7 +31463,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q145">
         <v>2.6</v>
@@ -31663,7 +31669,7 @@
         <v>96</v>
       </c>
       <c r="P146" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q146">
         <v>3.35</v>
@@ -31744,7 +31750,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ146">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR146">
         <v>1.67</v>
@@ -31869,7 +31875,7 @@
         <v>193</v>
       </c>
       <c r="P147" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q147">
         <v>2.3</v>
@@ -32281,7 +32287,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q149">
         <v>2.8</v>
@@ -32899,7 +32905,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -32980,7 +32986,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR152">
         <v>1.45</v>
@@ -33105,7 +33111,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -33392,7 +33398,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ154">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR154">
         <v>1.04</v>
@@ -33801,7 +33807,7 @@
         <v>1.71</v>
       </c>
       <c r="AP156">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ156">
         <v>1.16</v>
@@ -33929,7 +33935,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q157">
         <v>3.14</v>
@@ -34341,7 +34347,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34547,7 +34553,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q160">
         <v>1.95</v>
@@ -34753,7 +34759,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34959,7 +34965,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q162">
         <v>2.45</v>
@@ -35037,7 +35043,7 @@
         <v>1.14</v>
       </c>
       <c r="AP162">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ162">
         <v>1.05</v>
@@ -35449,7 +35455,7 @@
         <v>1.43</v>
       </c>
       <c r="AP164">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ164">
         <v>1.2</v>
@@ -35577,7 +35583,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -36276,7 +36282,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ168">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR168">
         <v>1.47</v>
@@ -36607,7 +36613,7 @@
         <v>96</v>
       </c>
       <c r="P170" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q170">
         <v>2.8</v>
@@ -37019,7 +37025,7 @@
         <v>175</v>
       </c>
       <c r="P172" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37100,7 +37106,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ172">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR172">
         <v>1.43</v>
@@ -37225,7 +37231,7 @@
         <v>211</v>
       </c>
       <c r="P173" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q173">
         <v>2.88</v>
@@ -37431,7 +37437,7 @@
         <v>212</v>
       </c>
       <c r="P174" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q174">
         <v>3.65</v>
@@ -38049,7 +38055,7 @@
         <v>214</v>
       </c>
       <c r="P177" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38130,7 +38136,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ177">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR177">
         <v>1.57</v>
@@ -38333,7 +38339,7 @@
         <v>1.29</v>
       </c>
       <c r="AP178">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ178">
         <v>1.26</v>
@@ -39285,7 +39291,7 @@
         <v>217</v>
       </c>
       <c r="P183" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -39363,7 +39369,7 @@
         <v>1.38</v>
       </c>
       <c r="AP183">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ183">
         <v>1</v>
@@ -40727,7 +40733,7 @@
         <v>96</v>
       </c>
       <c r="P190" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q190">
         <v>2.85</v>
@@ -41014,7 +41020,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ191">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR191">
         <v>1.32</v>
@@ -41629,7 +41635,7 @@
         <v>1.5</v>
       </c>
       <c r="AP194">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ194">
         <v>1.2</v>
@@ -41757,7 +41763,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q195">
         <v>3.75</v>
@@ -41963,7 +41969,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q196">
         <v>3.25</v>
@@ -42250,7 +42256,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ197">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR197">
         <v>1.37</v>
@@ -42375,7 +42381,7 @@
         <v>96</v>
       </c>
       <c r="P198" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q198">
         <v>3.4</v>
@@ -42456,7 +42462,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ198">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR198">
         <v>0.99</v>
@@ -43199,7 +43205,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -43817,7 +43823,7 @@
         <v>100</v>
       </c>
       <c r="P205" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q205">
         <v>2.35</v>
@@ -44023,7 +44029,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q206">
         <v>3.25</v>
@@ -44229,7 +44235,7 @@
         <v>231</v>
       </c>
       <c r="P207" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q207">
         <v>2.38</v>
@@ -44435,7 +44441,7 @@
         <v>97</v>
       </c>
       <c r="P208" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -44513,7 +44519,7 @@
         <v>1.22</v>
       </c>
       <c r="AP208">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ208">
         <v>1.05</v>
@@ -44719,7 +44725,7 @@
         <v>1.33</v>
       </c>
       <c r="AP209">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ209">
         <v>1</v>
@@ -45053,7 +45059,7 @@
         <v>232</v>
       </c>
       <c r="P211" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45259,7 +45265,7 @@
         <v>233</v>
       </c>
       <c r="P212" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -45340,7 +45346,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ212">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR212">
         <v>1.22</v>
@@ -45543,7 +45549,7 @@
         <v>1.22</v>
       </c>
       <c r="AP213">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ213">
         <v>1.2</v>
@@ -45671,7 +45677,7 @@
         <v>96</v>
       </c>
       <c r="P214" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -45752,7 +45758,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ214">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR214">
         <v>1.42</v>
@@ -45877,7 +45883,7 @@
         <v>190</v>
       </c>
       <c r="P215" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q215">
         <v>2.85</v>
@@ -47731,7 +47737,7 @@
         <v>240</v>
       </c>
       <c r="P224" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -47812,7 +47818,7 @@
         <v>2</v>
       </c>
       <c r="AQ224">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR224">
         <v>1.45</v>
@@ -48143,7 +48149,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q226">
         <v>3</v>
@@ -48430,7 +48436,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ227">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR227">
         <v>1.65</v>
@@ -48633,7 +48639,7 @@
         <v>1</v>
       </c>
       <c r="AP228">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ228">
         <v>0.85</v>
@@ -48839,7 +48845,7 @@
         <v>1.1</v>
       </c>
       <c r="AP229">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ229">
         <v>1.21</v>
@@ -49173,7 +49179,7 @@
         <v>125</v>
       </c>
       <c r="P231" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q231">
         <v>2.9</v>
@@ -49666,7 +49672,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ233">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR233">
         <v>1.67</v>
@@ -51027,7 +51033,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q240">
         <v>3.2</v>
@@ -51105,7 +51111,7 @@
         <v>1.7</v>
       </c>
       <c r="AP240">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ240">
         <v>1.6</v>
@@ -51233,7 +51239,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q241">
         <v>2.88</v>
@@ -52263,7 +52269,7 @@
         <v>96</v>
       </c>
       <c r="P246" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q246">
         <v>3.35</v>
@@ -52469,7 +52475,7 @@
         <v>253</v>
       </c>
       <c r="P247" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q247">
         <v>2.23</v>
@@ -52675,7 +52681,7 @@
         <v>254</v>
       </c>
       <c r="P248" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q248">
         <v>3.18</v>
@@ -52756,7 +52762,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ248">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR248">
         <v>1.36</v>
@@ -52881,7 +52887,7 @@
         <v>202</v>
       </c>
       <c r="P249" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q249">
         <v>2.95</v>
@@ -53087,7 +53093,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53499,7 +53505,7 @@
         <v>255</v>
       </c>
       <c r="P252" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53577,7 +53583,7 @@
         <v>1.18</v>
       </c>
       <c r="AP252">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ252">
         <v>1.25</v>
@@ -53989,10 +53995,10 @@
         <v>0.73</v>
       </c>
       <c r="AP254">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ254">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR254">
         <v>1.39</v>
@@ -55147,7 +55153,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q260">
         <v>3.6</v>
@@ -55353,7 +55359,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q261">
         <v>3.1</v>
@@ -55637,7 +55643,7 @@
         <v>1.09</v>
       </c>
       <c r="AP262">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ262">
         <v>1.15</v>
@@ -55765,7 +55771,7 @@
         <v>261</v>
       </c>
       <c r="P263" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q263">
         <v>2.7</v>
@@ -55971,7 +55977,7 @@
         <v>262</v>
       </c>
       <c r="P264" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q264">
         <v>2.63</v>
@@ -56258,7 +56264,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ265">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR265">
         <v>1.68</v>
@@ -56464,7 +56470,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ266">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR266">
         <v>1.63</v>
@@ -56873,7 +56879,7 @@
         <v>1.17</v>
       </c>
       <c r="AP268">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ268">
         <v>0.85</v>
@@ -57285,7 +57291,7 @@
         <v>1.08</v>
       </c>
       <c r="AP270">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ270">
         <v>1.26</v>
@@ -57619,7 +57625,7 @@
         <v>116</v>
       </c>
       <c r="P272" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q272">
         <v>3.75</v>
@@ -58112,7 +58118,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ274">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR274">
         <v>1.09</v>
@@ -58524,7 +58530,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ276">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR276">
         <v>1.41</v>
@@ -60915,7 +60921,7 @@
         <v>273</v>
       </c>
       <c r="P288" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q288">
         <v>2.63</v>
@@ -61202,7 +61208,7 @@
         <v>2</v>
       </c>
       <c r="AQ289">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR289">
         <v>1.43</v>
@@ -61405,7 +61411,7 @@
         <v>0.46</v>
       </c>
       <c r="AP290">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ290">
         <v>0.5</v>
@@ -61533,7 +61539,7 @@
         <v>190</v>
       </c>
       <c r="P291" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q291">
         <v>3.2</v>
@@ -62026,7 +62032,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ293">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR293">
         <v>1.62</v>
@@ -62435,7 +62441,7 @@
         <v>1.08</v>
       </c>
       <c r="AP295">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ295">
         <v>0.85</v>
@@ -62641,7 +62647,7 @@
         <v>0.25</v>
       </c>
       <c r="AP296">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ296">
         <v>0.79</v>
@@ -63799,7 +63805,7 @@
         <v>281</v>
       </c>
       <c r="P302" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q302">
         <v>2.75</v>
@@ -64292,7 +64298,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ304">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR304">
         <v>1.34</v>
@@ -64417,7 +64423,7 @@
         <v>206</v>
       </c>
       <c r="P305" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q305">
         <v>4</v>
@@ -65035,7 +65041,7 @@
         <v>96</v>
       </c>
       <c r="P308" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q308">
         <v>3.1</v>
@@ -65859,7 +65865,7 @@
         <v>286</v>
       </c>
       <c r="P312" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q312">
         <v>2.8</v>
@@ -65940,7 +65946,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ312">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR312">
         <v>1.37</v>
@@ -66065,7 +66071,7 @@
         <v>287</v>
       </c>
       <c r="P313" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q313">
         <v>2.62</v>
@@ -66555,7 +66561,7 @@
         <v>1.07</v>
       </c>
       <c r="AP315">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ315">
         <v>1.26</v>
@@ -66683,7 +66689,7 @@
         <v>290</v>
       </c>
       <c r="P316" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q316">
         <v>2.7</v>
@@ -67095,7 +67101,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q318">
         <v>3</v>
@@ -67173,7 +67179,7 @@
         <v>1.29</v>
       </c>
       <c r="AP318">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ318">
         <v>1.25</v>
@@ -67585,7 +67591,7 @@
         <v>0.5</v>
       </c>
       <c r="AP320">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ320">
         <v>0.6</v>
@@ -67713,7 +67719,7 @@
         <v>92</v>
       </c>
       <c r="P321" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q321">
         <v>3.1</v>
@@ -68537,7 +68543,7 @@
         <v>296</v>
       </c>
       <c r="P325" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q325">
         <v>3.25</v>
@@ -69030,7 +69036,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ327">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR327">
         <v>1.55</v>
@@ -69236,7 +69242,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ328">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR328">
         <v>1.65</v>
@@ -70884,7 +70890,7 @@
         <v>2</v>
       </c>
       <c r="AQ336">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR336">
         <v>1.49</v>
@@ -71293,7 +71299,7 @@
         <v>0.8</v>
       </c>
       <c r="AP338">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ338">
         <v>0.8</v>
@@ -71833,7 +71839,7 @@
         <v>301</v>
       </c>
       <c r="P341" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q341">
         <v>2.5</v>
@@ -72039,7 +72045,7 @@
         <v>96</v>
       </c>
       <c r="P342" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q342">
         <v>2.5</v>
@@ -72117,7 +72123,7 @@
         <v>0.5</v>
       </c>
       <c r="AP342">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ342">
         <v>0.79</v>
@@ -72657,7 +72663,7 @@
         <v>121</v>
       </c>
       <c r="P345" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q345">
         <v>3.65</v>
@@ -73150,7 +73156,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ347">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR347">
         <v>1.14</v>
@@ -73559,10 +73565,10 @@
         <v>0.73</v>
       </c>
       <c r="AP349">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ349">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR349">
         <v>1.32</v>
@@ -73893,7 +73899,7 @@
         <v>306</v>
       </c>
       <c r="P351" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q351">
         <v>3.25</v>
@@ -75207,7 +75213,7 @@
         <v>0.75</v>
       </c>
       <c r="AP357">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ357">
         <v>0.8</v>
@@ -75413,7 +75419,7 @@
         <v>1.19</v>
       </c>
       <c r="AP358">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ358">
         <v>1.21</v>
@@ -75541,7 +75547,7 @@
         <v>309</v>
       </c>
       <c r="P359" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q359">
         <v>2.75</v>
@@ -75622,7 +75628,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ359">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR359">
         <v>1.47</v>
@@ -76159,7 +76165,7 @@
         <v>310</v>
       </c>
       <c r="P362" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76777,7 +76783,7 @@
         <v>96</v>
       </c>
       <c r="P365" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q365">
         <v>2.73</v>
@@ -76983,7 +76989,7 @@
         <v>312</v>
       </c>
       <c r="P366" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q366">
         <v>3.9</v>
@@ -77189,7 +77195,7 @@
         <v>96</v>
       </c>
       <c r="P367" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q367">
         <v>2.8</v>
@@ -77679,7 +77685,7 @@
         <v>1.69</v>
       </c>
       <c r="AP369">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ369">
         <v>1.6</v>
@@ -77888,7 +77894,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ370">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR370">
         <v>1.53</v>
@@ -78013,7 +78019,7 @@
         <v>315</v>
       </c>
       <c r="P371" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q371">
         <v>3.25</v>
@@ -78094,7 +78100,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ371">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR371">
         <v>1.3</v>
@@ -78219,7 +78225,7 @@
         <v>316</v>
       </c>
       <c r="P372" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q372">
         <v>3.25</v>
@@ -78631,7 +78637,7 @@
         <v>96</v>
       </c>
       <c r="P374" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q374">
         <v>4.5</v>
@@ -78837,7 +78843,7 @@
         <v>96</v>
       </c>
       <c r="P375" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q375">
         <v>2.38</v>
@@ -79121,7 +79127,7 @@
         <v>1.24</v>
       </c>
       <c r="AP376">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ376">
         <v>1.2</v>
@@ -79661,7 +79667,7 @@
         <v>126</v>
       </c>
       <c r="P379" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q379">
         <v>2.3</v>
@@ -80073,7 +80079,7 @@
         <v>96</v>
       </c>
       <c r="P381" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q381">
         <v>3.45</v>
@@ -80151,7 +80157,7 @@
         <v>1.24</v>
       </c>
       <c r="AP381">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ381">
         <v>1.25</v>
@@ -80485,7 +80491,7 @@
         <v>203</v>
       </c>
       <c r="P383" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q383">
         <v>3.7</v>
@@ -80772,7 +80778,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ384">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR384">
         <v>1.43</v>
@@ -80897,7 +80903,7 @@
         <v>320</v>
       </c>
       <c r="P385" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q385">
         <v>3.1</v>
@@ -81515,7 +81521,7 @@
         <v>96</v>
       </c>
       <c r="P388" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q388">
         <v>4.2</v>
@@ -82133,7 +82139,7 @@
         <v>321</v>
       </c>
       <c r="P391" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q391">
         <v>2.31</v>
@@ -82214,7 +82220,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ391">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR391">
         <v>1.71</v>
@@ -82339,7 +82345,7 @@
         <v>322</v>
       </c>
       <c r="P392" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q392">
         <v>3.35</v>
@@ -82417,7 +82423,7 @@
         <v>1</v>
       </c>
       <c r="AP392">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ392">
         <v>1.05</v>
@@ -83244,7 +83250,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ396">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR396">
         <v>1.3</v>
@@ -83653,10 +83659,10 @@
         <v>1</v>
       </c>
       <c r="AP398">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ398">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR398">
         <v>1.42</v>
@@ -83781,7 +83787,7 @@
         <v>270</v>
       </c>
       <c r="P399" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q399">
         <v>2.8</v>
@@ -83859,7 +83865,7 @@
         <v>1.11</v>
       </c>
       <c r="AP399">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AQ399">
         <v>1.05</v>
@@ -83987,7 +83993,7 @@
         <v>326</v>
       </c>
       <c r="P400" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q400">
         <v>2.38</v>
@@ -84193,7 +84199,7 @@
         <v>327</v>
       </c>
       <c r="P401" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q401">
         <v>2.79</v>
@@ -84399,7 +84405,7 @@
         <v>96</v>
       </c>
       <c r="P402" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q402">
         <v>2.34</v>
@@ -85635,7 +85641,7 @@
         <v>96</v>
       </c>
       <c r="P408" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q408">
         <v>2.88</v>
@@ -85841,7 +85847,7 @@
         <v>96</v>
       </c>
       <c r="P409" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q409">
         <v>3.25</v>
@@ -86253,7 +86259,7 @@
         <v>96</v>
       </c>
       <c r="P411" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q411">
         <v>3.75</v>
@@ -86331,7 +86337,7 @@
         <v>1</v>
       </c>
       <c r="AP411">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ411">
         <v>1.11</v>
@@ -87155,7 +87161,7 @@
         <v>0.61</v>
       </c>
       <c r="AP415">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ415">
         <v>0.74</v>
@@ -87364,7 +87370,7 @@
         <v>2</v>
       </c>
       <c r="AQ416">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR416">
         <v>1.47</v>
@@ -87489,7 +87495,7 @@
         <v>331</v>
       </c>
       <c r="P417" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q417">
         <v>4</v>
@@ -87695,7 +87701,7 @@
         <v>213</v>
       </c>
       <c r="P418" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q418">
         <v>3.1</v>
@@ -87776,7 +87782,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ418">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AR418">
         <v>1.42</v>
@@ -88107,7 +88113,7 @@
         <v>333</v>
       </c>
       <c r="P420" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q420">
         <v>2.54</v>
@@ -88519,7 +88525,7 @@
         <v>334</v>
       </c>
       <c r="P422" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q422">
         <v>2.8</v>
@@ -89137,7 +89143,7 @@
         <v>336</v>
       </c>
       <c r="P425" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q425">
         <v>3</v>
@@ -90167,7 +90173,7 @@
         <v>96</v>
       </c>
       <c r="P430" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q430">
         <v>2.22</v>
@@ -90530,6 +90536,624 @@
       </c>
       <c r="BP431">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="432" spans="1:68">
+      <c r="A432" s="1">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>6720137</v>
+      </c>
+      <c r="C432" t="s">
+        <v>68</v>
+      </c>
+      <c r="D432" t="s">
+        <v>69</v>
+      </c>
+      <c r="E432" s="2">
+        <v>45430.375</v>
+      </c>
+      <c r="F432">
+        <v>40</v>
+      </c>
+      <c r="G432" t="s">
+        <v>81</v>
+      </c>
+      <c r="H432" t="s">
+        <v>75</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+      <c r="L432">
+        <v>1</v>
+      </c>
+      <c r="M432">
+        <v>0</v>
+      </c>
+      <c r="N432">
+        <v>1</v>
+      </c>
+      <c r="O432" t="s">
+        <v>116</v>
+      </c>
+      <c r="P432" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q432">
+        <v>3</v>
+      </c>
+      <c r="R432">
+        <v>1.95</v>
+      </c>
+      <c r="S432">
+        <v>3.65</v>
+      </c>
+      <c r="T432">
+        <v>1.48</v>
+      </c>
+      <c r="U432">
+        <v>2.5</v>
+      </c>
+      <c r="V432">
+        <v>3.1</v>
+      </c>
+      <c r="W432">
+        <v>1.33</v>
+      </c>
+      <c r="X432">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y432">
+        <v>1.06</v>
+      </c>
+      <c r="Z432">
+        <v>2.03</v>
+      </c>
+      <c r="AA432">
+        <v>3</v>
+      </c>
+      <c r="AB432">
+        <v>3.25</v>
+      </c>
+      <c r="AC432">
+        <v>1.08</v>
+      </c>
+      <c r="AD432">
+        <v>7.5</v>
+      </c>
+      <c r="AE432">
+        <v>1.4</v>
+      </c>
+      <c r="AF432">
+        <v>2.9</v>
+      </c>
+      <c r="AG432">
+        <v>2.12</v>
+      </c>
+      <c r="AH432">
+        <v>1.64</v>
+      </c>
+      <c r="AI432">
+        <v>1.83</v>
+      </c>
+      <c r="AJ432">
+        <v>1.85</v>
+      </c>
+      <c r="AK432">
+        <v>1.36</v>
+      </c>
+      <c r="AL432">
+        <v>1.3</v>
+      </c>
+      <c r="AM432">
+        <v>1.55</v>
+      </c>
+      <c r="AN432">
+        <v>1.32</v>
+      </c>
+      <c r="AO432">
+        <v>0.74</v>
+      </c>
+      <c r="AP432">
+        <v>1.4</v>
+      </c>
+      <c r="AQ432">
+        <v>0.7</v>
+      </c>
+      <c r="AR432">
+        <v>1.44</v>
+      </c>
+      <c r="AS432">
+        <v>1.21</v>
+      </c>
+      <c r="AT432">
+        <v>2.65</v>
+      </c>
+      <c r="AU432">
+        <v>5</v>
+      </c>
+      <c r="AV432">
+        <v>4</v>
+      </c>
+      <c r="AW432">
+        <v>16</v>
+      </c>
+      <c r="AX432">
+        <v>10</v>
+      </c>
+      <c r="AY432">
+        <v>21</v>
+      </c>
+      <c r="AZ432">
+        <v>14</v>
+      </c>
+      <c r="BA432">
+        <v>3</v>
+      </c>
+      <c r="BB432">
+        <v>1</v>
+      </c>
+      <c r="BC432">
+        <v>4</v>
+      </c>
+      <c r="BD432">
+        <v>1.64</v>
+      </c>
+      <c r="BE432">
+        <v>8</v>
+      </c>
+      <c r="BF432">
+        <v>2.77</v>
+      </c>
+      <c r="BG432">
+        <v>1.22</v>
+      </c>
+      <c r="BH432">
+        <v>3.65</v>
+      </c>
+      <c r="BI432">
+        <v>1.49</v>
+      </c>
+      <c r="BJ432">
+        <v>2.57</v>
+      </c>
+      <c r="BK432">
+        <v>1.81</v>
+      </c>
+      <c r="BL432">
+        <v>2.01</v>
+      </c>
+      <c r="BM432">
+        <v>2.23</v>
+      </c>
+      <c r="BN432">
+        <v>1.63</v>
+      </c>
+      <c r="BO432">
+        <v>2.98</v>
+      </c>
+      <c r="BP432">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="433" spans="1:68">
+      <c r="A433" s="1">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>6720141</v>
+      </c>
+      <c r="C433" t="s">
+        <v>68</v>
+      </c>
+      <c r="D433" t="s">
+        <v>69</v>
+      </c>
+      <c r="E433" s="2">
+        <v>45430.46875</v>
+      </c>
+      <c r="F433">
+        <v>40</v>
+      </c>
+      <c r="G433" t="s">
+        <v>78</v>
+      </c>
+      <c r="H433" t="s">
+        <v>87</v>
+      </c>
+      <c r="I433">
+        <v>1</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>1</v>
+      </c>
+      <c r="L433">
+        <v>2</v>
+      </c>
+      <c r="M433">
+        <v>1</v>
+      </c>
+      <c r="N433">
+        <v>3</v>
+      </c>
+      <c r="O433" t="s">
+        <v>339</v>
+      </c>
+      <c r="P433" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q433">
+        <v>2.65</v>
+      </c>
+      <c r="R433">
+        <v>1.93</v>
+      </c>
+      <c r="S433">
+        <v>4.5</v>
+      </c>
+      <c r="T433">
+        <v>1.53</v>
+      </c>
+      <c r="U433">
+        <v>2.35</v>
+      </c>
+      <c r="V433">
+        <v>3.5</v>
+      </c>
+      <c r="W433">
+        <v>1.25</v>
+      </c>
+      <c r="X433">
+        <v>11</v>
+      </c>
+      <c r="Y433">
+        <v>1.05</v>
+      </c>
+      <c r="Z433">
+        <v>1.86</v>
+      </c>
+      <c r="AA433">
+        <v>2.93</v>
+      </c>
+      <c r="AB433">
+        <v>3.95</v>
+      </c>
+      <c r="AC433">
+        <v>1.09</v>
+      </c>
+      <c r="AD433">
+        <v>7</v>
+      </c>
+      <c r="AE433">
+        <v>1.48</v>
+      </c>
+      <c r="AF433">
+        <v>2.62</v>
+      </c>
+      <c r="AG433">
+        <v>2.45</v>
+      </c>
+      <c r="AH433">
+        <v>1.48</v>
+      </c>
+      <c r="AI433">
+        <v>2.05</v>
+      </c>
+      <c r="AJ433">
+        <v>1.65</v>
+      </c>
+      <c r="AK433">
+        <v>1.22</v>
+      </c>
+      <c r="AL433">
+        <v>1.28</v>
+      </c>
+      <c r="AM433">
+        <v>1.8</v>
+      </c>
+      <c r="AN433">
+        <v>1.84</v>
+      </c>
+      <c r="AO433">
+        <v>1.05</v>
+      </c>
+      <c r="AP433">
+        <v>1.9</v>
+      </c>
+      <c r="AQ433">
+        <v>1</v>
+      </c>
+      <c r="AR433">
+        <v>1.33</v>
+      </c>
+      <c r="AS433">
+        <v>1.13</v>
+      </c>
+      <c r="AT433">
+        <v>2.46</v>
+      </c>
+      <c r="AU433">
+        <v>5</v>
+      </c>
+      <c r="AV433">
+        <v>3</v>
+      </c>
+      <c r="AW433">
+        <v>5</v>
+      </c>
+      <c r="AX433">
+        <v>3</v>
+      </c>
+      <c r="AY433">
+        <v>10</v>
+      </c>
+      <c r="AZ433">
+        <v>6</v>
+      </c>
+      <c r="BA433">
+        <v>4</v>
+      </c>
+      <c r="BB433">
+        <v>7</v>
+      </c>
+      <c r="BC433">
+        <v>11</v>
+      </c>
+      <c r="BD433">
+        <v>1.69</v>
+      </c>
+      <c r="BE433">
+        <v>7.5</v>
+      </c>
+      <c r="BF433">
+        <v>2.64</v>
+      </c>
+      <c r="BG433">
+        <v>1.32</v>
+      </c>
+      <c r="BH433">
+        <v>2.98</v>
+      </c>
+      <c r="BI433">
+        <v>1.66</v>
+      </c>
+      <c r="BJ433">
+        <v>2.2</v>
+      </c>
+      <c r="BK433">
+        <v>2.05</v>
+      </c>
+      <c r="BL433">
+        <v>1.76</v>
+      </c>
+      <c r="BM433">
+        <v>2.69</v>
+      </c>
+      <c r="BN433">
+        <v>1.41</v>
+      </c>
+      <c r="BO433">
+        <v>3.65</v>
+      </c>
+      <c r="BP433">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="434" spans="1:68">
+      <c r="A434" s="1">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>6720140</v>
+      </c>
+      <c r="C434" t="s">
+        <v>68</v>
+      </c>
+      <c r="D434" t="s">
+        <v>69</v>
+      </c>
+      <c r="E434" s="2">
+        <v>45430.46875</v>
+      </c>
+      <c r="F434">
+        <v>40</v>
+      </c>
+      <c r="G434" t="s">
+        <v>89</v>
+      </c>
+      <c r="H434" t="s">
+        <v>72</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>1</v>
+      </c>
+      <c r="K434">
+        <v>1</v>
+      </c>
+      <c r="L434">
+        <v>0</v>
+      </c>
+      <c r="M434">
+        <v>3</v>
+      </c>
+      <c r="N434">
+        <v>3</v>
+      </c>
+      <c r="O434" t="s">
+        <v>96</v>
+      </c>
+      <c r="P434" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q434">
+        <v>2.8</v>
+      </c>
+      <c r="R434">
+        <v>2</v>
+      </c>
+      <c r="S434">
+        <v>3.85</v>
+      </c>
+      <c r="T434">
+        <v>1.42</v>
+      </c>
+      <c r="U434">
+        <v>2.62</v>
+      </c>
+      <c r="V434">
+        <v>2.95</v>
+      </c>
+      <c r="W434">
+        <v>1.35</v>
+      </c>
+      <c r="X434">
+        <v>7</v>
+      </c>
+      <c r="Y434">
+        <v>1.07</v>
+      </c>
+      <c r="Z434">
+        <v>2.25</v>
+      </c>
+      <c r="AA434">
+        <v>2.95</v>
+      </c>
+      <c r="AB434">
+        <v>2.86</v>
+      </c>
+      <c r="AC434">
+        <v>1.08</v>
+      </c>
+      <c r="AD434">
+        <v>7.5</v>
+      </c>
+      <c r="AE434">
+        <v>1.36</v>
+      </c>
+      <c r="AF434">
+        <v>3.1</v>
+      </c>
+      <c r="AG434">
+        <v>2.13</v>
+      </c>
+      <c r="AH434">
+        <v>1.63</v>
+      </c>
+      <c r="AI434">
+        <v>1.75</v>
+      </c>
+      <c r="AJ434">
+        <v>1.93</v>
+      </c>
+      <c r="AK434">
+        <v>1.3</v>
+      </c>
+      <c r="AL434">
+        <v>1.3</v>
+      </c>
+      <c r="AM434">
+        <v>1.62</v>
+      </c>
+      <c r="AN434">
+        <v>1.11</v>
+      </c>
+      <c r="AO434">
+        <v>1</v>
+      </c>
+      <c r="AP434">
+        <v>1.05</v>
+      </c>
+      <c r="AQ434">
+        <v>1.1</v>
+      </c>
+      <c r="AR434">
+        <v>1.29</v>
+      </c>
+      <c r="AS434">
+        <v>1.22</v>
+      </c>
+      <c r="AT434">
+        <v>2.51</v>
+      </c>
+      <c r="AU434">
+        <v>4</v>
+      </c>
+      <c r="AV434">
+        <v>2</v>
+      </c>
+      <c r="AW434">
+        <v>3</v>
+      </c>
+      <c r="AX434">
+        <v>2</v>
+      </c>
+      <c r="AY434">
+        <v>7</v>
+      </c>
+      <c r="AZ434">
+        <v>4</v>
+      </c>
+      <c r="BA434">
+        <v>6</v>
+      </c>
+      <c r="BB434">
+        <v>4</v>
+      </c>
+      <c r="BC434">
+        <v>10</v>
+      </c>
+      <c r="BD434">
+        <v>1.75</v>
+      </c>
+      <c r="BE434">
+        <v>8</v>
+      </c>
+      <c r="BF434">
+        <v>2.44</v>
+      </c>
+      <c r="BG434">
+        <v>1.19</v>
+      </c>
+      <c r="BH434">
+        <v>3.94</v>
+      </c>
+      <c r="BI434">
+        <v>1.39</v>
+      </c>
+      <c r="BJ434">
+        <v>2.76</v>
+      </c>
+      <c r="BK434">
+        <v>1.72</v>
+      </c>
+      <c r="BL434">
+        <v>2.1</v>
+      </c>
+      <c r="BM434">
+        <v>2.13</v>
+      </c>
+      <c r="BN434">
+        <v>1.7</v>
+      </c>
+      <c r="BO434">
+        <v>2.79</v>
+      </c>
+      <c r="BP434">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="457">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1746,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP434"/>
+  <dimension ref="A1:BP436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2086,7 +2086,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ2">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>1.11</v>
@@ -6000,7 +6000,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ21">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR21">
         <v>1.84</v>
@@ -6618,7 +6618,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR24">
         <v>1.21</v>
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>1.05</v>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ33">
         <v>1.25</v>
@@ -10532,7 +10532,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR43">
         <v>1.48</v>
@@ -11971,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
         <v>0.74</v>
@@ -12180,7 +12180,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ51">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR51">
         <v>1.34</v>
@@ -13207,7 +13207,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ56">
         <v>0.85</v>
@@ -13828,7 +13828,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ59">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -16918,7 +16918,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ74">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR74">
         <v>1.52</v>
@@ -17533,7 +17533,7 @@
         <v>2.33</v>
       </c>
       <c r="AP77">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77">
         <v>1.2</v>
@@ -18360,7 +18360,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ81">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR81">
         <v>1.72</v>
@@ -18975,7 +18975,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ84">
         <v>1.11</v>
@@ -20623,7 +20623,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ92">
         <v>1.1</v>
@@ -20829,7 +20829,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ93">
         <v>1.26</v>
@@ -22068,7 +22068,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ99">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR99">
         <v>1.66</v>
@@ -22480,7 +22480,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ101">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR101">
         <v>1.68</v>
@@ -23919,7 +23919,7 @@
         <v>0</v>
       </c>
       <c r="AP108">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ108">
         <v>0.7</v>
@@ -26185,7 +26185,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ119">
         <v>1.15</v>
@@ -26600,7 +26600,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ121">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR121">
         <v>1.26</v>
@@ -27627,10 +27627,10 @@
         <v>2.2</v>
       </c>
       <c r="AP126">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR126">
         <v>1.23</v>
@@ -29481,10 +29481,10 @@
         <v>0.17</v>
       </c>
       <c r="AP135">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ135">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR135">
         <v>1.06</v>
@@ -29896,7 +29896,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ137">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR137">
         <v>1.23</v>
@@ -33395,7 +33395,7 @@
         <v>0</v>
       </c>
       <c r="AP154">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ154">
         <v>0.7</v>
@@ -33810,7 +33810,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ156">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR156">
         <v>1.39</v>
@@ -34634,7 +34634,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ160">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR160">
         <v>1.48</v>
@@ -35249,7 +35249,7 @@
         <v>0.43</v>
       </c>
       <c r="AP163">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ163">
         <v>0.5</v>
@@ -37309,7 +37309,7 @@
         <v>1.14</v>
       </c>
       <c r="AP173">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ173">
         <v>0.8</v>
@@ -39166,7 +39166,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ182">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR182">
         <v>1.6</v>
@@ -39578,7 +39578,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ184">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR184">
         <v>1.78</v>
@@ -39987,7 +39987,7 @@
         <v>0.88</v>
       </c>
       <c r="AP186">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ186">
         <v>1.21</v>
@@ -40811,7 +40811,7 @@
         <v>0.88</v>
       </c>
       <c r="AP190">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ190">
         <v>0.85</v>
@@ -43286,7 +43286,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ202">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR202">
         <v>1.74</v>
@@ -43492,7 +43492,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ203">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR203">
         <v>1.59</v>
@@ -44931,7 +44931,7 @@
         <v>0.89</v>
       </c>
       <c r="AP210">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ210">
         <v>0.85</v>
@@ -45343,7 +45343,7 @@
         <v>1</v>
       </c>
       <c r="AP212">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ212">
         <v>1.1</v>
@@ -48230,7 +48230,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ226">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR226">
         <v>1.38</v>
@@ -50287,7 +50287,7 @@
         <v>0.9</v>
       </c>
       <c r="AP236">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ236">
         <v>1.15</v>
@@ -50496,7 +50496,7 @@
         <v>2</v>
       </c>
       <c r="AQ237">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR237">
         <v>1.29</v>
@@ -51729,7 +51729,7 @@
         <v>1.3</v>
       </c>
       <c r="AP243">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ243">
         <v>1.05</v>
@@ -52759,7 +52759,7 @@
         <v>1.18</v>
       </c>
       <c r="AP248">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ248">
         <v>1</v>
@@ -53380,7 +53380,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ251">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR251">
         <v>1.37</v>
@@ -54410,7 +54410,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ256">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR256">
         <v>1.42</v>
@@ -55231,7 +55231,7 @@
         <v>1.18</v>
       </c>
       <c r="AP260">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ260">
         <v>1.2</v>
@@ -57497,7 +57497,7 @@
         <v>0.5</v>
       </c>
       <c r="AP271">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ271">
         <v>0.6</v>
@@ -58324,7 +58324,7 @@
         <v>2</v>
       </c>
       <c r="AQ275">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR275">
         <v>1.47</v>
@@ -58939,7 +58939,7 @@
         <v>1.17</v>
       </c>
       <c r="AP278">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ278">
         <v>1.2</v>
@@ -62238,7 +62238,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ294">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR294">
         <v>1.41</v>
@@ -62650,7 +62650,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ296">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR296">
         <v>1.26</v>
@@ -63059,7 +63059,7 @@
         <v>1.31</v>
       </c>
       <c r="AP298">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ298">
         <v>1.05</v>
@@ -64089,7 +64089,7 @@
         <v>1.38</v>
       </c>
       <c r="AP303">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ303">
         <v>1</v>
@@ -65531,7 +65531,7 @@
         <v>0.5</v>
       </c>
       <c r="AP310">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ310">
         <v>0.5</v>
@@ -66152,7 +66152,7 @@
         <v>2</v>
       </c>
       <c r="AQ313">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR313">
         <v>1.47</v>
@@ -66767,7 +66767,7 @@
         <v>0.86</v>
       </c>
       <c r="AP316">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ316">
         <v>0.8</v>
@@ -66976,7 +66976,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ317">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR317">
         <v>1.47</v>
@@ -70063,7 +70063,7 @@
         <v>1.2</v>
       </c>
       <c r="AP332">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ332">
         <v>1.21</v>
@@ -70272,7 +70272,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ333">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR333">
         <v>1.37</v>
@@ -70681,7 +70681,7 @@
         <v>1.27</v>
       </c>
       <c r="AP335">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ335">
         <v>1.2</v>
@@ -72126,7 +72126,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ342">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR342">
         <v>1.45</v>
@@ -74804,7 +74804,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ355">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR355">
         <v>1.65</v>
@@ -76040,7 +76040,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ361">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR361">
         <v>1.27</v>
@@ -77273,7 +77273,7 @@
         <v>0.47</v>
       </c>
       <c r="AP367">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ367">
         <v>0.6</v>
@@ -78303,7 +78303,7 @@
         <v>1.31</v>
       </c>
       <c r="AP372">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ372">
         <v>1.25</v>
@@ -79748,7 +79748,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ379">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR379">
         <v>1.47</v>
@@ -81393,7 +81393,7 @@
         <v>1.65</v>
       </c>
       <c r="AP387">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ387">
         <v>1.6</v>
@@ -82014,7 +82014,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ390">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR390">
         <v>1.51</v>
@@ -83041,7 +83041,7 @@
         <v>0.47</v>
       </c>
       <c r="AP395">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ395">
         <v>0.74</v>
@@ -84074,7 +84074,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ400">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR400">
         <v>1.44</v>
@@ -85928,7 +85928,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ409">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR409">
         <v>1.52</v>
@@ -86958,7 +86958,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ414">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AR414">
         <v>1.64</v>
@@ -87573,7 +87573,7 @@
         <v>1.61</v>
       </c>
       <c r="AP417">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ417">
         <v>1.6</v>
@@ -87985,7 +87985,7 @@
         <v>1.06</v>
       </c>
       <c r="AP419">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AQ419">
         <v>1</v>
@@ -90681,28 +90681,28 @@
         <v>5</v>
       </c>
       <c r="AV432">
+        <v>3</v>
+      </c>
+      <c r="AW432">
+        <v>11</v>
+      </c>
+      <c r="AX432">
         <v>4</v>
       </c>
-      <c r="AW432">
+      <c r="AY432">
         <v>16</v>
       </c>
-      <c r="AX432">
-        <v>10</v>
-      </c>
-      <c r="AY432">
-        <v>21</v>
-      </c>
       <c r="AZ432">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BA432">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB432">
         <v>1</v>
       </c>
       <c r="BC432">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BD432">
         <v>1.64</v>
@@ -90884,22 +90884,22 @@
         <v>2.46</v>
       </c>
       <c r="AU433">
+        <v>7</v>
+      </c>
+      <c r="AV433">
         <v>5</v>
       </c>
-      <c r="AV433">
-        <v>3</v>
-      </c>
       <c r="AW433">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX433">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY433">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ433">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA433">
         <v>4</v>
@@ -91093,19 +91093,19 @@
         <v>4</v>
       </c>
       <c r="AV434">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW434">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AX434">
         <v>2</v>
       </c>
       <c r="AY434">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AZ434">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA434">
         <v>6</v>
@@ -91154,6 +91154,418 @@
       </c>
       <c r="BP434">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="435" spans="1:68">
+      <c r="A435" s="1">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>6720138</v>
+      </c>
+      <c r="C435" t="s">
+        <v>68</v>
+      </c>
+      <c r="D435" t="s">
+        <v>69</v>
+      </c>
+      <c r="E435" s="2">
+        <v>45430.66666666666</v>
+      </c>
+      <c r="F435">
+        <v>40</v>
+      </c>
+      <c r="G435" t="s">
+        <v>91</v>
+      </c>
+      <c r="H435" t="s">
+        <v>84</v>
+      </c>
+      <c r="I435">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+      <c r="L435">
+        <v>0</v>
+      </c>
+      <c r="M435">
+        <v>0</v>
+      </c>
+      <c r="N435">
+        <v>0</v>
+      </c>
+      <c r="O435" t="s">
+        <v>96</v>
+      </c>
+      <c r="P435" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q435">
+        <v>3.29</v>
+      </c>
+      <c r="R435">
+        <v>2.12</v>
+      </c>
+      <c r="S435">
+        <v>3.38</v>
+      </c>
+      <c r="T435">
+        <v>1.42</v>
+      </c>
+      <c r="U435">
+        <v>2.77</v>
+      </c>
+      <c r="V435">
+        <v>3.13</v>
+      </c>
+      <c r="W435">
+        <v>1.34</v>
+      </c>
+      <c r="X435">
+        <v>7</v>
+      </c>
+      <c r="Y435">
+        <v>1.07</v>
+      </c>
+      <c r="Z435">
+        <v>2.3</v>
+      </c>
+      <c r="AA435">
+        <v>3.2</v>
+      </c>
+      <c r="AB435">
+        <v>3.3</v>
+      </c>
+      <c r="AC435">
+        <v>1.05</v>
+      </c>
+      <c r="AD435">
+        <v>8</v>
+      </c>
+      <c r="AE435">
+        <v>1.33</v>
+      </c>
+      <c r="AF435">
+        <v>3</v>
+      </c>
+      <c r="AG435">
+        <v>2.05</v>
+      </c>
+      <c r="AH435">
+        <v>1.7</v>
+      </c>
+      <c r="AI435">
+        <v>1.8</v>
+      </c>
+      <c r="AJ435">
+        <v>1.91</v>
+      </c>
+      <c r="AK435">
+        <v>1.44</v>
+      </c>
+      <c r="AL435">
+        <v>1.35</v>
+      </c>
+      <c r="AM435">
+        <v>1.5</v>
+      </c>
+      <c r="AN435">
+        <v>1.32</v>
+      </c>
+      <c r="AO435">
+        <v>1.16</v>
+      </c>
+      <c r="AP435">
+        <v>1.3</v>
+      </c>
+      <c r="AQ435">
+        <v>1.15</v>
+      </c>
+      <c r="AR435">
+        <v>1.3</v>
+      </c>
+      <c r="AS435">
+        <v>1.23</v>
+      </c>
+      <c r="AT435">
+        <v>2.53</v>
+      </c>
+      <c r="AU435">
+        <v>4</v>
+      </c>
+      <c r="AV435">
+        <v>5</v>
+      </c>
+      <c r="AW435">
+        <v>9</v>
+      </c>
+      <c r="AX435">
+        <v>3</v>
+      </c>
+      <c r="AY435">
+        <v>13</v>
+      </c>
+      <c r="AZ435">
+        <v>8</v>
+      </c>
+      <c r="BA435">
+        <v>5</v>
+      </c>
+      <c r="BB435">
+        <v>1</v>
+      </c>
+      <c r="BC435">
+        <v>6</v>
+      </c>
+      <c r="BD435">
+        <v>1.91</v>
+      </c>
+      <c r="BE435">
+        <v>8</v>
+      </c>
+      <c r="BF435">
+        <v>2.2</v>
+      </c>
+      <c r="BG435">
+        <v>1.23</v>
+      </c>
+      <c r="BH435">
+        <v>3.56</v>
+      </c>
+      <c r="BI435">
+        <v>1.52</v>
+      </c>
+      <c r="BJ435">
+        <v>2.52</v>
+      </c>
+      <c r="BK435">
+        <v>1.95</v>
+      </c>
+      <c r="BL435">
+        <v>1.85</v>
+      </c>
+      <c r="BM435">
+        <v>2.29</v>
+      </c>
+      <c r="BN435">
+        <v>1.61</v>
+      </c>
+      <c r="BO435">
+        <v>3.08</v>
+      </c>
+      <c r="BP435">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:68">
+      <c r="A436" s="1">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>6720143</v>
+      </c>
+      <c r="C436" t="s">
+        <v>68</v>
+      </c>
+      <c r="D436" t="s">
+        <v>69</v>
+      </c>
+      <c r="E436" s="2">
+        <v>45430.66666666666</v>
+      </c>
+      <c r="F436">
+        <v>40</v>
+      </c>
+      <c r="G436" t="s">
+        <v>80</v>
+      </c>
+      <c r="H436" t="s">
+        <v>70</v>
+      </c>
+      <c r="I436">
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>0</v>
+      </c>
+      <c r="L436">
+        <v>0</v>
+      </c>
+      <c r="M436">
+        <v>1</v>
+      </c>
+      <c r="N436">
+        <v>1</v>
+      </c>
+      <c r="O436" t="s">
+        <v>96</v>
+      </c>
+      <c r="P436" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q436">
+        <v>2.95</v>
+      </c>
+      <c r="R436">
+        <v>1.9</v>
+      </c>
+      <c r="S436">
+        <v>3.95</v>
+      </c>
+      <c r="T436">
+        <v>1.55</v>
+      </c>
+      <c r="U436">
+        <v>2.3</v>
+      </c>
+      <c r="V436">
+        <v>3.5</v>
+      </c>
+      <c r="W436">
+        <v>1.25</v>
+      </c>
+      <c r="X436">
+        <v>11</v>
+      </c>
+      <c r="Y436">
+        <v>1.05</v>
+      </c>
+      <c r="Z436">
+        <v>2.2</v>
+      </c>
+      <c r="AA436">
+        <v>3.1</v>
+      </c>
+      <c r="AB436">
+        <v>3.65</v>
+      </c>
+      <c r="AC436">
+        <v>1.1</v>
+      </c>
+      <c r="AD436">
+        <v>6.5</v>
+      </c>
+      <c r="AE436">
+        <v>1.53</v>
+      </c>
+      <c r="AF436">
+        <v>2.37</v>
+      </c>
+      <c r="AG436">
+        <v>2.32</v>
+      </c>
+      <c r="AH436">
+        <v>1.54</v>
+      </c>
+      <c r="AI436">
+        <v>2</v>
+      </c>
+      <c r="AJ436">
+        <v>1.7</v>
+      </c>
+      <c r="AK436">
+        <v>1.3</v>
+      </c>
+      <c r="AL436">
+        <v>1.3</v>
+      </c>
+      <c r="AM436">
+        <v>1.62</v>
+      </c>
+      <c r="AN436">
+        <v>1.84</v>
+      </c>
+      <c r="AO436">
+        <v>0.79</v>
+      </c>
+      <c r="AP436">
+        <v>1.75</v>
+      </c>
+      <c r="AQ436">
+        <v>0.9</v>
+      </c>
+      <c r="AR436">
+        <v>1.31</v>
+      </c>
+      <c r="AS436">
+        <v>1.16</v>
+      </c>
+      <c r="AT436">
+        <v>2.47</v>
+      </c>
+      <c r="AU436">
+        <v>5</v>
+      </c>
+      <c r="AV436">
+        <v>3</v>
+      </c>
+      <c r="AW436">
+        <v>11</v>
+      </c>
+      <c r="AX436">
+        <v>9</v>
+      </c>
+      <c r="AY436">
+        <v>16</v>
+      </c>
+      <c r="AZ436">
+        <v>12</v>
+      </c>
+      <c r="BA436">
+        <v>5</v>
+      </c>
+      <c r="BB436">
+        <v>5</v>
+      </c>
+      <c r="BC436">
+        <v>10</v>
+      </c>
+      <c r="BD436">
+        <v>1.85</v>
+      </c>
+      <c r="BE436">
+        <v>7.5</v>
+      </c>
+      <c r="BF436">
+        <v>2.29</v>
+      </c>
+      <c r="BG436">
+        <v>1.33</v>
+      </c>
+      <c r="BH436">
+        <v>2.93</v>
+      </c>
+      <c r="BI436">
+        <v>1.85</v>
+      </c>
+      <c r="BJ436">
+        <v>1.95</v>
+      </c>
+      <c r="BK436">
+        <v>2.09</v>
+      </c>
+      <c r="BL436">
+        <v>1.73</v>
+      </c>
+      <c r="BM436">
+        <v>2.76</v>
+      </c>
+      <c r="BN436">
+        <v>1.39</v>
+      </c>
+      <c r="BO436">
+        <v>3.74</v>
+      </c>
+      <c r="BP436">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="457">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1746,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP436"/>
+  <dimension ref="A1:BP437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4352,7 +4352,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ15">
         <v>1.15</v>
@@ -9914,7 +9914,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ40">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -10323,7 +10323,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ42">
         <v>1.6</v>
@@ -14034,7 +14034,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ60">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR60">
         <v>1.65</v>
@@ -14649,7 +14649,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -18151,7 +18151,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ80">
         <v>0.85</v>
@@ -19184,7 +19184,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ85">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR85">
         <v>1.02</v>
@@ -23716,7 +23716,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ107">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -26391,7 +26391,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ120">
         <v>1.2</v>
@@ -29072,7 +29072,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ133">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR133">
         <v>1.45</v>
@@ -29275,7 +29275,7 @@
         <v>1.2</v>
       </c>
       <c r="AP134">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ134">
         <v>1.26</v>
@@ -30308,7 +30308,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ139">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR139">
         <v>1.31</v>
@@ -35661,7 +35661,7 @@
         <v>0.67</v>
       </c>
       <c r="AP165">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ165">
         <v>0.74</v>
@@ -35870,7 +35870,7 @@
         <v>2</v>
       </c>
       <c r="AQ166">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR166">
         <v>1.17</v>
@@ -39163,7 +39163,7 @@
         <v>1.5</v>
       </c>
       <c r="AP182">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ182">
         <v>1.15</v>
@@ -39990,7 +39990,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ186">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR186">
         <v>1.33</v>
@@ -43904,7 +43904,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ205">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR205">
         <v>1.73</v>
@@ -44313,7 +44313,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP207">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ207">
         <v>0.6</v>
@@ -48433,7 +48433,7 @@
         <v>1.2</v>
       </c>
       <c r="AP227">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ227">
         <v>1</v>
@@ -48848,7 +48848,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ229">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR229">
         <v>1.2</v>
@@ -49669,7 +49669,7 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ233">
         <v>1.1</v>
@@ -53174,7 +53174,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ250">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR250">
         <v>1.42</v>
@@ -54201,7 +54201,7 @@
         <v>1.09</v>
       </c>
       <c r="AP255">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ255">
         <v>0.8</v>
@@ -56676,7 +56676,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ267">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR267">
         <v>1.68</v>
@@ -60381,7 +60381,7 @@
         <v>1.25</v>
       </c>
       <c r="AP285">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ285">
         <v>1.05</v>
@@ -61002,7 +61002,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ288">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR288">
         <v>1.4</v>
@@ -63883,7 +63883,7 @@
         <v>1</v>
       </c>
       <c r="AP302">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ302">
         <v>1.2</v>
@@ -66358,7 +66358,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ314">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR314">
         <v>1.34</v>
@@ -69239,7 +69239,7 @@
         <v>0.57</v>
       </c>
       <c r="AP328">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ328">
         <v>0.7</v>
@@ -70066,7 +70066,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ332">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR332">
         <v>1.3</v>
@@ -70475,7 +70475,7 @@
         <v>0.47</v>
       </c>
       <c r="AP334">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ334">
         <v>0.5</v>
@@ -75007,7 +75007,7 @@
         <v>1.06</v>
       </c>
       <c r="AP356">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ356">
         <v>1.05</v>
@@ -75422,7 +75422,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ358">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR358">
         <v>1.4</v>
@@ -79336,7 +79336,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ377">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR377">
         <v>1.48</v>
@@ -82835,7 +82835,7 @@
         <v>1</v>
       </c>
       <c r="AP394">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ394">
         <v>0.85</v>
@@ -85310,7 +85310,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ406">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR406">
         <v>1.54</v>
@@ -86955,7 +86955,7 @@
         <v>0.83</v>
       </c>
       <c r="AP414">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ414">
         <v>0.9</v>
@@ -90884,22 +90884,22 @@
         <v>2.46</v>
       </c>
       <c r="AU433">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV433">
+        <v>3</v>
+      </c>
+      <c r="AW433">
         <v>5</v>
       </c>
-      <c r="AW433">
-        <v>8</v>
-      </c>
       <c r="AX433">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY433">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ433">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BA433">
         <v>4</v>
@@ -91093,19 +91093,19 @@
         <v>4</v>
       </c>
       <c r="AV434">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW434">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AX434">
         <v>2</v>
       </c>
       <c r="AY434">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AZ434">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA434">
         <v>6</v>
@@ -91566,6 +91566,212 @@
       </c>
       <c r="BP436">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="437" spans="1:68">
+      <c r="A437" s="1">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>6720144</v>
+      </c>
+      <c r="C437" t="s">
+        <v>68</v>
+      </c>
+      <c r="D437" t="s">
+        <v>69</v>
+      </c>
+      <c r="E437" s="2">
+        <v>45431.375</v>
+      </c>
+      <c r="F437">
+        <v>40</v>
+      </c>
+      <c r="G437" t="s">
+        <v>82</v>
+      </c>
+      <c r="H437" t="s">
+        <v>77</v>
+      </c>
+      <c r="I437">
+        <v>1</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>1</v>
+      </c>
+      <c r="L437">
+        <v>1</v>
+      </c>
+      <c r="M437">
+        <v>0</v>
+      </c>
+      <c r="N437">
+        <v>1</v>
+      </c>
+      <c r="O437" t="s">
+        <v>129</v>
+      </c>
+      <c r="P437" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q437">
+        <v>1.85</v>
+      </c>
+      <c r="R437">
+        <v>2.4</v>
+      </c>
+      <c r="S437">
+        <v>7</v>
+      </c>
+      <c r="T437">
+        <v>1.33</v>
+      </c>
+      <c r="U437">
+        <v>3</v>
+      </c>
+      <c r="V437">
+        <v>2.6</v>
+      </c>
+      <c r="W437">
+        <v>1.44</v>
+      </c>
+      <c r="X437">
+        <v>6</v>
+      </c>
+      <c r="Y437">
+        <v>1.09</v>
+      </c>
+      <c r="Z437">
+        <v>1.36</v>
+      </c>
+      <c r="AA437">
+        <v>4.5</v>
+      </c>
+      <c r="AB437">
+        <v>7.5</v>
+      </c>
+      <c r="AC437">
+        <v>1.02</v>
+      </c>
+      <c r="AD437">
+        <v>10</v>
+      </c>
+      <c r="AE437">
+        <v>1.25</v>
+      </c>
+      <c r="AF437">
+        <v>3.6</v>
+      </c>
+      <c r="AG437">
+        <v>1.76</v>
+      </c>
+      <c r="AH437">
+        <v>1.95</v>
+      </c>
+      <c r="AI437">
+        <v>2.1</v>
+      </c>
+      <c r="AJ437">
+        <v>1.67</v>
+      </c>
+      <c r="AK437">
+        <v>1.07</v>
+      </c>
+      <c r="AL437">
+        <v>1.17</v>
+      </c>
+      <c r="AM437">
+        <v>3.2</v>
+      </c>
+      <c r="AN437">
+        <v>2.11</v>
+      </c>
+      <c r="AO437">
+        <v>1.21</v>
+      </c>
+      <c r="AP437">
+        <v>2.15</v>
+      </c>
+      <c r="AQ437">
+        <v>1.15</v>
+      </c>
+      <c r="AR437">
+        <v>1.68</v>
+      </c>
+      <c r="AS437">
+        <v>0.99</v>
+      </c>
+      <c r="AT437">
+        <v>2.67</v>
+      </c>
+      <c r="AU437">
+        <v>5</v>
+      </c>
+      <c r="AV437">
+        <v>3</v>
+      </c>
+      <c r="AW437">
+        <v>2</v>
+      </c>
+      <c r="AX437">
+        <v>3</v>
+      </c>
+      <c r="AY437">
+        <v>7</v>
+      </c>
+      <c r="AZ437">
+        <v>6</v>
+      </c>
+      <c r="BA437">
+        <v>3</v>
+      </c>
+      <c r="BB437">
+        <v>0</v>
+      </c>
+      <c r="BC437">
+        <v>3</v>
+      </c>
+      <c r="BD437">
+        <v>1.23</v>
+      </c>
+      <c r="BE437">
+        <v>10</v>
+      </c>
+      <c r="BF437">
+        <v>5.15</v>
+      </c>
+      <c r="BG437">
+        <v>1.24</v>
+      </c>
+      <c r="BH437">
+        <v>3.48</v>
+      </c>
+      <c r="BI437">
+        <v>1.52</v>
+      </c>
+      <c r="BJ437">
+        <v>2.51</v>
+      </c>
+      <c r="BK437">
+        <v>1.82</v>
+      </c>
+      <c r="BL437">
+        <v>1.98</v>
+      </c>
+      <c r="BM437">
+        <v>2.34</v>
+      </c>
+      <c r="BN437">
+        <v>1.59</v>
+      </c>
+      <c r="BO437">
+        <v>3.08</v>
+      </c>
+      <c r="BP437">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="459">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1036,6 +1036,9 @@
     <t>['17', '77']</t>
   </si>
   <si>
+    <t>['4', '90+3']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
@@ -1385,6 +1388,9 @@
   </si>
   <si>
     <t>['37', '50', '90+6']</t>
+  </si>
+  <si>
+    <t>['48', '57']</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP437"/>
+  <dimension ref="A1:BP439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2701,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -3241,7 +3247,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -4271,7 +4277,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q13">
         <v>2.55</v>
@@ -4555,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ14">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>1.76</v>
@@ -5095,7 +5101,7 @@
         <v>105</v>
       </c>
       <c r="P17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q17">
         <v>2.28</v>
@@ -5301,7 +5307,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5379,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18">
         <v>1.6</v>
@@ -5919,7 +5925,7 @@
         <v>108</v>
       </c>
       <c r="P21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q21">
         <v>2.3</v>
@@ -6331,7 +6337,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6949,7 +6955,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q26">
         <v>2.8</v>
@@ -7155,7 +7161,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q27">
         <v>2.32</v>
@@ -8881,7 +8887,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -9090,7 +9096,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ36">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>2.03</v>
@@ -9627,7 +9633,7 @@
         <v>120</v>
       </c>
       <c r="P39" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q39">
         <v>2.45</v>
@@ -9833,7 +9839,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q40">
         <v>2.9</v>
@@ -10451,7 +10457,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q43">
         <v>2.2</v>
@@ -10735,7 +10741,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ44">
         <v>1.05</v>
@@ -11069,7 +11075,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -12305,7 +12311,7 @@
         <v>130</v>
       </c>
       <c r="P52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q52">
         <v>2.71</v>
@@ -12511,7 +12517,7 @@
         <v>131</v>
       </c>
       <c r="P53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q53">
         <v>3.6</v>
@@ -12717,7 +12723,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q54">
         <v>3.6</v>
@@ -12923,7 +12929,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q55">
         <v>2.82</v>
@@ -13129,7 +13135,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13335,7 +13341,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q57">
         <v>2.63</v>
@@ -13413,7 +13419,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ57">
         <v>1.1</v>
@@ -13541,7 +13547,7 @@
         <v>134</v>
       </c>
       <c r="P58" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13747,7 +13753,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13825,7 +13831,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59">
         <v>1.15</v>
@@ -14777,7 +14783,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -15601,7 +15607,7 @@
         <v>106</v>
       </c>
       <c r="P68" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -16425,7 +16431,7 @@
         <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16503,7 +16509,7 @@
         <v>0.67</v>
       </c>
       <c r="AP72">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72">
         <v>1.2</v>
@@ -17124,7 +17130,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
         <v>1.05</v>
@@ -17249,7 +17255,7 @@
         <v>125</v>
       </c>
       <c r="P76" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -18485,7 +18491,7 @@
         <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18897,7 +18903,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q84">
         <v>3.5</v>
@@ -19515,7 +19521,7 @@
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q87">
         <v>2.4</v>
@@ -19593,7 +19599,7 @@
         <v>0.33</v>
       </c>
       <c r="AP87">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ87">
         <v>0.8</v>
@@ -19721,7 +19727,7 @@
         <v>96</v>
       </c>
       <c r="P88" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -20133,7 +20139,7 @@
         <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q90">
         <v>3.82</v>
@@ -20211,7 +20217,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90">
         <v>0.74</v>
@@ -20832,7 +20838,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ93">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
         <v>1.19</v>
@@ -21575,7 +21581,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q97">
         <v>2.82</v>
@@ -21781,7 +21787,7 @@
         <v>162</v>
       </c>
       <c r="P98" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q98">
         <v>4.19</v>
@@ -22193,7 +22199,7 @@
         <v>96</v>
       </c>
       <c r="P100" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q100">
         <v>4.5</v>
@@ -22399,7 +22405,7 @@
         <v>96</v>
       </c>
       <c r="P101" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q101">
         <v>2.65</v>
@@ -22605,7 +22611,7 @@
         <v>96</v>
       </c>
       <c r="P102" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22811,7 +22817,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q103">
         <v>2.8</v>
@@ -23223,7 +23229,7 @@
         <v>121</v>
       </c>
       <c r="P105" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q105">
         <v>3.7</v>
@@ -23429,7 +23435,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q106">
         <v>2.4</v>
@@ -23635,7 +23641,7 @@
         <v>98</v>
       </c>
       <c r="P107" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -24047,7 +24053,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q109">
         <v>2.4</v>
@@ -24125,7 +24131,7 @@
         <v>1.25</v>
       </c>
       <c r="AP109">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ109">
         <v>0.85</v>
@@ -25077,7 +25083,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q114">
         <v>2.9</v>
@@ -25283,7 +25289,7 @@
         <v>171</v>
       </c>
       <c r="P115" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q115">
         <v>2.9</v>
@@ -25570,7 +25576,7 @@
         <v>2</v>
       </c>
       <c r="AQ116">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR116">
         <v>1.66</v>
@@ -25695,7 +25701,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q117">
         <v>2.7</v>
@@ -26313,7 +26319,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q120">
         <v>2.15</v>
@@ -27343,7 +27349,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q125">
         <v>2.6</v>
@@ -27755,7 +27761,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27833,7 +27839,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ127">
         <v>1.25</v>
@@ -28373,7 +28379,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q130">
         <v>2.75</v>
@@ -28991,7 +28997,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29069,7 +29075,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ133">
         <v>1.15</v>
@@ -29278,7 +29284,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ134">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR134">
         <v>1.43</v>
@@ -31051,7 +31057,7 @@
         <v>191</v>
       </c>
       <c r="P143" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -31257,7 +31263,7 @@
         <v>98</v>
       </c>
       <c r="P144" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q144">
         <v>3.25</v>
@@ -31463,7 +31469,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q145">
         <v>2.6</v>
@@ -31669,7 +31675,7 @@
         <v>96</v>
       </c>
       <c r="P146" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q146">
         <v>3.35</v>
@@ -31875,7 +31881,7 @@
         <v>193</v>
       </c>
       <c r="P147" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q147">
         <v>2.3</v>
@@ -32287,7 +32293,7 @@
         <v>195</v>
       </c>
       <c r="P149" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q149">
         <v>2.8</v>
@@ -32905,7 +32911,7 @@
         <v>197</v>
       </c>
       <c r="P152" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -32983,7 +32989,7 @@
         <v>0.83</v>
       </c>
       <c r="AP152">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ152">
         <v>1.1</v>
@@ -33111,7 +33117,7 @@
         <v>96</v>
       </c>
       <c r="P153" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q153">
         <v>3.25</v>
@@ -33601,7 +33607,7 @@
         <v>0.86</v>
       </c>
       <c r="AP155">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ155">
         <v>1.11</v>
@@ -33935,7 +33941,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q157">
         <v>3.14</v>
@@ -34016,7 +34022,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ157">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -34347,7 +34353,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34553,7 +34559,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q160">
         <v>1.95</v>
@@ -34759,7 +34765,7 @@
         <v>204</v>
       </c>
       <c r="P161" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -34965,7 +34971,7 @@
         <v>205</v>
       </c>
       <c r="P162" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q162">
         <v>2.45</v>
@@ -35583,7 +35589,7 @@
         <v>196</v>
       </c>
       <c r="P165" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -36279,7 +36285,7 @@
         <v>1.38</v>
       </c>
       <c r="AP168">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ168">
         <v>1</v>
@@ -36613,7 +36619,7 @@
         <v>96</v>
       </c>
       <c r="P170" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q170">
         <v>2.8</v>
@@ -36691,7 +36697,7 @@
         <v>1.29</v>
       </c>
       <c r="AP170">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ170">
         <v>1.2</v>
@@ -37025,7 +37031,7 @@
         <v>175</v>
       </c>
       <c r="P172" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37231,7 +37237,7 @@
         <v>211</v>
       </c>
       <c r="P173" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q173">
         <v>2.88</v>
@@ -37437,7 +37443,7 @@
         <v>212</v>
       </c>
       <c r="P174" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q174">
         <v>3.65</v>
@@ -38055,7 +38061,7 @@
         <v>214</v>
       </c>
       <c r="P177" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q177">
         <v>2.75</v>
@@ -38342,7 +38348,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ178">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR178">
         <v>1.19</v>
@@ -39291,7 +39297,7 @@
         <v>217</v>
       </c>
       <c r="P183" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q183">
         <v>2.75</v>
@@ -40733,7 +40739,7 @@
         <v>96</v>
       </c>
       <c r="P190" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q190">
         <v>2.85</v>
@@ -41223,7 +41229,7 @@
         <v>2</v>
       </c>
       <c r="AP192">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ192">
         <v>1.6</v>
@@ -41432,7 +41438,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ193">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR193">
         <v>1.62</v>
@@ -41763,7 +41769,7 @@
         <v>96</v>
       </c>
       <c r="P195" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q195">
         <v>3.75</v>
@@ -41841,7 +41847,7 @@
         <v>0.75</v>
       </c>
       <c r="AP195">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ195">
         <v>1.15</v>
@@ -41969,7 +41975,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q196">
         <v>3.25</v>
@@ -42381,7 +42387,7 @@
         <v>96</v>
       </c>
       <c r="P198" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q198">
         <v>3.4</v>
@@ -43205,7 +43211,7 @@
         <v>229</v>
       </c>
       <c r="P202" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -43823,7 +43829,7 @@
         <v>100</v>
       </c>
       <c r="P205" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q205">
         <v>2.35</v>
@@ -44029,7 +44035,7 @@
         <v>230</v>
       </c>
       <c r="P206" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q206">
         <v>3.25</v>
@@ -44235,7 +44241,7 @@
         <v>231</v>
       </c>
       <c r="P207" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q207">
         <v>2.38</v>
@@ -44441,7 +44447,7 @@
         <v>97</v>
       </c>
       <c r="P208" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -45059,7 +45065,7 @@
         <v>232</v>
       </c>
       <c r="P211" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45265,7 +45271,7 @@
         <v>233</v>
       </c>
       <c r="P212" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -45677,7 +45683,7 @@
         <v>96</v>
       </c>
       <c r="P214" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q214">
         <v>3.1</v>
@@ -45883,7 +45889,7 @@
         <v>190</v>
       </c>
       <c r="P215" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q215">
         <v>2.85</v>
@@ -46373,7 +46379,7 @@
         <v>1.3</v>
       </c>
       <c r="AP217">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ217">
         <v>1.25</v>
@@ -47200,7 +47206,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ221">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR221">
         <v>1.72</v>
@@ -47737,7 +47743,7 @@
         <v>240</v>
       </c>
       <c r="P224" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q224">
         <v>2.2</v>
@@ -48149,7 +48155,7 @@
         <v>241</v>
       </c>
       <c r="P226" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q226">
         <v>3</v>
@@ -48227,7 +48233,7 @@
         <v>1.3</v>
       </c>
       <c r="AP226">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ226">
         <v>1.15</v>
@@ -49179,7 +49185,7 @@
         <v>125</v>
       </c>
       <c r="P231" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q231">
         <v>2.9</v>
@@ -49875,7 +49881,7 @@
         <v>1.1</v>
       </c>
       <c r="AP234">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ234">
         <v>0.8</v>
@@ -50702,7 +50708,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ238">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR238">
         <v>1.34</v>
@@ -51033,7 +51039,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q240">
         <v>3.2</v>
@@ -51239,7 +51245,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q241">
         <v>2.88</v>
@@ -52141,7 +52147,7 @@
         <v>0.55</v>
       </c>
       <c r="AP245">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ245">
         <v>0.6</v>
@@ -52269,7 +52275,7 @@
         <v>96</v>
       </c>
       <c r="P246" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q246">
         <v>3.35</v>
@@ -52475,7 +52481,7 @@
         <v>253</v>
       </c>
       <c r="P247" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q247">
         <v>2.23</v>
@@ -52681,7 +52687,7 @@
         <v>254</v>
       </c>
       <c r="P248" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q248">
         <v>3.18</v>
@@ -52887,7 +52893,7 @@
         <v>202</v>
       </c>
       <c r="P249" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q249">
         <v>2.95</v>
@@ -53093,7 +53099,7 @@
         <v>96</v>
       </c>
       <c r="P250" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q250">
         <v>2.5</v>
@@ -53505,7 +53511,7 @@
         <v>255</v>
       </c>
       <c r="P252" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53792,7 +53798,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ253">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR253">
         <v>1.65</v>
@@ -54613,7 +54619,7 @@
         <v>1.27</v>
       </c>
       <c r="AP257">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ257">
         <v>1.05</v>
@@ -55153,7 +55159,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q260">
         <v>3.6</v>
@@ -55359,7 +55365,7 @@
         <v>260</v>
       </c>
       <c r="P261" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q261">
         <v>3.1</v>
@@ -55771,7 +55777,7 @@
         <v>261</v>
       </c>
       <c r="P263" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q263">
         <v>2.7</v>
@@ -55977,7 +55983,7 @@
         <v>262</v>
       </c>
       <c r="P264" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q264">
         <v>2.63</v>
@@ -57294,7 +57300,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ270">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR270">
         <v>1.38</v>
@@ -57625,7 +57631,7 @@
         <v>116</v>
       </c>
       <c r="P272" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q272">
         <v>3.75</v>
@@ -58527,7 +58533,7 @@
         <v>1.33</v>
       </c>
       <c r="AP276">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ276">
         <v>1</v>
@@ -59969,7 +59975,7 @@
         <v>0.54</v>
       </c>
       <c r="AP283">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ283">
         <v>0.6</v>
@@ -60921,7 +60927,7 @@
         <v>273</v>
       </c>
       <c r="P288" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q288">
         <v>2.63</v>
@@ -60999,7 +61005,7 @@
         <v>1.15</v>
       </c>
       <c r="AP288">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ288">
         <v>1.15</v>
@@ -61539,7 +61545,7 @@
         <v>190</v>
       </c>
       <c r="P291" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q291">
         <v>3.2</v>
@@ -61620,7 +61626,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ291">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR291">
         <v>1.48</v>
@@ -63805,7 +63811,7 @@
         <v>281</v>
       </c>
       <c r="P302" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q302">
         <v>2.75</v>
@@ -64423,7 +64429,7 @@
         <v>206</v>
       </c>
       <c r="P305" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q305">
         <v>4</v>
@@ -64501,7 +64507,7 @@
         <v>0.92</v>
       </c>
       <c r="AP305">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ305">
         <v>0.85</v>
@@ -65041,7 +65047,7 @@
         <v>96</v>
       </c>
       <c r="P308" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q308">
         <v>3.1</v>
@@ -65865,7 +65871,7 @@
         <v>286</v>
       </c>
       <c r="P312" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q312">
         <v>2.8</v>
@@ -66071,7 +66077,7 @@
         <v>287</v>
       </c>
       <c r="P313" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q313">
         <v>2.62</v>
@@ -66564,7 +66570,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ315">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR315">
         <v>1.42</v>
@@ -66689,7 +66695,7 @@
         <v>290</v>
       </c>
       <c r="P316" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q316">
         <v>2.7</v>
@@ -66973,7 +66979,7 @@
         <v>0.31</v>
       </c>
       <c r="AP317">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ317">
         <v>0.9</v>
@@ -67101,7 +67107,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q318">
         <v>3</v>
@@ -67719,7 +67725,7 @@
         <v>92</v>
       </c>
       <c r="P321" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q321">
         <v>3.1</v>
@@ -68543,7 +68549,7 @@
         <v>296</v>
       </c>
       <c r="P325" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q325">
         <v>3.25</v>
@@ -69445,7 +69451,7 @@
         <v>1.14</v>
       </c>
       <c r="AP329">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ329">
         <v>1.2</v>
@@ -71508,7 +71514,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ339">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR339">
         <v>1.39</v>
@@ -71711,7 +71717,7 @@
         <v>1.13</v>
       </c>
       <c r="AP340">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ340">
         <v>1.2</v>
@@ -71839,7 +71845,7 @@
         <v>301</v>
       </c>
       <c r="P341" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q341">
         <v>2.5</v>
@@ -72045,7 +72051,7 @@
         <v>96</v>
       </c>
       <c r="P342" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q342">
         <v>2.5</v>
@@ -72329,7 +72335,7 @@
         <v>1</v>
       </c>
       <c r="AP343">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ343">
         <v>1.11</v>
@@ -72663,7 +72669,7 @@
         <v>121</v>
       </c>
       <c r="P345" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q345">
         <v>3.65</v>
@@ -73899,7 +73905,7 @@
         <v>306</v>
       </c>
       <c r="P351" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q351">
         <v>3.25</v>
@@ -75547,7 +75553,7 @@
         <v>309</v>
       </c>
       <c r="P359" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q359">
         <v>2.75</v>
@@ -76037,7 +76043,7 @@
         <v>0.67</v>
       </c>
       <c r="AP361">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ361">
         <v>0.9</v>
@@ -76165,7 +76171,7 @@
         <v>310</v>
       </c>
       <c r="P362" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q362">
         <v>3.1</v>
@@ -76243,7 +76249,7 @@
         <v>0.88</v>
       </c>
       <c r="AP362">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ362">
         <v>0.85</v>
@@ -76783,7 +76789,7 @@
         <v>96</v>
       </c>
       <c r="P365" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q365">
         <v>2.73</v>
@@ -76989,7 +76995,7 @@
         <v>312</v>
       </c>
       <c r="P366" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q366">
         <v>3.9</v>
@@ -77195,7 +77201,7 @@
         <v>96</v>
       </c>
       <c r="P367" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q367">
         <v>2.8</v>
@@ -78019,7 +78025,7 @@
         <v>315</v>
       </c>
       <c r="P371" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q371">
         <v>3.25</v>
@@ -78225,7 +78231,7 @@
         <v>316</v>
       </c>
       <c r="P372" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q372">
         <v>3.25</v>
@@ -78637,7 +78643,7 @@
         <v>96</v>
       </c>
       <c r="P374" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q374">
         <v>4.5</v>
@@ -78718,7 +78724,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ374">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR374">
         <v>1.3</v>
@@ -78843,7 +78849,7 @@
         <v>96</v>
       </c>
       <c r="P375" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q375">
         <v>2.38</v>
@@ -79667,7 +79673,7 @@
         <v>126</v>
       </c>
       <c r="P379" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q379">
         <v>2.3</v>
@@ -80079,7 +80085,7 @@
         <v>96</v>
       </c>
       <c r="P381" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q381">
         <v>3.45</v>
@@ -80491,7 +80497,7 @@
         <v>203</v>
       </c>
       <c r="P383" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q383">
         <v>3.7</v>
@@ -80569,7 +80575,7 @@
         <v>1.24</v>
       </c>
       <c r="AP383">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ383">
         <v>1.15</v>
@@ -80903,7 +80909,7 @@
         <v>320</v>
       </c>
       <c r="P385" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q385">
         <v>3.1</v>
@@ -81187,7 +81193,7 @@
         <v>0.41</v>
       </c>
       <c r="AP386">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ386">
         <v>0.5</v>
@@ -81521,7 +81527,7 @@
         <v>96</v>
       </c>
       <c r="P388" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q388">
         <v>4.2</v>
@@ -81602,7 +81608,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ388">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR388">
         <v>1.14</v>
@@ -82139,7 +82145,7 @@
         <v>321</v>
       </c>
       <c r="P391" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q391">
         <v>2.31</v>
@@ -82345,7 +82351,7 @@
         <v>322</v>
       </c>
       <c r="P392" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q392">
         <v>3.35</v>
@@ -83787,7 +83793,7 @@
         <v>270</v>
       </c>
       <c r="P399" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q399">
         <v>2.8</v>
@@ -83993,7 +83999,7 @@
         <v>326</v>
       </c>
       <c r="P400" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q400">
         <v>2.38</v>
@@ -84199,7 +84205,7 @@
         <v>327</v>
       </c>
       <c r="P401" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q401">
         <v>2.79</v>
@@ -84405,7 +84411,7 @@
         <v>96</v>
       </c>
       <c r="P402" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q402">
         <v>2.34</v>
@@ -84895,7 +84901,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP404">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ404">
         <v>1.05</v>
@@ -85641,7 +85647,7 @@
         <v>96</v>
       </c>
       <c r="P408" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q408">
         <v>2.88</v>
@@ -85847,7 +85853,7 @@
         <v>96</v>
       </c>
       <c r="P409" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q409">
         <v>3.25</v>
@@ -86134,7 +86140,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ410">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR410">
         <v>1.3</v>
@@ -86259,7 +86265,7 @@
         <v>96</v>
       </c>
       <c r="P411" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q411">
         <v>3.75</v>
@@ -87495,7 +87501,7 @@
         <v>331</v>
       </c>
       <c r="P417" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q417">
         <v>4</v>
@@ -87701,7 +87707,7 @@
         <v>213</v>
       </c>
       <c r="P418" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q418">
         <v>3.1</v>
@@ -87779,7 +87785,7 @@
         <v>0.61</v>
       </c>
       <c r="AP418">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ418">
         <v>0.7</v>
@@ -88113,7 +88119,7 @@
         <v>333</v>
       </c>
       <c r="P420" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q420">
         <v>2.54</v>
@@ -88525,7 +88531,7 @@
         <v>334</v>
       </c>
       <c r="P422" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q422">
         <v>2.8</v>
@@ -89143,7 +89149,7 @@
         <v>336</v>
       </c>
       <c r="P425" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q425">
         <v>3</v>
@@ -90173,7 +90179,7 @@
         <v>96</v>
       </c>
       <c r="P430" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q430">
         <v>2.22</v>
@@ -90681,19 +90687,19 @@
         <v>5</v>
       </c>
       <c r="AV432">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW432">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AX432">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AY432">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ432">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA432">
         <v>7</v>
@@ -90791,7 +90797,7 @@
         <v>339</v>
       </c>
       <c r="P433" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q433">
         <v>2.65</v>
@@ -90884,22 +90890,22 @@
         <v>2.46</v>
       </c>
       <c r="AU433">
+        <v>7</v>
+      </c>
+      <c r="AV433">
         <v>5</v>
       </c>
-      <c r="AV433">
-        <v>3</v>
-      </c>
       <c r="AW433">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX433">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY433">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ433">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA433">
         <v>4</v>
@@ -90997,7 +91003,7 @@
         <v>96</v>
       </c>
       <c r="P434" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q434">
         <v>2.8</v>
@@ -91093,19 +91099,19 @@
         <v>4</v>
       </c>
       <c r="AV434">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW434">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AX434">
         <v>2</v>
       </c>
       <c r="AY434">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AZ434">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA434">
         <v>6</v>
@@ -91409,7 +91415,7 @@
         <v>96</v>
       </c>
       <c r="P436" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q436">
         <v>2.95</v>
@@ -91708,22 +91714,22 @@
         <v>2.67</v>
       </c>
       <c r="AU437">
+        <v>8</v>
+      </c>
+      <c r="AV437">
+        <v>2</v>
+      </c>
+      <c r="AW437">
+        <v>9</v>
+      </c>
+      <c r="AX437">
         <v>5</v>
       </c>
-      <c r="AV437">
-        <v>3</v>
-      </c>
-      <c r="AW437">
-        <v>2</v>
-      </c>
-      <c r="AX437">
-        <v>3</v>
-      </c>
       <c r="AY437">
+        <v>17</v>
+      </c>
+      <c r="AZ437">
         <v>7</v>
-      </c>
-      <c r="AZ437">
-        <v>6</v>
       </c>
       <c r="BA437">
         <v>3</v>
@@ -91772,6 +91778,418 @@
       </c>
       <c r="BP437">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:68">
+      <c r="A438" s="1">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>6720136</v>
+      </c>
+      <c r="C438" t="s">
+        <v>68</v>
+      </c>
+      <c r="D438" t="s">
+        <v>69</v>
+      </c>
+      <c r="E438" s="2">
+        <v>45431.46875</v>
+      </c>
+      <c r="F438">
+        <v>40</v>
+      </c>
+      <c r="G438" t="s">
+        <v>85</v>
+      </c>
+      <c r="H438" t="s">
+        <v>71</v>
+      </c>
+      <c r="I438">
+        <v>1</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>1</v>
+      </c>
+      <c r="L438">
+        <v>1</v>
+      </c>
+      <c r="M438">
+        <v>1</v>
+      </c>
+      <c r="N438">
+        <v>2</v>
+      </c>
+      <c r="O438" t="s">
+        <v>110</v>
+      </c>
+      <c r="P438" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q438">
+        <v>4.33</v>
+      </c>
+      <c r="R438">
+        <v>1.85</v>
+      </c>
+      <c r="S438">
+        <v>2.88</v>
+      </c>
+      <c r="T438">
+        <v>1.57</v>
+      </c>
+      <c r="U438">
+        <v>2.25</v>
+      </c>
+      <c r="V438">
+        <v>3.55</v>
+      </c>
+      <c r="W438">
+        <v>1.25</v>
+      </c>
+      <c r="X438">
+        <v>9.9</v>
+      </c>
+      <c r="Y438">
+        <v>1.03</v>
+      </c>
+      <c r="Z438">
+        <v>3.6</v>
+      </c>
+      <c r="AA438">
+        <v>2.95</v>
+      </c>
+      <c r="AB438">
+        <v>2.14</v>
+      </c>
+      <c r="AC438">
+        <v>1.1</v>
+      </c>
+      <c r="AD438">
+        <v>6.5</v>
+      </c>
+      <c r="AE438">
+        <v>1.47</v>
+      </c>
+      <c r="AF438">
+        <v>2.5</v>
+      </c>
+      <c r="AG438">
+        <v>2.41</v>
+      </c>
+      <c r="AH438">
+        <v>1.5</v>
+      </c>
+      <c r="AI438">
+        <v>2.05</v>
+      </c>
+      <c r="AJ438">
+        <v>1.67</v>
+      </c>
+      <c r="AK438">
+        <v>1.65</v>
+      </c>
+      <c r="AL438">
+        <v>1.33</v>
+      </c>
+      <c r="AM438">
+        <v>1.25</v>
+      </c>
+      <c r="AN438">
+        <v>1.26</v>
+      </c>
+      <c r="AO438">
+        <v>1.26</v>
+      </c>
+      <c r="AP438">
+        <v>1.25</v>
+      </c>
+      <c r="AQ438">
+        <v>1.25</v>
+      </c>
+      <c r="AR438">
+        <v>1.28</v>
+      </c>
+      <c r="AS438">
+        <v>1.27</v>
+      </c>
+      <c r="AT438">
+        <v>2.55</v>
+      </c>
+      <c r="AU438">
+        <v>11</v>
+      </c>
+      <c r="AV438">
+        <v>6</v>
+      </c>
+      <c r="AW438">
+        <v>7</v>
+      </c>
+      <c r="AX438">
+        <v>12</v>
+      </c>
+      <c r="AY438">
+        <v>18</v>
+      </c>
+      <c r="AZ438">
+        <v>18</v>
+      </c>
+      <c r="BA438">
+        <v>4</v>
+      </c>
+      <c r="BB438">
+        <v>6</v>
+      </c>
+      <c r="BC438">
+        <v>10</v>
+      </c>
+      <c r="BD438">
+        <v>2.64</v>
+      </c>
+      <c r="BE438">
+        <v>7.5</v>
+      </c>
+      <c r="BF438">
+        <v>1.69</v>
+      </c>
+      <c r="BG438">
+        <v>1.34</v>
+      </c>
+      <c r="BH438">
+        <v>2.88</v>
+      </c>
+      <c r="BI438">
+        <v>1.92</v>
+      </c>
+      <c r="BJ438">
+        <v>1.88</v>
+      </c>
+      <c r="BK438">
+        <v>2.12</v>
+      </c>
+      <c r="BL438">
+        <v>1.72</v>
+      </c>
+      <c r="BM438">
+        <v>2.8</v>
+      </c>
+      <c r="BN438">
+        <v>1.38</v>
+      </c>
+      <c r="BO438">
+        <v>3.9</v>
+      </c>
+      <c r="BP438">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:68">
+      <c r="A439" s="1">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>6720146</v>
+      </c>
+      <c r="C439" t="s">
+        <v>68</v>
+      </c>
+      <c r="D439" t="s">
+        <v>69</v>
+      </c>
+      <c r="E439" s="2">
+        <v>45431.66666666666</v>
+      </c>
+      <c r="F439">
+        <v>40</v>
+      </c>
+      <c r="G439" t="s">
+        <v>73</v>
+      </c>
+      <c r="H439" t="s">
+        <v>90</v>
+      </c>
+      <c r="I439">
+        <v>1</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>1</v>
+      </c>
+      <c r="L439">
+        <v>2</v>
+      </c>
+      <c r="M439">
+        <v>2</v>
+      </c>
+      <c r="N439">
+        <v>4</v>
+      </c>
+      <c r="O439" t="s">
+        <v>340</v>
+      </c>
+      <c r="P439" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q439">
+        <v>2.9</v>
+      </c>
+      <c r="R439">
+        <v>1.85</v>
+      </c>
+      <c r="S439">
+        <v>4.2</v>
+      </c>
+      <c r="T439">
+        <v>1.57</v>
+      </c>
+      <c r="U439">
+        <v>2.25</v>
+      </c>
+      <c r="V439">
+        <v>3.55</v>
+      </c>
+      <c r="W439">
+        <v>1.25</v>
+      </c>
+      <c r="X439">
+        <v>10.5</v>
+      </c>
+      <c r="Y439">
+        <v>1.03</v>
+      </c>
+      <c r="Z439">
+        <v>1.91</v>
+      </c>
+      <c r="AA439">
+        <v>3.2</v>
+      </c>
+      <c r="AB439">
+        <v>4.2</v>
+      </c>
+      <c r="AC439">
+        <v>1.1</v>
+      </c>
+      <c r="AD439">
+        <v>7</v>
+      </c>
+      <c r="AE439">
+        <v>1.5</v>
+      </c>
+      <c r="AF439">
+        <v>2.5</v>
+      </c>
+      <c r="AG439">
+        <v>2.37</v>
+      </c>
+      <c r="AH439">
+        <v>1.48</v>
+      </c>
+      <c r="AI439">
+        <v>2</v>
+      </c>
+      <c r="AJ439">
+        <v>1.7</v>
+      </c>
+      <c r="AK439">
+        <v>1.25</v>
+      </c>
+      <c r="AL439">
+        <v>1.33</v>
+      </c>
+      <c r="AM439">
+        <v>1.62</v>
+      </c>
+      <c r="AN439">
+        <v>1.32</v>
+      </c>
+      <c r="AO439">
+        <v>1</v>
+      </c>
+      <c r="AP439">
+        <v>1.3</v>
+      </c>
+      <c r="AQ439">
+        <v>1</v>
+      </c>
+      <c r="AR439">
+        <v>1.46</v>
+      </c>
+      <c r="AS439">
+        <v>1.12</v>
+      </c>
+      <c r="AT439">
+        <v>2.58</v>
+      </c>
+      <c r="AU439">
+        <v>7</v>
+      </c>
+      <c r="AV439">
+        <v>5</v>
+      </c>
+      <c r="AW439">
+        <v>13</v>
+      </c>
+      <c r="AX439">
+        <v>7</v>
+      </c>
+      <c r="AY439">
+        <v>20</v>
+      </c>
+      <c r="AZ439">
+        <v>12</v>
+      </c>
+      <c r="BA439">
+        <v>9</v>
+      </c>
+      <c r="BB439">
+        <v>9</v>
+      </c>
+      <c r="BC439">
+        <v>18</v>
+      </c>
+      <c r="BD439">
+        <v>1.69</v>
+      </c>
+      <c r="BE439">
+        <v>7.5</v>
+      </c>
+      <c r="BF439">
+        <v>2.64</v>
+      </c>
+      <c r="BG439">
+        <v>1.51</v>
+      </c>
+      <c r="BH439">
+        <v>2.51</v>
+      </c>
+      <c r="BI439">
+        <v>1.9</v>
+      </c>
+      <c r="BJ439">
+        <v>1.9</v>
+      </c>
+      <c r="BK439">
+        <v>2.35</v>
+      </c>
+      <c r="BL439">
+        <v>1.57</v>
+      </c>
+      <c r="BM439">
+        <v>3.2</v>
+      </c>
+      <c r="BN439">
+        <v>1.28</v>
+      </c>
+      <c r="BO439">
+        <v>4.7</v>
+      </c>
+      <c r="BP439">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -92338,22 +92338,22 @@
         <v>2.64</v>
       </c>
       <c r="AU440">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV440">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW440">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX440">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY440">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ440">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA440">
         <v>2</v>
@@ -92544,22 +92544,22 @@
         <v>2.71</v>
       </c>
       <c r="AU441">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV441">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW441">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AX441">
         <v>1</v>
       </c>
       <c r="AY441">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ441">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA441">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -92786,28 +92786,28 @@
         <v>5</v>
       </c>
       <c r="AV442">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW442">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AX442">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AY442">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AZ442">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BA442">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB442">
         <v>6</v>
       </c>
       <c r="BC442">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD442">
         <v>1.35</v>
@@ -92989,22 +92989,22 @@
         <v>2.65</v>
       </c>
       <c r="AU443">
+        <v>7</v>
+      </c>
+      <c r="AV443">
+        <v>3</v>
+      </c>
+      <c r="AW443">
+        <v>3</v>
+      </c>
+      <c r="AX443">
+        <v>5</v>
+      </c>
+      <c r="AY443">
+        <v>10</v>
+      </c>
+      <c r="AZ443">
         <v>8</v>
-      </c>
-      <c r="AV443">
-        <v>5</v>
-      </c>
-      <c r="AW443">
-        <v>8</v>
-      </c>
-      <c r="AX443">
-        <v>7</v>
-      </c>
-      <c r="AY443">
-        <v>16</v>
-      </c>
-      <c r="AZ443">
-        <v>12</v>
       </c>
       <c r="BA443">
         <v>9</v>
@@ -93195,22 +93195,22 @@
         <v>2.65</v>
       </c>
       <c r="AU444">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV444">
+        <v>3</v>
+      </c>
+      <c r="AW444">
         <v>5</v>
       </c>
-      <c r="AW444">
-        <v>11</v>
-      </c>
       <c r="AX444">
+        <v>5</v>
+      </c>
+      <c r="AY444">
         <v>8</v>
       </c>
-      <c r="AY444">
-        <v>17</v>
-      </c>
       <c r="AZ444">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA444">
         <v>3</v>
@@ -93401,22 +93401,22 @@
         <v>2.85</v>
       </c>
       <c r="AU445">
+        <v>2</v>
+      </c>
+      <c r="AV445">
+        <v>2</v>
+      </c>
+      <c r="AW445">
+        <v>3</v>
+      </c>
+      <c r="AX445">
+        <v>8</v>
+      </c>
+      <c r="AY445">
         <v>5</v>
       </c>
-      <c r="AV445">
-        <v>2</v>
-      </c>
-      <c r="AW445">
-        <v>8</v>
-      </c>
-      <c r="AX445">
-        <v>13</v>
-      </c>
-      <c r="AY445">
-        <v>13</v>
-      </c>
       <c r="AZ445">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA445">
         <v>6</v>
@@ -93607,31 +93607,31 @@
         <v>2.2</v>
       </c>
       <c r="AU446">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV446">
         <v>4</v>
       </c>
       <c r="AW446">
+        <v>3</v>
+      </c>
+      <c r="AX446">
         <v>6</v>
       </c>
-      <c r="AX446">
+      <c r="AY446">
+        <v>7</v>
+      </c>
+      <c r="AZ446">
         <v>10</v>
       </c>
-      <c r="AY446">
-        <v>11</v>
-      </c>
-      <c r="AZ446">
-        <v>14</v>
-      </c>
       <c r="BA446">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB446">
         <v>2</v>
       </c>
       <c r="BC446">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD446">
         <v>2.09</v>
@@ -93813,22 +93813,22 @@
         <v>2.52</v>
       </c>
       <c r="AU447">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV447">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW447">
+        <v>4</v>
+      </c>
+      <c r="AX447">
+        <v>3</v>
+      </c>
+      <c r="AY447">
         <v>8</v>
       </c>
-      <c r="AX447">
-        <v>8</v>
-      </c>
-      <c r="AY447">
-        <v>13</v>
-      </c>
       <c r="AZ447">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA447">
         <v>4</v>
@@ -94019,22 +94019,22 @@
         <v>2.56</v>
       </c>
       <c r="AU448">
+        <v>2</v>
+      </c>
+      <c r="AV448">
+        <v>2</v>
+      </c>
+      <c r="AW448">
         <v>4</v>
       </c>
-      <c r="AV448">
-        <v>4</v>
-      </c>
-      <c r="AW448">
+      <c r="AX448">
+        <v>1</v>
+      </c>
+      <c r="AY448">
         <v>6</v>
       </c>
-      <c r="AX448">
-        <v>2</v>
-      </c>
-      <c r="AY448">
-        <v>10</v>
-      </c>
       <c r="AZ448">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BA448">
         <v>1</v>
@@ -94228,19 +94228,19 @@
         <v>5</v>
       </c>
       <c r="AV449">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW449">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AX449">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY449">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ449">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA449">
         <v>6</v>
@@ -94431,22 +94431,22 @@
         <v>2.76</v>
       </c>
       <c r="AU450">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV450">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW450">
+        <v>5</v>
+      </c>
+      <c r="AX450">
+        <v>6</v>
+      </c>
+      <c r="AY450">
+        <v>7</v>
+      </c>
+      <c r="AZ450">
         <v>10</v>
-      </c>
-      <c r="AX450">
-        <v>11</v>
-      </c>
-      <c r="AY450">
-        <v>13</v>
-      </c>
-      <c r="AZ450">
-        <v>14</v>
       </c>
       <c r="BA450">
         <v>2</v>
@@ -94637,22 +94637,22 @@
         <v>2.23</v>
       </c>
       <c r="AU451">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV451">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW451">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX451">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY451">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ451">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BA451">
         <v>4</v>
@@ -94843,22 +94843,22 @@
         <v>2.77</v>
       </c>
       <c r="AU452">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV452">
+        <v>3</v>
+      </c>
+      <c r="AW452">
+        <v>5</v>
+      </c>
+      <c r="AX452">
         <v>4</v>
       </c>
-      <c r="AW452">
-        <v>12</v>
-      </c>
-      <c r="AX452">
-        <v>5</v>
-      </c>
       <c r="AY452">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ452">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA452">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -92786,19 +92786,19 @@
         <v>5</v>
       </c>
       <c r="AV442">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW442">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AX442">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AY442">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ442">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BA442">
         <v>12</v>
@@ -92989,22 +92989,22 @@
         <v>2.65</v>
       </c>
       <c r="AU443">
+        <v>8</v>
+      </c>
+      <c r="AV443">
+        <v>5</v>
+      </c>
+      <c r="AW443">
+        <v>8</v>
+      </c>
+      <c r="AX443">
         <v>7</v>
       </c>
-      <c r="AV443">
-        <v>3</v>
-      </c>
-      <c r="AW443">
-        <v>3</v>
-      </c>
-      <c r="AX443">
-        <v>5</v>
-      </c>
       <c r="AY443">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ443">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA443">
         <v>9</v>
@@ -93195,22 +93195,22 @@
         <v>2.65</v>
       </c>
       <c r="AU444">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV444">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW444">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX444">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY444">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AZ444">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA444">
         <v>3</v>
@@ -93401,22 +93401,22 @@
         <v>2.85</v>
       </c>
       <c r="AU445">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV445">
         <v>2</v>
       </c>
       <c r="AW445">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX445">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AY445">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AZ445">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA445">
         <v>6</v>
@@ -93607,22 +93607,22 @@
         <v>2.2</v>
       </c>
       <c r="AU446">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV446">
         <v>4</v>
       </c>
       <c r="AW446">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX446">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY446">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ446">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA446">
         <v>3</v>
@@ -93813,22 +93813,22 @@
         <v>2.52</v>
       </c>
       <c r="AU447">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV447">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW447">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX447">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY447">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ447">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA447">
         <v>4</v>
@@ -94019,22 +94019,22 @@
         <v>2.56</v>
       </c>
       <c r="AU448">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV448">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW448">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY448">
+        <v>10</v>
+      </c>
+      <c r="AZ448">
         <v>6</v>
-      </c>
-      <c r="AZ448">
-        <v>3</v>
       </c>
       <c r="BA448">
         <v>1</v>
@@ -94228,19 +94228,19 @@
         <v>5</v>
       </c>
       <c r="AV449">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW449">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX449">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY449">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ449">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA449">
         <v>6</v>
@@ -94431,22 +94431,22 @@
         <v>2.76</v>
       </c>
       <c r="AU450">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV450">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW450">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX450">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY450">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ450">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA450">
         <v>2</v>
@@ -94637,22 +94637,22 @@
         <v>2.23</v>
       </c>
       <c r="AU451">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV451">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW451">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX451">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY451">
+        <v>10</v>
+      </c>
+      <c r="AZ451">
         <v>8</v>
-      </c>
-      <c r="AZ451">
-        <v>3</v>
       </c>
       <c r="BA451">
         <v>4</v>
@@ -94843,22 +94843,22 @@
         <v>2.77</v>
       </c>
       <c r="AU452">
+        <v>6</v>
+      </c>
+      <c r="AV452">
+        <v>4</v>
+      </c>
+      <c r="AW452">
+        <v>12</v>
+      </c>
+      <c r="AX452">
         <v>5</v>
       </c>
-      <c r="AV452">
-        <v>3</v>
-      </c>
-      <c r="AW452">
-        <v>5</v>
-      </c>
-      <c r="AX452">
-        <v>4</v>
-      </c>
       <c r="AY452">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ452">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA452">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="480">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1815,7 +1815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP463"/>
+  <dimension ref="A1:BP464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2567,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.95</v>
@@ -8541,7 +8541,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ33">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -11425,7 +11425,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ47">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR47">
         <v>1.7</v>
@@ -11628,7 +11628,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1.1</v>
@@ -15751,7 +15751,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR68">
         <v>1.52</v>
@@ -17190,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>1.19</v>
@@ -21104,7 +21104,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>1.29</v>
@@ -21931,7 +21931,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ98">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR98">
         <v>1.47</v>
@@ -23373,7 +23373,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ105">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR105">
         <v>0.99</v>
@@ -24812,7 +24812,7 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
         <v>0.76</v>
@@ -27905,7 +27905,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ127">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR127">
         <v>1.29</v>
@@ -30786,7 +30786,7 @@
         <v>1.33</v>
       </c>
       <c r="AP141">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
         <v>0.86</v>
@@ -31613,7 +31613,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ145">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR145">
         <v>1.44</v>
@@ -35936,7 +35936,7 @@
         <v>0.86</v>
       </c>
       <c r="AP166">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ166">
         <v>1.1</v>
@@ -37584,10 +37584,10 @@
         <v>1.63</v>
       </c>
       <c r="AP174">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ174">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR174">
         <v>1.21</v>
@@ -40674,7 +40674,7 @@
         <v>1.38</v>
       </c>
       <c r="AP189">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ189">
         <v>1.19</v>
@@ -42737,7 +42737,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ199">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR199">
         <v>1.64</v>
@@ -45206,7 +45206,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ211">
         <v>1.1</v>
@@ -46445,7 +46445,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ217">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR217">
         <v>1.38</v>
@@ -50562,7 +50562,7 @@
         <v>0.2</v>
       </c>
       <c r="AP237">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ237">
         <v>0.86</v>
@@ -53655,7 +53655,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ252">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR252">
         <v>1.19</v>
@@ -54888,7 +54888,7 @@
         <v>1.82</v>
       </c>
       <c r="AP258">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ258">
         <v>1.57</v>
@@ -57775,7 +57775,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ272">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR272">
         <v>1.43</v>
@@ -57978,7 +57978,7 @@
         <v>1.33</v>
       </c>
       <c r="AP273">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ273">
         <v>1.14</v>
@@ -61480,7 +61480,7 @@
         <v>0.62</v>
       </c>
       <c r="AP290">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ290">
         <v>0.71</v>
@@ -62925,7 +62925,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ297">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR297">
         <v>1.64</v>
@@ -66218,7 +66218,7 @@
         <v>1.14</v>
       </c>
       <c r="AP313">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ313">
         <v>1.14</v>
@@ -67251,7 +67251,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ318">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR318">
         <v>1.35</v>
@@ -70956,7 +70956,7 @@
         <v>0.93</v>
       </c>
       <c r="AP336">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ336">
         <v>1.05</v>
@@ -73431,7 +73431,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ348">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR348">
         <v>1.64</v>
@@ -76724,7 +76724,7 @@
         <v>0.44</v>
       </c>
       <c r="AP364">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ364">
         <v>0.48</v>
@@ -78581,7 +78581,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ373">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR373">
         <v>1.36</v>
@@ -80020,7 +80020,7 @@
         <v>0.71</v>
       </c>
       <c r="AP380">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ380">
         <v>0.8100000000000001</v>
@@ -80435,7 +80435,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ382">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR382">
         <v>1.45</v>
@@ -84964,7 +84964,7 @@
         <v>0.78</v>
       </c>
       <c r="AP404">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ404">
         <v>0.86</v>
@@ -85585,7 +85585,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ407">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR407">
         <v>1.64</v>
@@ -89293,7 +89293,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ425">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR425">
         <v>1.54</v>
@@ -89702,7 +89702,7 @@
         <v>1.11</v>
       </c>
       <c r="AP427">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ427">
         <v>1.14</v>
@@ -93204,7 +93204,7 @@
         <v>0.6</v>
       </c>
       <c r="AP444">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ444">
         <v>0.57</v>
@@ -93619,7 +93619,7 @@
         <v>2</v>
       </c>
       <c r="AQ446">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR446">
         <v>1.49</v>
@@ -97197,6 +97197,212 @@
       </c>
       <c r="BP463">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="464" spans="1:68">
+      <c r="A464" s="1">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>7443751</v>
+      </c>
+      <c r="C464" t="s">
+        <v>68</v>
+      </c>
+      <c r="D464" t="s">
+        <v>69</v>
+      </c>
+      <c r="E464" s="2">
+        <v>45451.5625</v>
+      </c>
+      <c r="F464">
+        <v>0</v>
+      </c>
+      <c r="G464" t="s">
+        <v>86</v>
+      </c>
+      <c r="H464" t="s">
+        <v>82</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>0</v>
+      </c>
+      <c r="L464">
+        <v>0</v>
+      </c>
+      <c r="M464">
+        <v>0</v>
+      </c>
+      <c r="N464">
+        <v>0</v>
+      </c>
+      <c r="O464" t="s">
+        <v>96</v>
+      </c>
+      <c r="P464" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q464">
+        <v>3.1</v>
+      </c>
+      <c r="R464">
+        <v>2</v>
+      </c>
+      <c r="S464">
+        <v>4</v>
+      </c>
+      <c r="T464">
+        <v>1.5</v>
+      </c>
+      <c r="U464">
+        <v>2.5</v>
+      </c>
+      <c r="V464">
+        <v>3.5</v>
+      </c>
+      <c r="W464">
+        <v>1.29</v>
+      </c>
+      <c r="X464">
+        <v>10</v>
+      </c>
+      <c r="Y464">
+        <v>1.06</v>
+      </c>
+      <c r="Z464">
+        <v>2.3</v>
+      </c>
+      <c r="AA464">
+        <v>3.2</v>
+      </c>
+      <c r="AB464">
+        <v>3</v>
+      </c>
+      <c r="AC464">
+        <v>1.08</v>
+      </c>
+      <c r="AD464">
+        <v>8.25</v>
+      </c>
+      <c r="AE464">
+        <v>1.4</v>
+      </c>
+      <c r="AF464">
+        <v>2.7</v>
+      </c>
+      <c r="AG464">
+        <v>2.23</v>
+      </c>
+      <c r="AH464">
+        <v>1.58</v>
+      </c>
+      <c r="AI464">
+        <v>2</v>
+      </c>
+      <c r="AJ464">
+        <v>1.73</v>
+      </c>
+      <c r="AK464">
+        <v>1.25</v>
+      </c>
+      <c r="AL464">
+        <v>1.37</v>
+      </c>
+      <c r="AM464">
+        <v>1.57</v>
+      </c>
+      <c r="AN464">
+        <v>1.52</v>
+      </c>
+      <c r="AO464">
+        <v>1.69</v>
+      </c>
+      <c r="AP464">
+        <v>1.51</v>
+      </c>
+      <c r="AQ464">
+        <v>1.67</v>
+      </c>
+      <c r="AR464">
+        <v>1.51</v>
+      </c>
+      <c r="AS464">
+        <v>1.29</v>
+      </c>
+      <c r="AT464">
+        <v>2.8</v>
+      </c>
+      <c r="AU464">
+        <v>3</v>
+      </c>
+      <c r="AV464">
+        <v>3</v>
+      </c>
+      <c r="AW464">
+        <v>2</v>
+      </c>
+      <c r="AX464">
+        <v>3</v>
+      </c>
+      <c r="AY464">
+        <v>5</v>
+      </c>
+      <c r="AZ464">
+        <v>6</v>
+      </c>
+      <c r="BA464">
+        <v>5</v>
+      </c>
+      <c r="BB464">
+        <v>1</v>
+      </c>
+      <c r="BC464">
+        <v>6</v>
+      </c>
+      <c r="BD464">
+        <v>1.74</v>
+      </c>
+      <c r="BE464">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF464">
+        <v>2.47</v>
+      </c>
+      <c r="BG464">
+        <v>1.21</v>
+      </c>
+      <c r="BH464">
+        <v>3.74</v>
+      </c>
+      <c r="BI464">
+        <v>1.42</v>
+      </c>
+      <c r="BJ464">
+        <v>2.69</v>
+      </c>
+      <c r="BK464">
+        <v>1.75</v>
+      </c>
+      <c r="BL464">
+        <v>2.06</v>
+      </c>
+      <c r="BM464">
+        <v>2.18</v>
+      </c>
+      <c r="BN464">
+        <v>1.66</v>
+      </c>
+      <c r="BO464">
+        <v>2.84</v>
+      </c>
+      <c r="BP464">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="481">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1455,6 +1455,9 @@
   <si>
     <t>['5', '81', '90+7']</t>
   </si>
+  <si>
+    <t>['59', '79']</t>
+  </si>
 </sst>
 </file>
 
@@ -1815,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP465"/>
+  <dimension ref="A1:BP466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4215,7 +4218,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4830,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ15">
         <v>1.1</v>
@@ -6893,7 +6896,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR25">
         <v>1.77</v>
@@ -9571,7 +9574,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR38">
         <v>2.28</v>
@@ -10392,7 +10395,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ42">
         <v>1.57</v>
@@ -14718,7 +14721,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ63">
         <v>0.95</v>
@@ -15545,7 +15548,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR67">
         <v>1.46</v>
@@ -18220,7 +18223,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ80">
         <v>0.86</v>
@@ -19047,7 +19050,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR84">
         <v>1.16</v>
@@ -23167,7 +23170,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -26460,7 +26463,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ120">
         <v>1.29</v>
@@ -27287,7 +27290,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR124">
         <v>1.07</v>
@@ -29344,7 +29347,7 @@
         <v>1.2</v>
       </c>
       <c r="AP134">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ134">
         <v>1.19</v>
@@ -33673,7 +33676,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR155">
         <v>1.3</v>
@@ -35730,7 +35733,7 @@
         <v>0.67</v>
       </c>
       <c r="AP165">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ165">
         <v>0.76</v>
@@ -39232,7 +39235,7 @@
         <v>1.5</v>
       </c>
       <c r="AP182">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ182">
         <v>1.14</v>
@@ -39853,7 +39856,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ185">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR185">
         <v>1.37</v>
@@ -44179,7 +44182,7 @@
         <v>2</v>
       </c>
       <c r="AQ206">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR206">
         <v>1.33</v>
@@ -44382,7 +44385,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP207">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ207">
         <v>0.57</v>
@@ -48708,7 +48711,7 @@
         <v>1.2</v>
       </c>
       <c r="AP228">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ228">
         <v>1.1</v>
@@ -49123,7 +49126,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ230">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR230">
         <v>1.65</v>
@@ -49738,7 +49741,7 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ233">
         <v>1.05</v>
@@ -53037,7 +53040,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ249">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR249">
         <v>1.48</v>
@@ -54270,7 +54273,7 @@
         <v>1.09</v>
       </c>
       <c r="AP255">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ255">
         <v>0.8100000000000001</v>
@@ -59423,7 +59426,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ280">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR280">
         <v>1.5</v>
@@ -60450,7 +60453,7 @@
         <v>1.25</v>
       </c>
       <c r="AP285">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ285">
         <v>1.14</v>
@@ -63337,7 +63340,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ299">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR299">
         <v>1.68</v>
@@ -63746,7 +63749,7 @@
         <v>1</v>
       </c>
       <c r="AP301">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ301">
         <v>1.27</v>
@@ -67869,7 +67872,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ321">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR321">
         <v>1.62</v>
@@ -69308,7 +69311,7 @@
         <v>0.57</v>
       </c>
       <c r="AP328">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ328">
         <v>0.71</v>
@@ -70544,7 +70547,7 @@
         <v>0.47</v>
       </c>
       <c r="AP334">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ334">
         <v>0.48</v>
@@ -72401,7 +72404,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ343">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR343">
         <v>1.26</v>
@@ -75282,7 +75285,7 @@
         <v>1.06</v>
       </c>
       <c r="AP357">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ357">
         <v>1.14</v>
@@ -76933,7 +76936,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ365">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR365">
         <v>1.71</v>
@@ -82904,7 +82907,7 @@
         <v>1</v>
       </c>
       <c r="AP394">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ394">
         <v>0.86</v>
@@ -83525,7 +83528,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ397">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR397">
         <v>1.32</v>
@@ -86409,7 +86412,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ411">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR411">
         <v>1.3</v>
@@ -87024,7 +87027,7 @@
         <v>0.83</v>
       </c>
       <c r="AP414">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ414">
         <v>0.86</v>
@@ -91762,7 +91765,7 @@
         <v>1.21</v>
       </c>
       <c r="AP437">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ437">
         <v>1.1</v>
@@ -92383,7 +92386,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ440">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR440">
         <v>1.46</v>
@@ -96912,10 +96915,10 @@
         <v>1.05</v>
       </c>
       <c r="AP462">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AQ462">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR462">
         <v>1.69</v>
@@ -97324,10 +97327,10 @@
         <v>1.69</v>
       </c>
       <c r="AP464">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AQ464">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AR464">
         <v>1.51</v>
@@ -97608,6 +97611,212 @@
         <v>3.04</v>
       </c>
       <c r="BP465">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="466" spans="1:68">
+      <c r="A466" s="1">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>7443753</v>
+      </c>
+      <c r="C466" t="s">
+        <v>68</v>
+      </c>
+      <c r="D466" t="s">
+        <v>69</v>
+      </c>
+      <c r="E466" s="2">
+        <v>45455.66666666666</v>
+      </c>
+      <c r="F466">
+        <v>0</v>
+      </c>
+      <c r="G466" t="s">
+        <v>82</v>
+      </c>
+      <c r="H466" t="s">
+        <v>86</v>
+      </c>
+      <c r="I466">
+        <v>0</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>0</v>
+      </c>
+      <c r="L466">
+        <v>0</v>
+      </c>
+      <c r="M466">
+        <v>2</v>
+      </c>
+      <c r="N466">
+        <v>2</v>
+      </c>
+      <c r="O466" t="s">
+        <v>96</v>
+      </c>
+      <c r="P466" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q466">
+        <v>2.73</v>
+      </c>
+      <c r="R466">
+        <v>2.02</v>
+      </c>
+      <c r="S466">
+        <v>4.45</v>
+      </c>
+      <c r="T466">
+        <v>1.45</v>
+      </c>
+      <c r="U466">
+        <v>2.55</v>
+      </c>
+      <c r="V466">
+        <v>3.12</v>
+      </c>
+      <c r="W466">
+        <v>1.35</v>
+      </c>
+      <c r="X466">
+        <v>8.4</v>
+      </c>
+      <c r="Y466">
+        <v>1.06</v>
+      </c>
+      <c r="Z466">
+        <v>2.01</v>
+      </c>
+      <c r="AA466">
+        <v>3.32</v>
+      </c>
+      <c r="AB466">
+        <v>3.43</v>
+      </c>
+      <c r="AC466">
+        <v>1.04</v>
+      </c>
+      <c r="AD466">
+        <v>7.5</v>
+      </c>
+      <c r="AE466">
+        <v>1.38</v>
+      </c>
+      <c r="AF466">
+        <v>3.05</v>
+      </c>
+      <c r="AG466">
+        <v>2.1</v>
+      </c>
+      <c r="AH466">
+        <v>1.65</v>
+      </c>
+      <c r="AI466">
+        <v>1.91</v>
+      </c>
+      <c r="AJ466">
+        <v>1.85</v>
+      </c>
+      <c r="AK466">
+        <v>1.22</v>
+      </c>
+      <c r="AL466">
+        <v>1.28</v>
+      </c>
+      <c r="AM466">
+        <v>1.65</v>
+      </c>
+      <c r="AN466">
+        <v>1.67</v>
+      </c>
+      <c r="AO466">
+        <v>1.51</v>
+      </c>
+      <c r="AP466">
+        <v>1.64</v>
+      </c>
+      <c r="AQ466">
+        <v>1.55</v>
+      </c>
+      <c r="AR466">
+        <v>1.72</v>
+      </c>
+      <c r="AS466">
+        <v>1.24</v>
+      </c>
+      <c r="AT466">
+        <v>2.96</v>
+      </c>
+      <c r="AU466">
+        <v>5</v>
+      </c>
+      <c r="AV466">
+        <v>4</v>
+      </c>
+      <c r="AW466">
+        <v>3</v>
+      </c>
+      <c r="AX466">
+        <v>5</v>
+      </c>
+      <c r="AY466">
+        <v>8</v>
+      </c>
+      <c r="AZ466">
+        <v>9</v>
+      </c>
+      <c r="BA466">
+        <v>5</v>
+      </c>
+      <c r="BB466">
+        <v>1</v>
+      </c>
+      <c r="BC466">
+        <v>6</v>
+      </c>
+      <c r="BD466">
+        <v>1.64</v>
+      </c>
+      <c r="BE466">
+        <v>8</v>
+      </c>
+      <c r="BF466">
+        <v>2.77</v>
+      </c>
+      <c r="BG466">
+        <v>1.23</v>
+      </c>
+      <c r="BH466">
+        <v>3.56</v>
+      </c>
+      <c r="BI466">
+        <v>1.46</v>
+      </c>
+      <c r="BJ466">
+        <v>2.56</v>
+      </c>
+      <c r="BK466">
+        <v>1.82</v>
+      </c>
+      <c r="BL466">
+        <v>1.95</v>
+      </c>
+      <c r="BM466">
+        <v>2.3</v>
+      </c>
+      <c r="BN466">
+        <v>1.56</v>
+      </c>
+      <c r="BO466">
+        <v>3.04</v>
+      </c>
+      <c r="BP466">
         <v>1.31</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="481">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1818,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP466"/>
+  <dimension ref="A1:BP467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2364,7 +2364,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ3">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ16">
         <v>1.05</v>
@@ -7720,7 +7720,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ29">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ43">
         <v>0.86</v>
@@ -11634,7 +11634,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR48">
         <v>1.44</v>
@@ -14927,7 +14927,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ64">
         <v>1.14</v>
@@ -15960,7 +15960,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ69">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR69">
         <v>1.18</v>
@@ -19874,7 +19874,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ88">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR88">
         <v>1.27</v>
@@ -20077,7 +20077,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ89">
         <v>0.95</v>
@@ -22964,7 +22964,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR103">
         <v>1.15</v>
@@ -25639,7 +25639,7 @@
         <v>1.5</v>
       </c>
       <c r="AP116">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ116">
         <v>1.19</v>
@@ -27081,7 +27081,7 @@
         <v>1.8</v>
       </c>
       <c r="AP123">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ123">
         <v>1.57</v>
@@ -28526,7 +28526,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ130">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR130">
         <v>1.71</v>
@@ -31613,7 +31613,7 @@
         <v>1.71</v>
       </c>
       <c r="AP145">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ145">
         <v>1.18</v>
@@ -31822,7 +31822,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ146">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR146">
         <v>1.67</v>
@@ -36354,7 +36354,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ168">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR168">
         <v>1.47</v>
@@ -36969,7 +36969,7 @@
         <v>0.86</v>
       </c>
       <c r="AP171">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ171">
         <v>1.1</v>
@@ -40265,7 +40265,7 @@
         <v>1</v>
       </c>
       <c r="AP187">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ187">
         <v>0.86</v>
@@ -40886,7 +40886,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ190">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR190">
         <v>1.32</v>
@@ -43149,7 +43149,7 @@
         <v>1.38</v>
       </c>
       <c r="AP201">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ201">
         <v>1.14</v>
@@ -47887,7 +47887,7 @@
         <v>0.7</v>
       </c>
       <c r="AP224">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ224">
         <v>0.71</v>
@@ -48714,7 +48714,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ228">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR228">
         <v>1.65</v>
@@ -52628,7 +52628,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ247">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR247">
         <v>1.36</v>
@@ -52831,7 +52831,7 @@
         <v>0.55</v>
       </c>
       <c r="AP248">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ248">
         <v>0.48</v>
@@ -58393,7 +58393,7 @@
         <v>1.25</v>
       </c>
       <c r="AP275">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ275">
         <v>1.14</v>
@@ -58602,7 +58602,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ276">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR276">
         <v>1.41</v>
@@ -61895,7 +61895,7 @@
         <v>0.92</v>
       </c>
       <c r="AP292">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ292">
         <v>0.8100000000000001</v>
@@ -64576,7 +64576,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ305">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR305">
         <v>1.34</v>
@@ -66015,7 +66015,7 @@
         <v>1.29</v>
       </c>
       <c r="AP312">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ312">
         <v>1.29</v>
@@ -69108,7 +69108,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ327">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR327">
         <v>1.55</v>
@@ -73019,7 +73019,7 @@
         <v>0.87</v>
       </c>
       <c r="AP346">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ346">
         <v>0.86</v>
@@ -73228,7 +73228,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ347">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR347">
         <v>1.14</v>
@@ -78172,7 +78172,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ371">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR371">
         <v>1.3</v>
@@ -78375,7 +78375,7 @@
         <v>0.5</v>
       </c>
       <c r="AP372">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ372">
         <v>0.76</v>
@@ -82292,7 +82292,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ391">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR391">
         <v>1.71</v>
@@ -82701,7 +82701,7 @@
         <v>0.61</v>
       </c>
       <c r="AP393">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ393">
         <v>0.57</v>
@@ -87233,10 +87233,10 @@
         <v>1.06</v>
       </c>
       <c r="AP415">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ415">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR415">
         <v>1.47</v>
@@ -90944,7 +90944,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ433">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR433">
         <v>1.33</v>
@@ -92383,7 +92383,7 @@
         <v>1.11</v>
       </c>
       <c r="AP440">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ440">
         <v>1.09</v>
@@ -96091,7 +96091,7 @@
         <v>1.15</v>
       </c>
       <c r="AP458">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ458">
         <v>1.1</v>
@@ -96712,7 +96712,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ461">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR461">
         <v>1.3</v>
@@ -97533,10 +97533,10 @@
         <v>1.64</v>
       </c>
       <c r="AP465">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ465">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AR465">
         <v>1.48</v>
@@ -97818,6 +97818,212 @@
       </c>
       <c r="BP466">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="467" spans="1:68">
+      <c r="A467" s="1">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>7443754</v>
+      </c>
+      <c r="C467" t="s">
+        <v>68</v>
+      </c>
+      <c r="D467" t="s">
+        <v>69</v>
+      </c>
+      <c r="E467" s="2">
+        <v>45456.66666666666</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+      <c r="G467" t="s">
+        <v>83</v>
+      </c>
+      <c r="H467" t="s">
+        <v>87</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0</v>
+      </c>
+      <c r="L467">
+        <v>0</v>
+      </c>
+      <c r="M467">
+        <v>0</v>
+      </c>
+      <c r="N467">
+        <v>0</v>
+      </c>
+      <c r="O467" t="s">
+        <v>96</v>
+      </c>
+      <c r="P467" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q467">
+        <v>2.56</v>
+      </c>
+      <c r="R467">
+        <v>2.08</v>
+      </c>
+      <c r="S467">
+        <v>4.65</v>
+      </c>
+      <c r="T467">
+        <v>1.46</v>
+      </c>
+      <c r="U467">
+        <v>2.66</v>
+      </c>
+      <c r="V467">
+        <v>3.12</v>
+      </c>
+      <c r="W467">
+        <v>1.35</v>
+      </c>
+      <c r="X467">
+        <v>8.4</v>
+      </c>
+      <c r="Y467">
+        <v>1.06</v>
+      </c>
+      <c r="Z467">
+        <v>1.95</v>
+      </c>
+      <c r="AA467">
+        <v>3.3</v>
+      </c>
+      <c r="AB467">
+        <v>3.8</v>
+      </c>
+      <c r="AC467">
+        <v>1.03</v>
+      </c>
+      <c r="AD467">
+        <v>7.9</v>
+      </c>
+      <c r="AE467">
+        <v>1.36</v>
+      </c>
+      <c r="AF467">
+        <v>2.89</v>
+      </c>
+      <c r="AG467">
+        <v>2.05</v>
+      </c>
+      <c r="AH467">
+        <v>1.61</v>
+      </c>
+      <c r="AI467">
+        <v>1.95</v>
+      </c>
+      <c r="AJ467">
+        <v>1.82</v>
+      </c>
+      <c r="AK467">
+        <v>1.27</v>
+      </c>
+      <c r="AL467">
+        <v>1.33</v>
+      </c>
+      <c r="AM467">
+        <v>1.87</v>
+      </c>
+      <c r="AN467">
+        <v>1.67</v>
+      </c>
+      <c r="AO467">
+        <v>1.51</v>
+      </c>
+      <c r="AP467">
+        <v>1.66</v>
+      </c>
+      <c r="AQ467">
+        <v>1.5</v>
+      </c>
+      <c r="AR467">
+        <v>1.47</v>
+      </c>
+      <c r="AS467">
+        <v>1.16</v>
+      </c>
+      <c r="AT467">
+        <v>2.63</v>
+      </c>
+      <c r="AU467">
+        <v>7</v>
+      </c>
+      <c r="AV467">
+        <v>4</v>
+      </c>
+      <c r="AW467">
+        <v>9</v>
+      </c>
+      <c r="AX467">
+        <v>7</v>
+      </c>
+      <c r="AY467">
+        <v>16</v>
+      </c>
+      <c r="AZ467">
+        <v>11</v>
+      </c>
+      <c r="BA467">
+        <v>1</v>
+      </c>
+      <c r="BB467">
+        <v>7</v>
+      </c>
+      <c r="BC467">
+        <v>8</v>
+      </c>
+      <c r="BD467">
+        <v>1.64</v>
+      </c>
+      <c r="BE467">
+        <v>8</v>
+      </c>
+      <c r="BF467">
+        <v>2.77</v>
+      </c>
+      <c r="BG467">
+        <v>1.32</v>
+      </c>
+      <c r="BH467">
+        <v>3.2</v>
+      </c>
+      <c r="BI467">
+        <v>1.55</v>
+      </c>
+      <c r="BJ467">
+        <v>2.35</v>
+      </c>
+      <c r="BK467">
+        <v>2</v>
+      </c>
+      <c r="BL467">
+        <v>1.73</v>
+      </c>
+      <c r="BM467">
+        <v>2.4</v>
+      </c>
+      <c r="BN467">
+        <v>1.5</v>
+      </c>
+      <c r="BO467">
+        <v>3.2</v>
+      </c>
+      <c r="BP467">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="481">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1818,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP466"/>
+  <dimension ref="A1:BP467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2364,7 +2364,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ3">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ16">
         <v>1.05</v>
@@ -7720,7 +7720,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ29">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ43">
         <v>0.86</v>
@@ -11634,7 +11634,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR48">
         <v>1.44</v>
@@ -14927,7 +14927,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ64">
         <v>1.14</v>
@@ -15960,7 +15960,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ69">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR69">
         <v>1.18</v>
@@ -19874,7 +19874,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ88">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR88">
         <v>1.27</v>
@@ -20077,7 +20077,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ89">
         <v>0.95</v>
@@ -22964,7 +22964,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR103">
         <v>1.15</v>
@@ -25639,7 +25639,7 @@
         <v>1.5</v>
       </c>
       <c r="AP116">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ116">
         <v>1.19</v>
@@ -27081,7 +27081,7 @@
         <v>1.8</v>
       </c>
       <c r="AP123">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ123">
         <v>1.57</v>
@@ -28526,7 +28526,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ130">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR130">
         <v>1.71</v>
@@ -31613,7 +31613,7 @@
         <v>1.71</v>
       </c>
       <c r="AP145">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ145">
         <v>1.18</v>
@@ -31822,7 +31822,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ146">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR146">
         <v>1.67</v>
@@ -36354,7 +36354,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ168">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR168">
         <v>1.47</v>
@@ -36969,7 +36969,7 @@
         <v>0.86</v>
       </c>
       <c r="AP171">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ171">
         <v>1.1</v>
@@ -40265,7 +40265,7 @@
         <v>1</v>
       </c>
       <c r="AP187">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ187">
         <v>0.86</v>
@@ -40886,7 +40886,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ190">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR190">
         <v>1.32</v>
@@ -43149,7 +43149,7 @@
         <v>1.38</v>
       </c>
       <c r="AP201">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ201">
         <v>1.14</v>
@@ -47887,7 +47887,7 @@
         <v>0.7</v>
       </c>
       <c r="AP224">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ224">
         <v>0.71</v>
@@ -48714,7 +48714,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ228">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR228">
         <v>1.65</v>
@@ -52625,7 +52625,7 @@
         <v>0.55</v>
       </c>
       <c r="AP247">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ247">
         <v>0.48</v>
@@ -52834,7 +52834,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ248">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR248">
         <v>1.36</v>
@@ -58393,7 +58393,7 @@
         <v>1.25</v>
       </c>
       <c r="AP275">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ275">
         <v>1.14</v>
@@ -58602,7 +58602,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ276">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR276">
         <v>1.41</v>
@@ -61895,7 +61895,7 @@
         <v>0.92</v>
       </c>
       <c r="AP292">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ292">
         <v>0.8100000000000001</v>
@@ -64370,7 +64370,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ304">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR304">
         <v>1.34</v>
@@ -66015,7 +66015,7 @@
         <v>1.29</v>
       </c>
       <c r="AP312">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ312">
         <v>1.29</v>
@@ -69108,7 +69108,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ327">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR327">
         <v>1.55</v>
@@ -73019,7 +73019,7 @@
         <v>0.87</v>
       </c>
       <c r="AP346">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ346">
         <v>0.86</v>
@@ -73228,7 +73228,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ347">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR347">
         <v>1.14</v>
@@ -78172,7 +78172,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ371">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR371">
         <v>1.3</v>
@@ -78581,7 +78581,7 @@
         <v>0.5</v>
       </c>
       <c r="AP373">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ373">
         <v>0.76</v>
@@ -82292,7 +82292,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ391">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR391">
         <v>1.71</v>
@@ -82701,7 +82701,7 @@
         <v>0.61</v>
       </c>
       <c r="AP393">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ393">
         <v>0.57</v>
@@ -87439,10 +87439,10 @@
         <v>1.06</v>
       </c>
       <c r="AP416">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ416">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR416">
         <v>1.47</v>
@@ -90944,7 +90944,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ433">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR433">
         <v>1.33</v>
@@ -92383,7 +92383,7 @@
         <v>1.11</v>
       </c>
       <c r="AP440">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ440">
         <v>1.09</v>
@@ -95888,7 +95888,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ457">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR457">
         <v>1.3</v>
@@ -96297,7 +96297,7 @@
         <v>1.15</v>
       </c>
       <c r="AP459">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ459">
         <v>1.1</v>
@@ -97533,10 +97533,10 @@
         <v>1.64</v>
       </c>
       <c r="AP465">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ465">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AR465">
         <v>1.48</v>
@@ -97818,6 +97818,212 @@
       </c>
       <c r="BP466">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="467" spans="1:68">
+      <c r="A467" s="1">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>7443754</v>
+      </c>
+      <c r="C467" t="s">
+        <v>68</v>
+      </c>
+      <c r="D467" t="s">
+        <v>69</v>
+      </c>
+      <c r="E467" s="2">
+        <v>45456.66666666666</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+      <c r="G467" t="s">
+        <v>83</v>
+      </c>
+      <c r="H467" t="s">
+        <v>87</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0</v>
+      </c>
+      <c r="L467">
+        <v>0</v>
+      </c>
+      <c r="M467">
+        <v>0</v>
+      </c>
+      <c r="N467">
+        <v>0</v>
+      </c>
+      <c r="O467" t="s">
+        <v>96</v>
+      </c>
+      <c r="P467" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q467">
+        <v>2.56</v>
+      </c>
+      <c r="R467">
+        <v>2.08</v>
+      </c>
+      <c r="S467">
+        <v>4.65</v>
+      </c>
+      <c r="T467">
+        <v>1.46</v>
+      </c>
+      <c r="U467">
+        <v>2.66</v>
+      </c>
+      <c r="V467">
+        <v>3.12</v>
+      </c>
+      <c r="W467">
+        <v>1.35</v>
+      </c>
+      <c r="X467">
+        <v>8.4</v>
+      </c>
+      <c r="Y467">
+        <v>1.06</v>
+      </c>
+      <c r="Z467">
+        <v>1.95</v>
+      </c>
+      <c r="AA467">
+        <v>3.3</v>
+      </c>
+      <c r="AB467">
+        <v>3.8</v>
+      </c>
+      <c r="AC467">
+        <v>1.03</v>
+      </c>
+      <c r="AD467">
+        <v>7.9</v>
+      </c>
+      <c r="AE467">
+        <v>1.36</v>
+      </c>
+      <c r="AF467">
+        <v>2.89</v>
+      </c>
+      <c r="AG467">
+        <v>2.05</v>
+      </c>
+      <c r="AH467">
+        <v>1.61</v>
+      </c>
+      <c r="AI467">
+        <v>1.95</v>
+      </c>
+      <c r="AJ467">
+        <v>1.82</v>
+      </c>
+      <c r="AK467">
+        <v>1.27</v>
+      </c>
+      <c r="AL467">
+        <v>1.33</v>
+      </c>
+      <c r="AM467">
+        <v>1.87</v>
+      </c>
+      <c r="AN467">
+        <v>1.67</v>
+      </c>
+      <c r="AO467">
+        <v>1.51</v>
+      </c>
+      <c r="AP467">
+        <v>1.66</v>
+      </c>
+      <c r="AQ467">
+        <v>1.5</v>
+      </c>
+      <c r="AR467">
+        <v>1.47</v>
+      </c>
+      <c r="AS467">
+        <v>1.16</v>
+      </c>
+      <c r="AT467">
+        <v>2.63</v>
+      </c>
+      <c r="AU467">
+        <v>6</v>
+      </c>
+      <c r="AV467">
+        <v>5</v>
+      </c>
+      <c r="AW467">
+        <v>8</v>
+      </c>
+      <c r="AX467">
+        <v>7</v>
+      </c>
+      <c r="AY467">
+        <v>14</v>
+      </c>
+      <c r="AZ467">
+        <v>12</v>
+      </c>
+      <c r="BA467">
+        <v>1</v>
+      </c>
+      <c r="BB467">
+        <v>7</v>
+      </c>
+      <c r="BC467">
+        <v>8</v>
+      </c>
+      <c r="BD467">
+        <v>1.64</v>
+      </c>
+      <c r="BE467">
+        <v>8</v>
+      </c>
+      <c r="BF467">
+        <v>2.77</v>
+      </c>
+      <c r="BG467">
+        <v>1.32</v>
+      </c>
+      <c r="BH467">
+        <v>3.2</v>
+      </c>
+      <c r="BI467">
+        <v>1.55</v>
+      </c>
+      <c r="BJ467">
+        <v>2.35</v>
+      </c>
+      <c r="BK467">
+        <v>2</v>
+      </c>
+      <c r="BL467">
+        <v>1.73</v>
+      </c>
+      <c r="BM467">
+        <v>2.4</v>
+      </c>
+      <c r="BN467">
+        <v>1.5</v>
+      </c>
+      <c r="BO467">
+        <v>3.2</v>
+      </c>
+      <c r="BP467">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="481">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1818,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP467"/>
+  <dimension ref="A1:BP468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3394,7 +3394,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ8">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -5657,7 +5657,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ19">
         <v>0.95</v>
@@ -7926,7 +7926,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ30">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR30">
         <v>1.61</v>
@@ -11222,7 +11222,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR46">
         <v>1.99</v>
@@ -11631,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ48">
         <v>1.09</v>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ75">
         <v>1.19</v>
@@ -17814,7 +17814,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ78">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR78">
         <v>1.13</v>
@@ -21107,7 +21107,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ94">
         <v>1.29</v>
@@ -22140,7 +22140,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR99">
         <v>1.43</v>
@@ -24612,7 +24612,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ111">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR111">
         <v>1.79</v>
@@ -24815,7 +24815,7 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ112">
         <v>0.76</v>
@@ -29762,7 +29762,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ136">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR136">
         <v>1.57</v>
@@ -30995,7 +30995,7 @@
         <v>1.33</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ142">
         <v>0.86</v>
@@ -35324,7 +35324,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ163">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR163">
         <v>1.11</v>
@@ -35939,7 +35939,7 @@
         <v>0.86</v>
       </c>
       <c r="AP166">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ166">
         <v>1.1</v>
@@ -37587,7 +37587,7 @@
         <v>1.63</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ174">
         <v>1.18</v>
@@ -40677,10 +40677,10 @@
         <v>1.38</v>
       </c>
       <c r="AP189">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ189">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR189">
         <v>1.21</v>
@@ -45209,7 +45209,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ211">
         <v>1.1</v>
@@ -45624,7 +45624,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ213">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR213">
         <v>1.44</v>
@@ -50359,7 +50359,7 @@
         <v>0.2</v>
       </c>
       <c r="AP236">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ236">
         <v>0.86</v>
@@ -50774,7 +50774,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ238">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR238">
         <v>1.54</v>
@@ -54891,7 +54891,7 @@
         <v>1.82</v>
       </c>
       <c r="AP258">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ258">
         <v>1.57</v>
@@ -55306,7 +55306,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ260">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR260">
         <v>1.3</v>
@@ -58187,7 +58187,7 @@
         <v>1.33</v>
       </c>
       <c r="AP274">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ274">
         <v>1.14</v>
@@ -59632,7 +59632,7 @@
         <v>2</v>
       </c>
       <c r="AQ281">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR281">
         <v>1.42</v>
@@ -61483,7 +61483,7 @@
         <v>0.62</v>
       </c>
       <c r="AP290">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ290">
         <v>0.71</v>
@@ -63958,7 +63958,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ302">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR302">
         <v>1.66</v>
@@ -66221,7 +66221,7 @@
         <v>1.14</v>
       </c>
       <c r="AP313">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ313">
         <v>1.14</v>
@@ -69520,7 +69520,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ329">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR329">
         <v>1.24</v>
@@ -70753,7 +70753,7 @@
         <v>0.93</v>
       </c>
       <c r="AP335">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ335">
         <v>1.05</v>
@@ -71786,7 +71786,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ340">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR340">
         <v>1.46</v>
@@ -74670,7 +74670,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ354">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR354">
         <v>1.43</v>
@@ -76727,7 +76727,7 @@
         <v>0.44</v>
       </c>
       <c r="AP364">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ364">
         <v>0.48</v>
@@ -79202,7 +79202,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ376">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR376">
         <v>1.38</v>
@@ -80023,7 +80023,7 @@
         <v>0.71</v>
       </c>
       <c r="AP380">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ380">
         <v>0.8100000000000001</v>
@@ -84352,7 +84352,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ401">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR401">
         <v>1.67</v>
@@ -84761,7 +84761,7 @@
         <v>0.78</v>
       </c>
       <c r="AP403">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ403">
         <v>0.86</v>
@@ -89090,7 +89090,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ424">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR424">
         <v>1.61</v>
@@ -89705,7 +89705,7 @@
         <v>1.11</v>
       </c>
       <c r="AP427">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ427">
         <v>1.14</v>
@@ -93210,7 +93210,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ444">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR444">
         <v>1.13</v>
@@ -93825,7 +93825,7 @@
         <v>0.6</v>
       </c>
       <c r="AP447">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AQ447">
         <v>0.57</v>
@@ -97327,7 +97327,7 @@
         <v>1.69</v>
       </c>
       <c r="AP464">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AQ464">
         <v>1.64</v>
@@ -97536,7 +97536,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ465">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR465">
         <v>1.48</v>
@@ -97742,7 +97742,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ466">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AR466">
         <v>1.72</v>
@@ -97945,7 +97945,7 @@
         <v>1.51</v>
       </c>
       <c r="AP467">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ467">
         <v>1.5</v>
@@ -98024,6 +98024,212 @@
       </c>
       <c r="BP467">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="468" spans="1:68">
+      <c r="A468" s="1">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>7456250</v>
+      </c>
+      <c r="C468" t="s">
+        <v>68</v>
+      </c>
+      <c r="D468" t="s">
+        <v>69</v>
+      </c>
+      <c r="E468" s="2">
+        <v>45459.5625</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+      <c r="G468" t="s">
+        <v>86</v>
+      </c>
+      <c r="H468" t="s">
+        <v>83</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>0</v>
+      </c>
+      <c r="L468">
+        <v>1</v>
+      </c>
+      <c r="M468">
+        <v>0</v>
+      </c>
+      <c r="N468">
+        <v>1</v>
+      </c>
+      <c r="O468" t="s">
+        <v>298</v>
+      </c>
+      <c r="P468" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q468">
+        <v>2.89</v>
+      </c>
+      <c r="R468">
+        <v>1.96</v>
+      </c>
+      <c r="S468">
+        <v>4.33</v>
+      </c>
+      <c r="T468">
+        <v>1.54</v>
+      </c>
+      <c r="U468">
+        <v>2.43</v>
+      </c>
+      <c r="V468">
+        <v>3.54</v>
+      </c>
+      <c r="W468">
+        <v>1.28</v>
+      </c>
+      <c r="X468">
+        <v>9.9</v>
+      </c>
+      <c r="Y468">
+        <v>1.04</v>
+      </c>
+      <c r="Z468">
+        <v>2.1</v>
+      </c>
+      <c r="AA468">
+        <v>3.15</v>
+      </c>
+      <c r="AB468">
+        <v>3.55</v>
+      </c>
+      <c r="AC468">
+        <v>1.06</v>
+      </c>
+      <c r="AD468">
+        <v>6.65</v>
+      </c>
+      <c r="AE468">
+        <v>1.55</v>
+      </c>
+      <c r="AF468">
+        <v>2.45</v>
+      </c>
+      <c r="AG468">
+        <v>2.19</v>
+      </c>
+      <c r="AH468">
+        <v>1.6</v>
+      </c>
+      <c r="AI468">
+        <v>2.09</v>
+      </c>
+      <c r="AJ468">
+        <v>1.71</v>
+      </c>
+      <c r="AK468">
+        <v>1.32</v>
+      </c>
+      <c r="AL468">
+        <v>1.36</v>
+      </c>
+      <c r="AM468">
+        <v>1.69</v>
+      </c>
+      <c r="AN468">
+        <v>1.55</v>
+      </c>
+      <c r="AO468">
+        <v>1.66</v>
+      </c>
+      <c r="AP468">
+        <v>1.58</v>
+      </c>
+      <c r="AQ468">
+        <v>1.62</v>
+      </c>
+      <c r="AR468">
+        <v>1.48</v>
+      </c>
+      <c r="AS468">
+        <v>1.12</v>
+      </c>
+      <c r="AT468">
+        <v>2.6</v>
+      </c>
+      <c r="AU468">
+        <v>6</v>
+      </c>
+      <c r="AV468">
+        <v>0</v>
+      </c>
+      <c r="AW468">
+        <v>5</v>
+      </c>
+      <c r="AX468">
+        <v>4</v>
+      </c>
+      <c r="AY468">
+        <v>11</v>
+      </c>
+      <c r="AZ468">
+        <v>4</v>
+      </c>
+      <c r="BA468">
+        <v>1</v>
+      </c>
+      <c r="BB468">
+        <v>4</v>
+      </c>
+      <c r="BC468">
+        <v>5</v>
+      </c>
+      <c r="BD468">
+        <v>1.67</v>
+      </c>
+      <c r="BE468">
+        <v>6.9</v>
+      </c>
+      <c r="BF468">
+        <v>2.92</v>
+      </c>
+      <c r="BG468">
+        <v>1.21</v>
+      </c>
+      <c r="BH468">
+        <v>3.74</v>
+      </c>
+      <c r="BI468">
+        <v>1.42</v>
+      </c>
+      <c r="BJ468">
+        <v>2.69</v>
+      </c>
+      <c r="BK468">
+        <v>1.74</v>
+      </c>
+      <c r="BL468">
+        <v>2.05</v>
+      </c>
+      <c r="BM468">
+        <v>2.19</v>
+      </c>
+      <c r="BN468">
+        <v>1.62</v>
+      </c>
+      <c r="BO468">
+        <v>2.88</v>
+      </c>
+      <c r="BP468">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain Segunda División_20232024.xlsx
@@ -97336,13 +97336,13 @@
         <v>1.64</v>
       </c>
       <c r="AR464">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="AS464">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT464">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AU464">
         <v>3</v>
@@ -97542,13 +97542,13 @@
         <v>1.65</v>
       </c>
       <c r="AR465">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AS465">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AT465">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU465">
         <v>4</v>
@@ -97748,13 +97748,13 @@
         <v>1.54</v>
       </c>
       <c r="AR466">
-        <v>1.72</v>
+        <v>1.49</v>
       </c>
       <c r="AS466">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AT466">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="AU466">
         <v>5</v>
@@ -97954,13 +97954,13 @@
         <v>1.5</v>
       </c>
       <c r="AR467">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AS467">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="AT467">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="AU467">
         <v>6</v>
@@ -98160,13 +98160,13 @@
         <v>1.65</v>
       </c>
       <c r="AR468">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AS468">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AT468">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AU468">
         <v>6</v>
@@ -98366,13 +98366,13 @@
         <v>1.54</v>
       </c>
       <c r="AR469">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="AS469">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AT469">
-        <v>2.71</v>
+        <v>2.63</v>
       </c>
       <c r="AU469">
         <v>3</v>
